--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2017.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="689" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="689" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,15 +25,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.6.3.2.3.1'!$F$13:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.6.7.1.6.(1.2.3)'!$E$13:$K$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.6.7.1.6.(1.2.3)'!$G$13:$M$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2017'!$F$13:$N$268</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'COSTO DIRECTO'!$E$13:$K$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$14:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$14:$K$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GASTOS GENERALES'!$E$13:$K$186</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GESTION PROYECT.'!$E$13:$K$200</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MODELO!$B$13:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'ACTIVOS FIJOS'!$B$1:$N$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">EQUIPAMIENTO!$B$1:$N$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">G.SUPERVISION!$A$1:$K$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -664,7 +665,7 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="I38" authorId="0" shapeId="0">
+    <comment ref="I67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -688,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I45" authorId="0" shapeId="0">
+    <comment ref="I74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -750,6 +751,7 @@
           </rPr>
           <t xml:space="preserve">
 Diferencia de Monto total 
+QUE NO CUENTA CON NUMERO DE PECOSA
 </t>
         </r>
       </text>
@@ -759,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="619">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -2599,6 +2601,24 @@
   </si>
   <si>
     <t>GESTION DE PROYECTO</t>
+  </si>
+  <si>
+    <t>2.234102 RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECURSOS ORDINARIOS</t>
+  </si>
+  <si>
+    <t>14-2017</t>
+  </si>
+  <si>
+    <t>. . .VIENEN</t>
+  </si>
+  <si>
+    <t>Abancay, Agosto 2020</t>
   </si>
 </sst>
 </file>
@@ -3235,7 +3255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3758,6 +3778,8 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3932,8 +3954,56 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4262,42 +4332,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4317,23 +4387,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4456,38 +4526,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="191" t="s">
+      <c r="A12" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="193" t="s">
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="193" t="s">
+      <c r="F12" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="184" t="s">
+      <c r="G12" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="181" t="s">
+      <c r="H12" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="184" t="s">
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="186" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4497,9 +4567,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="194"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="185"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="187"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4521,7 +4591,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="185"/>
+      <c r="O13" s="187"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5092,14 +5162,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5132,42 +5202,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="189" t="s">
+      <c r="A35" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="189"/>
-      <c r="L35" s="189"/>
-      <c r="M35" s="189"/>
-      <c r="N35" s="189"/>
-      <c r="O35" s="189"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="191"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="190"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="192"/>
+      <c r="M36" s="192"/>
+      <c r="N36" s="192"/>
+      <c r="O36" s="192"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5290,38 +5360,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="191" t="s">
+      <c r="A43" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="192" t="s">
+      <c r="B43" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="193" t="s">
+      <c r="C43" s="194"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="193" t="s">
+      <c r="F43" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="184" t="s">
+      <c r="G43" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="181" t="s">
+      <c r="H43" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="183"/>
-      <c r="O43" s="184" t="s">
+      <c r="I43" s="184"/>
+      <c r="J43" s="184"/>
+      <c r="K43" s="184"/>
+      <c r="L43" s="184"/>
+      <c r="M43" s="184"/>
+      <c r="N43" s="185"/>
+      <c r="O43" s="186" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="185"/>
+      <c r="A44" s="187"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5331,9 +5401,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="185"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="187"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5355,17 +5425,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="185"/>
+      <c r="O44" s="187"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="197"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="198"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="199"/>
+      <c r="F45" s="200"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5820,14 +5890,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="186" t="s">
+      <c r="A66" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="187"/>
-      <c r="C66" s="187"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="188"/>
+      <c r="B66" s="189"/>
+      <c r="C66" s="189"/>
+      <c r="D66" s="189"/>
+      <c r="E66" s="189"/>
+      <c r="F66" s="190"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5860,42 +5930,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="189" t="s">
+      <c r="A69" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="189"/>
-      <c r="C69" s="189"/>
-      <c r="D69" s="189"/>
-      <c r="E69" s="189"/>
-      <c r="F69" s="189"/>
-      <c r="G69" s="189"/>
-      <c r="H69" s="189"/>
-      <c r="I69" s="189"/>
-      <c r="J69" s="189"/>
-      <c r="K69" s="189"/>
-      <c r="L69" s="189"/>
-      <c r="M69" s="189"/>
-      <c r="N69" s="189"/>
-      <c r="O69" s="189"/>
+      <c r="B69" s="191"/>
+      <c r="C69" s="191"/>
+      <c r="D69" s="191"/>
+      <c r="E69" s="191"/>
+      <c r="F69" s="191"/>
+      <c r="G69" s="191"/>
+      <c r="H69" s="191"/>
+      <c r="I69" s="191"/>
+      <c r="J69" s="191"/>
+      <c r="K69" s="191"/>
+      <c r="L69" s="191"/>
+      <c r="M69" s="191"/>
+      <c r="N69" s="191"/>
+      <c r="O69" s="191"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="190" t="s">
+      <c r="A70" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="190"/>
-      <c r="C70" s="190"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="190"/>
-      <c r="F70" s="190"/>
-      <c r="G70" s="190"/>
-      <c r="H70" s="190"/>
-      <c r="I70" s="190"/>
-      <c r="J70" s="190"/>
-      <c r="K70" s="190"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="190"/>
-      <c r="N70" s="190"/>
-      <c r="O70" s="190"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="192"/>
+      <c r="E70" s="192"/>
+      <c r="F70" s="192"/>
+      <c r="G70" s="192"/>
+      <c r="H70" s="192"/>
+      <c r="I70" s="192"/>
+      <c r="J70" s="192"/>
+      <c r="K70" s="192"/>
+      <c r="L70" s="192"/>
+      <c r="M70" s="192"/>
+      <c r="N70" s="192"/>
+      <c r="O70" s="192"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6018,38 +6088,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="191" t="s">
+      <c r="A77" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="192" t="s">
+      <c r="B77" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="192"/>
-      <c r="D77" s="192"/>
-      <c r="E77" s="193" t="s">
+      <c r="C77" s="194"/>
+      <c r="D77" s="194"/>
+      <c r="E77" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="193" t="s">
+      <c r="F77" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="184" t="s">
+      <c r="G77" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="181" t="s">
+      <c r="H77" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="182"/>
-      <c r="J77" s="182"/>
-      <c r="K77" s="182"/>
-      <c r="L77" s="182"/>
-      <c r="M77" s="182"/>
-      <c r="N77" s="183"/>
-      <c r="O77" s="184" t="s">
+      <c r="I77" s="184"/>
+      <c r="J77" s="184"/>
+      <c r="K77" s="184"/>
+      <c r="L77" s="184"/>
+      <c r="M77" s="184"/>
+      <c r="N77" s="185"/>
+      <c r="O77" s="186" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="185"/>
+      <c r="A78" s="187"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6059,9 +6129,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="194"/>
-      <c r="F78" s="195"/>
-      <c r="G78" s="185"/>
+      <c r="E78" s="196"/>
+      <c r="F78" s="197"/>
+      <c r="G78" s="187"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6083,17 +6153,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="185"/>
+      <c r="O78" s="187"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="196" t="s">
+      <c r="A79" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="197"/>
-      <c r="C79" s="197"/>
-      <c r="D79" s="197"/>
-      <c r="E79" s="197"/>
-      <c r="F79" s="198"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="199"/>
+      <c r="D79" s="199"/>
+      <c r="E79" s="199"/>
+      <c r="F79" s="200"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6526,14 +6596,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="186" t="s">
+      <c r="A99" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="187"/>
-      <c r="C99" s="187"/>
-      <c r="D99" s="187"/>
-      <c r="E99" s="187"/>
-      <c r="F99" s="188"/>
+      <c r="B99" s="189"/>
+      <c r="C99" s="189"/>
+      <c r="D99" s="189"/>
+      <c r="E99" s="189"/>
+      <c r="F99" s="190"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6619,42 +6689,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="189" t="s">
+      <c r="A105" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="189"/>
-      <c r="C105" s="189"/>
-      <c r="D105" s="189"/>
-      <c r="E105" s="189"/>
-      <c r="F105" s="189"/>
-      <c r="G105" s="189"/>
-      <c r="H105" s="189"/>
-      <c r="I105" s="189"/>
-      <c r="J105" s="189"/>
-      <c r="K105" s="189"/>
-      <c r="L105" s="189"/>
-      <c r="M105" s="189"/>
-      <c r="N105" s="189"/>
-      <c r="O105" s="189"/>
+      <c r="B105" s="191"/>
+      <c r="C105" s="191"/>
+      <c r="D105" s="191"/>
+      <c r="E105" s="191"/>
+      <c r="F105" s="191"/>
+      <c r="G105" s="191"/>
+      <c r="H105" s="191"/>
+      <c r="I105" s="191"/>
+      <c r="J105" s="191"/>
+      <c r="K105" s="191"/>
+      <c r="L105" s="191"/>
+      <c r="M105" s="191"/>
+      <c r="N105" s="191"/>
+      <c r="O105" s="191"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="190" t="s">
+      <c r="A106" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="190"/>
-      <c r="C106" s="190"/>
-      <c r="D106" s="190"/>
-      <c r="E106" s="190"/>
-      <c r="F106" s="190"/>
-      <c r="G106" s="190"/>
-      <c r="H106" s="190"/>
-      <c r="I106" s="190"/>
-      <c r="J106" s="190"/>
-      <c r="K106" s="190"/>
-      <c r="L106" s="190"/>
-      <c r="M106" s="190"/>
-      <c r="N106" s="190"/>
-      <c r="O106" s="190"/>
+      <c r="B106" s="192"/>
+      <c r="C106" s="192"/>
+      <c r="D106" s="192"/>
+      <c r="E106" s="192"/>
+      <c r="F106" s="192"/>
+      <c r="G106" s="192"/>
+      <c r="H106" s="192"/>
+      <c r="I106" s="192"/>
+      <c r="J106" s="192"/>
+      <c r="K106" s="192"/>
+      <c r="L106" s="192"/>
+      <c r="M106" s="192"/>
+      <c r="N106" s="192"/>
+      <c r="O106" s="192"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6674,23 +6744,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="180" t="s">
+      <c r="A108" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="180"/>
-      <c r="C108" s="180"/>
-      <c r="D108" s="180"/>
-      <c r="E108" s="180"/>
-      <c r="F108" s="180"/>
-      <c r="G108" s="180"/>
-      <c r="H108" s="180"/>
-      <c r="I108" s="180"/>
-      <c r="J108" s="180"/>
-      <c r="K108" s="180"/>
-      <c r="L108" s="180"/>
-      <c r="M108" s="180"/>
-      <c r="N108" s="180"/>
-      <c r="O108" s="180"/>
+      <c r="B108" s="182"/>
+      <c r="C108" s="182"/>
+      <c r="D108" s="182"/>
+      <c r="E108" s="182"/>
+      <c r="F108" s="182"/>
+      <c r="G108" s="182"/>
+      <c r="H108" s="182"/>
+      <c r="I108" s="182"/>
+      <c r="J108" s="182"/>
+      <c r="K108" s="182"/>
+      <c r="L108" s="182"/>
+      <c r="M108" s="182"/>
+      <c r="N108" s="182"/>
+      <c r="O108" s="182"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6813,38 +6883,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="191" t="s">
+      <c r="A115" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="192" t="s">
+      <c r="B115" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="192"/>
-      <c r="D115" s="192"/>
-      <c r="E115" s="193" t="s">
+      <c r="C115" s="194"/>
+      <c r="D115" s="194"/>
+      <c r="E115" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="193" t="s">
+      <c r="F115" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="184" t="s">
+      <c r="G115" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="181" t="s">
+      <c r="H115" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="182"/>
-      <c r="J115" s="182"/>
-      <c r="K115" s="182"/>
-      <c r="L115" s="182"/>
-      <c r="M115" s="182"/>
-      <c r="N115" s="183"/>
-      <c r="O115" s="184" t="s">
+      <c r="I115" s="184"/>
+      <c r="J115" s="184"/>
+      <c r="K115" s="184"/>
+      <c r="L115" s="184"/>
+      <c r="M115" s="184"/>
+      <c r="N115" s="185"/>
+      <c r="O115" s="186" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="185"/>
+      <c r="A116" s="187"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6854,9 +6924,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="194"/>
-      <c r="F116" s="195"/>
-      <c r="G116" s="185"/>
+      <c r="E116" s="196"/>
+      <c r="F116" s="197"/>
+      <c r="G116" s="187"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6878,7 +6948,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="185"/>
+      <c r="O116" s="187"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7007,14 +7077,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="186" t="s">
+      <c r="A122" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="187"/>
-      <c r="C122" s="187"/>
-      <c r="D122" s="187"/>
-      <c r="E122" s="187"/>
-      <c r="F122" s="188"/>
+      <c r="B122" s="189"/>
+      <c r="C122" s="189"/>
+      <c r="D122" s="189"/>
+      <c r="E122" s="189"/>
+      <c r="F122" s="190"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7137,21 +7207,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7261,56 +7331,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="230" t="s">
+      <c r="D9" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="218" t="s">
+      <c r="E9" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="218" t="s">
+      <c r="G9" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="218" t="s">
+      <c r="H9" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="216" t="s">
+      <c r="I9" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="218" t="s">
+      <c r="J9" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="218" t="s">
+      <c r="K9" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="218" t="s">
+      <c r="L9" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="220" t="s">
+      <c r="M9" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="221"/>
+      <c r="N9" s="223"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="229"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7739,44 +7809,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="224"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="225"/>
+      <c r="G31" s="225"/>
+      <c r="H31" s="226"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="225"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
-      <c r="N31" s="227"/>
+      <c r="J31" s="227"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="228"/>
+      <c r="N31" s="229"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="182"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="182"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7886,56 +7956,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="228" t="s">
+      <c r="B42" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="218" t="s">
+      <c r="C42" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="230" t="s">
+      <c r="D42" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="218" t="s">
+      <c r="E42" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="218" t="s">
+      <c r="F42" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="218" t="s">
+      <c r="G42" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="218" t="s">
+      <c r="H42" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="216" t="s">
+      <c r="I42" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="218" t="s">
+      <c r="J42" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="218" t="s">
+      <c r="K42" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="218" t="s">
+      <c r="L42" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="220" t="s">
+      <c r="M42" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="221"/>
+      <c r="N42" s="223"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="229"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="231"/>
-      <c r="E43" s="219"/>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="217"/>
-      <c r="J43" s="219"/>
-      <c r="K43" s="219"/>
-      <c r="L43" s="219"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="221"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -7944,24 +8014,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="232" t="s">
+      <c r="B44" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="234"/>
+      <c r="C44" s="235"/>
+      <c r="D44" s="235"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="235"/>
+      <c r="H44" s="236"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="235"/>
-      <c r="K44" s="236"/>
-      <c r="L44" s="236"/>
-      <c r="M44" s="236"/>
-      <c r="N44" s="237"/>
+      <c r="J44" s="237"/>
+      <c r="K44" s="238"/>
+      <c r="L44" s="238"/>
+      <c r="M44" s="238"/>
+      <c r="N44" s="239"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8325,44 +8395,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="222" t="s">
+      <c r="B63" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="223"/>
-      <c r="D63" s="223"/>
-      <c r="E63" s="223"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="223"/>
-      <c r="H63" s="224"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="225"/>
+      <c r="E63" s="225"/>
+      <c r="F63" s="225"/>
+      <c r="G63" s="225"/>
+      <c r="H63" s="226"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="225"/>
-      <c r="K63" s="226"/>
-      <c r="L63" s="226"/>
-      <c r="M63" s="226"/>
-      <c r="N63" s="227"/>
+      <c r="J63" s="227"/>
+      <c r="K63" s="228"/>
+      <c r="L63" s="228"/>
+      <c r="M63" s="228"/>
+      <c r="N63" s="229"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="180" t="s">
+      <c r="B67" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="180"/>
-      <c r="D67" s="180"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="180"/>
-      <c r="G67" s="180"/>
-      <c r="H67" s="180"/>
-      <c r="I67" s="180"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="180"/>
-      <c r="L67" s="180"/>
-      <c r="M67" s="180"/>
-      <c r="N67" s="180"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
+      <c r="E67" s="182"/>
+      <c r="F67" s="182"/>
+      <c r="G67" s="182"/>
+      <c r="H67" s="182"/>
+      <c r="I67" s="182"/>
+      <c r="J67" s="182"/>
+      <c r="K67" s="182"/>
+      <c r="L67" s="182"/>
+      <c r="M67" s="182"/>
+      <c r="N67" s="182"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8472,56 +8542,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="228" t="s">
+      <c r="B74" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="218" t="s">
+      <c r="C74" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="230" t="s">
+      <c r="D74" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="218" t="s">
+      <c r="E74" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="218" t="s">
+      <c r="F74" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="218" t="s">
+      <c r="G74" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="218" t="s">
+      <c r="H74" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="216" t="s">
+      <c r="I74" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="218" t="s">
+      <c r="J74" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="218" t="s">
+      <c r="K74" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="218" t="s">
+      <c r="L74" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="220" t="s">
+      <c r="M74" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="221"/>
+      <c r="N74" s="223"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="229"/>
-      <c r="C75" s="219"/>
-      <c r="D75" s="231"/>
-      <c r="E75" s="219"/>
-      <c r="F75" s="219"/>
-      <c r="G75" s="219"/>
-      <c r="H75" s="219"/>
-      <c r="I75" s="217"/>
-      <c r="J75" s="219"/>
-      <c r="K75" s="219"/>
-      <c r="L75" s="219"/>
+      <c r="B75" s="231"/>
+      <c r="C75" s="221"/>
+      <c r="D75" s="233"/>
+      <c r="E75" s="221"/>
+      <c r="F75" s="221"/>
+      <c r="G75" s="221"/>
+      <c r="H75" s="221"/>
+      <c r="I75" s="219"/>
+      <c r="J75" s="221"/>
+      <c r="K75" s="221"/>
+      <c r="L75" s="221"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8530,24 +8600,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="232" t="s">
+      <c r="B76" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="233"/>
-      <c r="D76" s="233"/>
-      <c r="E76" s="233"/>
-      <c r="F76" s="233"/>
-      <c r="G76" s="233"/>
-      <c r="H76" s="234"/>
+      <c r="C76" s="235"/>
+      <c r="D76" s="235"/>
+      <c r="E76" s="235"/>
+      <c r="F76" s="235"/>
+      <c r="G76" s="235"/>
+      <c r="H76" s="236"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="235"/>
-      <c r="K76" s="236"/>
-      <c r="L76" s="236"/>
-      <c r="M76" s="236"/>
-      <c r="N76" s="237"/>
+      <c r="J76" s="237"/>
+      <c r="K76" s="238"/>
+      <c r="L76" s="238"/>
+      <c r="M76" s="238"/>
+      <c r="N76" s="239"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -8990,44 +9060,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="222" t="s">
+      <c r="B97" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="223"/>
-      <c r="D97" s="223"/>
-      <c r="E97" s="223"/>
-      <c r="F97" s="223"/>
-      <c r="G97" s="223"/>
-      <c r="H97" s="224"/>
+      <c r="C97" s="225"/>
+      <c r="D97" s="225"/>
+      <c r="E97" s="225"/>
+      <c r="F97" s="225"/>
+      <c r="G97" s="225"/>
+      <c r="H97" s="226"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="225"/>
-      <c r="K97" s="226"/>
-      <c r="L97" s="226"/>
-      <c r="M97" s="226"/>
-      <c r="N97" s="227"/>
+      <c r="J97" s="227"/>
+      <c r="K97" s="228"/>
+      <c r="L97" s="228"/>
+      <c r="M97" s="228"/>
+      <c r="N97" s="229"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="180" t="s">
+      <c r="B101" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="180"/>
-      <c r="D101" s="180"/>
-      <c r="E101" s="180"/>
-      <c r="F101" s="180"/>
-      <c r="G101" s="180"/>
-      <c r="H101" s="180"/>
-      <c r="I101" s="180"/>
-      <c r="J101" s="180"/>
-      <c r="K101" s="180"/>
-      <c r="L101" s="180"/>
-      <c r="M101" s="180"/>
-      <c r="N101" s="180"/>
+      <c r="C101" s="182"/>
+      <c r="D101" s="182"/>
+      <c r="E101" s="182"/>
+      <c r="F101" s="182"/>
+      <c r="G101" s="182"/>
+      <c r="H101" s="182"/>
+      <c r="I101" s="182"/>
+      <c r="J101" s="182"/>
+      <c r="K101" s="182"/>
+      <c r="L101" s="182"/>
+      <c r="M101" s="182"/>
+      <c r="N101" s="182"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9137,56 +9207,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="228" t="s">
+      <c r="B108" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="218" t="s">
+      <c r="C108" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="230" t="s">
+      <c r="D108" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="218" t="s">
+      <c r="E108" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="218" t="s">
+      <c r="F108" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="218" t="s">
+      <c r="G108" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="218" t="s">
+      <c r="H108" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="216" t="s">
+      <c r="I108" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="218" t="s">
+      <c r="J108" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="218" t="s">
+      <c r="K108" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="218" t="s">
+      <c r="L108" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="220" t="s">
+      <c r="M108" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="221"/>
+      <c r="N108" s="223"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="229"/>
-      <c r="C109" s="219"/>
-      <c r="D109" s="231"/>
-      <c r="E109" s="219"/>
-      <c r="F109" s="219"/>
-      <c r="G109" s="219"/>
-      <c r="H109" s="219"/>
-      <c r="I109" s="217"/>
-      <c r="J109" s="219"/>
-      <c r="K109" s="219"/>
-      <c r="L109" s="219"/>
+      <c r="B109" s="231"/>
+      <c r="C109" s="221"/>
+      <c r="D109" s="233"/>
+      <c r="E109" s="221"/>
+      <c r="F109" s="221"/>
+      <c r="G109" s="221"/>
+      <c r="H109" s="221"/>
+      <c r="I109" s="219"/>
+      <c r="J109" s="221"/>
+      <c r="K109" s="221"/>
+      <c r="L109" s="221"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9195,24 +9265,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="232" t="s">
+      <c r="B110" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="233"/>
-      <c r="D110" s="233"/>
-      <c r="E110" s="233"/>
-      <c r="F110" s="233"/>
-      <c r="G110" s="233"/>
-      <c r="H110" s="234"/>
+      <c r="C110" s="235"/>
+      <c r="D110" s="235"/>
+      <c r="E110" s="235"/>
+      <c r="F110" s="235"/>
+      <c r="G110" s="235"/>
+      <c r="H110" s="236"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="235"/>
-      <c r="K110" s="236"/>
-      <c r="L110" s="236"/>
-      <c r="M110" s="236"/>
-      <c r="N110" s="237"/>
+      <c r="J110" s="237"/>
+      <c r="K110" s="238"/>
+      <c r="L110" s="238"/>
+      <c r="M110" s="238"/>
+      <c r="N110" s="239"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9582,44 +9652,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="222" t="s">
+      <c r="B130" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="223"/>
-      <c r="D130" s="223"/>
-      <c r="E130" s="223"/>
-      <c r="F130" s="223"/>
-      <c r="G130" s="223"/>
-      <c r="H130" s="224"/>
+      <c r="C130" s="225"/>
+      <c r="D130" s="225"/>
+      <c r="E130" s="225"/>
+      <c r="F130" s="225"/>
+      <c r="G130" s="225"/>
+      <c r="H130" s="226"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="225"/>
-      <c r="K130" s="226"/>
-      <c r="L130" s="226"/>
-      <c r="M130" s="226"/>
-      <c r="N130" s="227"/>
+      <c r="J130" s="227"/>
+      <c r="K130" s="228"/>
+      <c r="L130" s="228"/>
+      <c r="M130" s="228"/>
+      <c r="N130" s="229"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="180" t="s">
+      <c r="B134" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="180"/>
-      <c r="D134" s="180"/>
-      <c r="E134" s="180"/>
-      <c r="F134" s="180"/>
-      <c r="G134" s="180"/>
-      <c r="H134" s="180"/>
-      <c r="I134" s="180"/>
-      <c r="J134" s="180"/>
-      <c r="K134" s="180"/>
-      <c r="L134" s="180"/>
-      <c r="M134" s="180"/>
-      <c r="N134" s="180"/>
+      <c r="C134" s="182"/>
+      <c r="D134" s="182"/>
+      <c r="E134" s="182"/>
+      <c r="F134" s="182"/>
+      <c r="G134" s="182"/>
+      <c r="H134" s="182"/>
+      <c r="I134" s="182"/>
+      <c r="J134" s="182"/>
+      <c r="K134" s="182"/>
+      <c r="L134" s="182"/>
+      <c r="M134" s="182"/>
+      <c r="N134" s="182"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9729,56 +9799,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="228" t="s">
+      <c r="B141" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="218" t="s">
+      <c r="C141" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="230" t="s">
+      <c r="D141" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="218" t="s">
+      <c r="E141" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="218" t="s">
+      <c r="F141" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="218" t="s">
+      <c r="G141" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="218" t="s">
+      <c r="H141" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="216" t="s">
+      <c r="I141" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="218" t="s">
+      <c r="J141" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="218" t="s">
+      <c r="K141" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="218" t="s">
+      <c r="L141" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="220" t="s">
+      <c r="M141" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="221"/>
+      <c r="N141" s="223"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="229"/>
-      <c r="C142" s="219"/>
-      <c r="D142" s="231"/>
-      <c r="E142" s="219"/>
-      <c r="F142" s="219"/>
-      <c r="G142" s="219"/>
-      <c r="H142" s="219"/>
-      <c r="I142" s="217"/>
-      <c r="J142" s="219"/>
-      <c r="K142" s="219"/>
-      <c r="L142" s="219"/>
+      <c r="B142" s="231"/>
+      <c r="C142" s="221"/>
+      <c r="D142" s="233"/>
+      <c r="E142" s="221"/>
+      <c r="F142" s="221"/>
+      <c r="G142" s="221"/>
+      <c r="H142" s="221"/>
+      <c r="I142" s="219"/>
+      <c r="J142" s="221"/>
+      <c r="K142" s="221"/>
+      <c r="L142" s="221"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9787,24 +9857,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="232" t="s">
+      <c r="B143" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="233"/>
-      <c r="D143" s="233"/>
-      <c r="E143" s="233"/>
-      <c r="F143" s="233"/>
-      <c r="G143" s="233"/>
-      <c r="H143" s="234"/>
+      <c r="C143" s="235"/>
+      <c r="D143" s="235"/>
+      <c r="E143" s="235"/>
+      <c r="F143" s="235"/>
+      <c r="G143" s="235"/>
+      <c r="H143" s="236"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="235"/>
-      <c r="K143" s="236"/>
-      <c r="L143" s="236"/>
-      <c r="M143" s="236"/>
-      <c r="N143" s="237"/>
+      <c r="J143" s="237"/>
+      <c r="K143" s="238"/>
+      <c r="L143" s="238"/>
+      <c r="M143" s="238"/>
+      <c r="N143" s="239"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10130,44 +10200,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="222" t="s">
+      <c r="B161" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="223"/>
-      <c r="D161" s="223"/>
-      <c r="E161" s="223"/>
-      <c r="F161" s="223"/>
-      <c r="G161" s="223"/>
-      <c r="H161" s="224"/>
+      <c r="C161" s="225"/>
+      <c r="D161" s="225"/>
+      <c r="E161" s="225"/>
+      <c r="F161" s="225"/>
+      <c r="G161" s="225"/>
+      <c r="H161" s="226"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="225"/>
-      <c r="K161" s="226"/>
-      <c r="L161" s="226"/>
-      <c r="M161" s="226"/>
-      <c r="N161" s="227"/>
+      <c r="J161" s="227"/>
+      <c r="K161" s="228"/>
+      <c r="L161" s="228"/>
+      <c r="M161" s="228"/>
+      <c r="N161" s="229"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="180" t="s">
+      <c r="B165" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="180"/>
-      <c r="D165" s="180"/>
-      <c r="E165" s="180"/>
-      <c r="F165" s="180"/>
-      <c r="G165" s="180"/>
-      <c r="H165" s="180"/>
-      <c r="I165" s="180"/>
-      <c r="J165" s="180"/>
-      <c r="K165" s="180"/>
-      <c r="L165" s="180"/>
-      <c r="M165" s="180"/>
-      <c r="N165" s="180"/>
+      <c r="C165" s="182"/>
+      <c r="D165" s="182"/>
+      <c r="E165" s="182"/>
+      <c r="F165" s="182"/>
+      <c r="G165" s="182"/>
+      <c r="H165" s="182"/>
+      <c r="I165" s="182"/>
+      <c r="J165" s="182"/>
+      <c r="K165" s="182"/>
+      <c r="L165" s="182"/>
+      <c r="M165" s="182"/>
+      <c r="N165" s="182"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10277,56 +10347,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="228" t="s">
+      <c r="B172" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="218" t="s">
+      <c r="C172" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="230" t="s">
+      <c r="D172" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="218" t="s">
+      <c r="E172" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="218" t="s">
+      <c r="F172" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="218" t="s">
+      <c r="G172" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="218" t="s">
+      <c r="H172" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="216" t="s">
+      <c r="I172" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="218" t="s">
+      <c r="J172" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="218" t="s">
+      <c r="K172" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="218" t="s">
+      <c r="L172" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="220" t="s">
+      <c r="M172" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="221"/>
+      <c r="N172" s="223"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="229"/>
-      <c r="C173" s="219"/>
-      <c r="D173" s="231"/>
-      <c r="E173" s="219"/>
-      <c r="F173" s="219"/>
-      <c r="G173" s="219"/>
-      <c r="H173" s="219"/>
-      <c r="I173" s="217"/>
-      <c r="J173" s="219"/>
-      <c r="K173" s="219"/>
-      <c r="L173" s="219"/>
+      <c r="B173" s="231"/>
+      <c r="C173" s="221"/>
+      <c r="D173" s="233"/>
+      <c r="E173" s="221"/>
+      <c r="F173" s="221"/>
+      <c r="G173" s="221"/>
+      <c r="H173" s="221"/>
+      <c r="I173" s="219"/>
+      <c r="J173" s="221"/>
+      <c r="K173" s="221"/>
+      <c r="L173" s="221"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10335,24 +10405,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="232" t="s">
+      <c r="B174" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="233"/>
-      <c r="D174" s="233"/>
-      <c r="E174" s="233"/>
-      <c r="F174" s="233"/>
-      <c r="G174" s="233"/>
-      <c r="H174" s="234"/>
+      <c r="C174" s="235"/>
+      <c r="D174" s="235"/>
+      <c r="E174" s="235"/>
+      <c r="F174" s="235"/>
+      <c r="G174" s="235"/>
+      <c r="H174" s="236"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="235"/>
-      <c r="K174" s="236"/>
-      <c r="L174" s="236"/>
-      <c r="M174" s="236"/>
-      <c r="N174" s="237"/>
+      <c r="J174" s="237"/>
+      <c r="K174" s="238"/>
+      <c r="L174" s="238"/>
+      <c r="M174" s="238"/>
+      <c r="N174" s="239"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10418,31 +10488,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="232" t="s">
+      <c r="B178" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="233"/>
-      <c r="D178" s="233"/>
-      <c r="E178" s="233"/>
-      <c r="F178" s="233"/>
-      <c r="G178" s="233"/>
-      <c r="H178" s="234"/>
+      <c r="C178" s="235"/>
+      <c r="D178" s="235"/>
+      <c r="E178" s="235"/>
+      <c r="F178" s="235"/>
+      <c r="G178" s="235"/>
+      <c r="H178" s="236"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="235"/>
-      <c r="K178" s="236"/>
-      <c r="L178" s="236"/>
-      <c r="M178" s="236"/>
-      <c r="N178" s="237"/>
+      <c r="J178" s="237"/>
+      <c r="K178" s="238"/>
+      <c r="L178" s="238"/>
+      <c r="M178" s="238"/>
+      <c r="N178" s="239"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="215" t="s">
+      <c r="M180" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="215"/>
+      <c r="N180" s="217"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11544,42 +11614,42 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11599,23 +11669,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11738,15 +11808,15 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="206" t="s">
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="208" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="168" t="s">
@@ -11755,21 +11825,21 @@
       <c r="G12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="208" t="s">
+      <c r="H12" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="210" t="s">
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="212" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -11779,7 +11849,7 @@
       <c r="D13" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="207"/>
+      <c r="E13" s="209"/>
       <c r="F13" s="170"/>
       <c r="G13" s="171"/>
       <c r="H13" s="160" t="s">
@@ -11803,7 +11873,7 @@
       <c r="N13" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="O13" s="211"/>
+      <c r="O13" s="213"/>
       <c r="P13" s="166" t="s">
         <v>607</v>
       </c>
@@ -24114,14 +24184,14 @@
       <c r="Q266" s="172"/>
     </row>
     <row r="267" spans="1:17" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="186" t="s">
+      <c r="A267" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B267" s="187"/>
-      <c r="C267" s="187"/>
-      <c r="D267" s="187"/>
-      <c r="E267" s="187"/>
-      <c r="F267" s="188"/>
+      <c r="B267" s="189"/>
+      <c r="C267" s="189"/>
+      <c r="D267" s="189"/>
+      <c r="E267" s="189"/>
+      <c r="F267" s="190"/>
       <c r="G267" s="150">
         <f t="shared" ref="G267:N267" si="8">SUM(G14:G266)</f>
         <v>1102623.47</v>
@@ -24203,25 +24273,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="247" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.5703125" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" customWidth="1"/>
   </cols>
@@ -24232,41 +24300,41 @@
       <c r="F2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="117"/>
       <c r="D5" s="139"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="3"/>
       <c r="G5" s="26"/>
       <c r="H5" s="3"/>
@@ -24275,26 +24343,26 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="117"/>
       <c r="D7" s="139"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="3"/>
       <c r="G7" s="26"/>
       <c r="H7" s="3"/>
@@ -24307,11 +24375,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="140" t="s">
-        <v>464</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>616</v>
+      </c>
+      <c r="E8" s="249"/>
       <c r="F8" s="134"/>
       <c r="G8" s="27"/>
       <c r="H8" s="5"/>
@@ -24319,51 +24389,57 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="240"/>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="241" t="s">
+        <v>613</v>
+      </c>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="241"/>
+    </row>
+    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="141" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="240"/>
+      <c r="C10" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="241" t="s">
+        <v>614</v>
+      </c>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="141" t="s">
+      <c r="B11" s="243"/>
+      <c r="C11" s="242" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="134"/>
+      <c r="D11" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E11" s="249"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -24375,7 +24451,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="118"/>
       <c r="D12" s="142"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="249"/>
       <c r="F12" s="134"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -24386,32 +24462,32 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="204" t="s">
+      <c r="B13" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="178" t="s">
+      <c r="C13" s="206"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="168" t="s">
+      <c r="F13" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="169" t="s">
+      <c r="G13" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="169" t="s">
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="212" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="158" t="s">
         <v>14</v>
       </c>
@@ -24421,9 +24497,9 @@
       <c r="D14" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="171"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="205"/>
       <c r="H14" s="160" t="s">
         <v>206</v>
       </c>
@@ -24433,9 +24509,9 @@
       <c r="J14" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="238"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="205"/>
+    </row>
+    <row r="15" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="121">
         <v>1</v>
       </c>
@@ -24448,7 +24524,7 @@
       <c r="D15" s="127">
         <v>94</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="250">
         <v>1920</v>
       </c>
       <c r="F15" s="131">
@@ -24470,7 +24546,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="144">
         <v>2</v>
       </c>
@@ -24483,7 +24559,7 @@
       <c r="D16" s="127">
         <v>94</v>
       </c>
-      <c r="E16" s="127">
+      <c r="E16" s="250">
         <v>1921</v>
       </c>
       <c r="F16" s="131">
@@ -24505,7 +24581,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="121">
         <v>3</v>
       </c>
@@ -24518,7 +24594,7 @@
       <c r="D17" s="127">
         <v>94</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="250">
         <v>1919</v>
       </c>
       <c r="F17" s="131">
@@ -24540,7 +24616,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="121">
         <v>4</v>
       </c>
@@ -24553,7 +24629,7 @@
       <c r="D18" s="127">
         <v>94</v>
       </c>
-      <c r="E18" s="127">
+      <c r="E18" s="250">
         <v>1924</v>
       </c>
       <c r="F18" s="131">
@@ -24575,7 +24651,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="144">
         <v>5</v>
       </c>
@@ -24588,7 +24664,7 @@
       <c r="D19" s="127">
         <v>94</v>
       </c>
-      <c r="E19" s="127">
+      <c r="E19" s="250">
         <v>1926</v>
       </c>
       <c r="F19" s="131">
@@ -24610,7 +24686,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
         <v>6</v>
       </c>
@@ -24623,7 +24699,7 @@
       <c r="D20" s="127">
         <v>94</v>
       </c>
-      <c r="E20" s="127">
+      <c r="E20" s="250">
         <v>2074</v>
       </c>
       <c r="F20" s="131">
@@ -24645,7 +24721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="121">
         <v>7</v>
       </c>
@@ -24658,7 +24734,7 @@
       <c r="D21" s="127">
         <v>220</v>
       </c>
-      <c r="E21" s="127">
+      <c r="E21" s="250">
         <v>2762</v>
       </c>
       <c r="F21" s="131">
@@ -24680,7 +24756,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="144">
         <v>8</v>
       </c>
@@ -24693,7 +24769,7 @@
       <c r="D22" s="127">
         <v>220</v>
       </c>
-      <c r="E22" s="127">
+      <c r="E22" s="250">
         <v>2764</v>
       </c>
       <c r="F22" s="131">
@@ -24715,7 +24791,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="121">
         <v>9</v>
       </c>
@@ -24728,7 +24804,7 @@
       <c r="D23" s="127">
         <v>220</v>
       </c>
-      <c r="E23" s="127">
+      <c r="E23" s="250">
         <v>2766</v>
       </c>
       <c r="F23" s="131">
@@ -24750,7 +24826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="121">
         <v>10</v>
       </c>
@@ -24763,7 +24839,7 @@
       <c r="D24" s="127">
         <v>220</v>
       </c>
-      <c r="E24" s="127">
+      <c r="E24" s="250">
         <v>2768</v>
       </c>
       <c r="F24" s="131">
@@ -24785,761 +24861,1341 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="144">
         <v>11</v>
       </c>
-      <c r="B25" s="145">
+      <c r="B25" s="146">
         <v>42818</v>
       </c>
-      <c r="C25" s="152" t="s">
+      <c r="C25" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="127">
+      <c r="D25" s="162">
         <v>220</v>
       </c>
-      <c r="E25" s="127">
+      <c r="E25" s="252">
         <v>2770</v>
       </c>
-      <c r="F25" s="131">
+      <c r="F25" s="253">
         <v>1259</v>
       </c>
-      <c r="G25" s="147">
+      <c r="G25" s="163">
         <v>652.5</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="149">
         <v>652.5</v>
       </c>
-      <c r="I25" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="120" t="s">
+      <c r="I25" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="128" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="121">
+    <row r="26" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="189"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="254">
+        <f>SUM(G15:G25)</f>
+        <v>12733.33</v>
+      </c>
+      <c r="H26" s="254">
+        <f t="shared" ref="H26:J26" si="0">SUM(H15:H25)</f>
+        <v>12733.33</v>
+      </c>
+      <c r="I26" s="254">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="254">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="123"/>
+      <c r="D27" s="138"/>
+      <c r="F27" s="133"/>
+    </row>
+    <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="191"/>
+    </row>
+    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="192"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="192"/>
+      <c r="K29" s="192"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="248"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="182" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="140" t="s">
+        <v>616</v>
+      </c>
+      <c r="E33" s="249"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="240" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="240"/>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="241" t="s">
+        <v>613</v>
+      </c>
+      <c r="E34" s="241"/>
+      <c r="F34" s="241"/>
+      <c r="G34" s="241"/>
+      <c r="H34" s="241"/>
+      <c r="I34" s="241"/>
+      <c r="J34" s="241"/>
+      <c r="K34" s="241"/>
+    </row>
+    <row r="35" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="240"/>
+      <c r="C35" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="241" t="s">
+        <v>614</v>
+      </c>
+      <c r="E35" s="241"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="241"/>
+      <c r="H35" s="241"/>
+      <c r="I35" s="241"/>
+      <c r="J35" s="241"/>
+      <c r="K35" s="241"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="243"/>
+      <c r="C36" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E36" s="249"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="206"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="244" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="145">
+      <c r="H38" s="211"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="205"/>
+      <c r="B39" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="246"/>
+      <c r="F39" s="245"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="160" t="s">
+        <v>207</v>
+      </c>
+      <c r="J39" s="160" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" s="205"/>
+    </row>
+    <row r="40" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="188" t="s">
+        <v>617</v>
+      </c>
+      <c r="B40" s="189"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="190"/>
+      <c r="G40" s="254">
+        <f>G26</f>
+        <v>12733.33</v>
+      </c>
+      <c r="H40" s="254">
+        <f t="shared" ref="H40:J40" si="1">H26</f>
+        <v>12733.33</v>
+      </c>
+      <c r="I40" s="254">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="254">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="121">
+        <v>12</v>
+      </c>
+      <c r="B41" s="145">
         <v>42902</v>
-      </c>
-      <c r="C26" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="127">
-        <v>943</v>
-      </c>
-      <c r="E26" s="167">
-        <v>963211613</v>
-      </c>
-      <c r="F26" s="129">
-        <v>2170</v>
-      </c>
-      <c r="G26" s="147">
-        <v>572.94000000000005</v>
-      </c>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148">
-        <v>572.94000000000005</v>
-      </c>
-      <c r="J26" s="148"/>
-      <c r="K26" s="120" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121">
-        <v>13</v>
-      </c>
-      <c r="B27" s="145">
-        <v>42916</v>
-      </c>
-      <c r="C27" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="127">
-        <v>1104</v>
-      </c>
-      <c r="E27" s="167">
-        <v>963211613</v>
-      </c>
-      <c r="F27" s="129">
-        <v>2170</v>
-      </c>
-      <c r="G27" s="147">
-        <v>381.96</v>
-      </c>
-      <c r="H27" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I27" s="148">
-        <v>381.96</v>
-      </c>
-      <c r="J27" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K27" s="120" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="144">
-        <v>14</v>
-      </c>
-      <c r="B28" s="145">
-        <v>42850</v>
-      </c>
-      <c r="C28" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="127">
-        <v>395</v>
-      </c>
-      <c r="E28" s="127">
-        <v>4957</v>
-      </c>
-      <c r="F28" s="131">
-        <v>2612</v>
-      </c>
-      <c r="G28" s="147">
-        <v>3756</v>
-      </c>
-      <c r="H28" s="148">
-        <v>3756</v>
-      </c>
-      <c r="I28" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J28" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K28" s="155" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121">
-        <v>15</v>
-      </c>
-      <c r="B29" s="145">
-        <v>42850</v>
-      </c>
-      <c r="C29" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="127">
-        <v>395</v>
-      </c>
-      <c r="E29" s="127">
-        <v>4959</v>
-      </c>
-      <c r="F29" s="131">
-        <v>2612</v>
-      </c>
-      <c r="G29" s="147">
-        <v>159</v>
-      </c>
-      <c r="H29" s="148">
-        <v>159</v>
-      </c>
-      <c r="I29" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" s="155" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="121">
-        <v>16</v>
-      </c>
-      <c r="B30" s="145">
-        <v>42850</v>
-      </c>
-      <c r="C30" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="127">
-        <v>395</v>
-      </c>
-      <c r="E30" s="127">
-        <v>4960</v>
-      </c>
-      <c r="F30" s="131">
-        <v>2612</v>
-      </c>
-      <c r="G30" s="147">
-        <v>585</v>
-      </c>
-      <c r="H30" s="148">
-        <v>585</v>
-      </c>
-      <c r="I30" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K30" s="120" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="144">
-        <v>17</v>
-      </c>
-      <c r="B31" s="145">
-        <v>42850</v>
-      </c>
-      <c r="C31" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="127">
-        <v>395</v>
-      </c>
-      <c r="E31" s="127">
-        <v>4963</v>
-      </c>
-      <c r="F31" s="131">
-        <v>2612</v>
-      </c>
-      <c r="G31" s="147">
-        <v>405</v>
-      </c>
-      <c r="H31" s="148">
-        <v>405</v>
-      </c>
-      <c r="I31" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" s="120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="121">
-        <v>18</v>
-      </c>
-      <c r="B32" s="145">
-        <v>42857</v>
-      </c>
-      <c r="C32" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="127">
-        <v>1253</v>
-      </c>
-      <c r="E32" s="122" t="s">
-        <v>578</v>
-      </c>
-      <c r="F32" s="131">
-        <v>2756</v>
-      </c>
-      <c r="G32" s="147">
-        <v>3600</v>
-      </c>
-      <c r="H32" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I32" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" s="148">
-        <v>3600</v>
-      </c>
-      <c r="K32" s="120" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121">
-        <v>19</v>
-      </c>
-      <c r="B33" s="145">
-        <v>42885</v>
-      </c>
-      <c r="C33" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="127">
-        <v>575</v>
-      </c>
-      <c r="E33" s="127">
-        <v>7116</v>
-      </c>
-      <c r="F33" s="131">
-        <v>3401</v>
-      </c>
-      <c r="G33" s="147">
-        <v>3756</v>
-      </c>
-      <c r="H33" s="148">
-        <v>3756</v>
-      </c>
-      <c r="I33" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K33" s="120" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="144">
-        <v>20</v>
-      </c>
-      <c r="B34" s="145">
-        <v>42885</v>
-      </c>
-      <c r="C34" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="127">
-        <v>575</v>
-      </c>
-      <c r="E34" s="127">
-        <v>7118</v>
-      </c>
-      <c r="F34" s="131">
-        <v>3401</v>
-      </c>
-      <c r="G34" s="147">
-        <v>585</v>
-      </c>
-      <c r="H34" s="148">
-        <v>585</v>
-      </c>
-      <c r="I34" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" s="120" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="121">
-        <v>21</v>
-      </c>
-      <c r="B35" s="145">
-        <v>42885</v>
-      </c>
-      <c r="C35" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="127">
-        <v>575</v>
-      </c>
-      <c r="E35" s="127">
-        <v>7119</v>
-      </c>
-      <c r="F35" s="131">
-        <v>3401</v>
-      </c>
-      <c r="G35" s="147">
-        <v>159</v>
-      </c>
-      <c r="H35" s="148">
-        <v>159</v>
-      </c>
-      <c r="I35" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K35" s="155" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="121">
-        <v>22</v>
-      </c>
-      <c r="B36" s="145">
-        <v>42885</v>
-      </c>
-      <c r="C36" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="127">
-        <v>575</v>
-      </c>
-      <c r="E36" s="127">
-        <v>7122</v>
-      </c>
-      <c r="F36" s="131">
-        <v>3401</v>
-      </c>
-      <c r="G36" s="147">
-        <v>405</v>
-      </c>
-      <c r="H36" s="148">
-        <v>405</v>
-      </c>
-      <c r="I36" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K36" s="120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="144">
-        <v>23</v>
-      </c>
-      <c r="B37" s="145">
-        <v>42976</v>
-      </c>
-      <c r="C37" s="152" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="127">
-        <v>14407</v>
-      </c>
-      <c r="F37" s="131">
-        <v>6837</v>
-      </c>
-      <c r="G37" s="147">
-        <v>135.35</v>
-      </c>
-      <c r="H37" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J37" s="148">
-        <v>135.35</v>
-      </c>
-      <c r="K37" s="120" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121">
-        <v>24</v>
-      </c>
-      <c r="B38" s="145">
-        <v>43096</v>
-      </c>
-      <c r="C38" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="127">
-        <v>3917</v>
-      </c>
-      <c r="E38" s="127">
-        <v>339</v>
-      </c>
-      <c r="F38" s="129">
-        <v>11343</v>
-      </c>
-      <c r="G38" s="147">
-        <v>82</v>
-      </c>
-      <c r="H38" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I38" s="148">
-        <v>82</v>
-      </c>
-      <c r="J38" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K38" s="120" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121">
-        <v>25</v>
-      </c>
-      <c r="B39" s="145">
-        <v>43096</v>
-      </c>
-      <c r="C39" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="127">
-        <v>4114</v>
-      </c>
-      <c r="E39" s="127">
-        <v>1208</v>
-      </c>
-      <c r="F39" s="129">
-        <v>11836</v>
-      </c>
-      <c r="G39" s="147">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="H39" s="148"/>
-      <c r="I39" s="161">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="J39" s="148"/>
-      <c r="K39" s="120" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="144">
-        <v>26</v>
-      </c>
-      <c r="B40" s="145">
-        <v>43096</v>
-      </c>
-      <c r="C40" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="127">
-        <v>4114</v>
-      </c>
-      <c r="E40" s="127">
-        <v>1208</v>
-      </c>
-      <c r="F40" s="129">
-        <v>11836</v>
-      </c>
-      <c r="G40" s="147">
-        <v>23.9</v>
-      </c>
-      <c r="H40" s="148"/>
-      <c r="I40" s="161">
-        <v>23.9</v>
-      </c>
-      <c r="J40" s="148"/>
-      <c r="K40" s="120" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121">
-        <v>27</v>
-      </c>
-      <c r="B41" s="145">
-        <v>43096</v>
       </c>
       <c r="C41" s="152" t="s">
         <v>178</v>
       </c>
       <c r="D41" s="127">
-        <v>4114</v>
-      </c>
-      <c r="E41" s="127">
-        <v>1208</v>
+        <v>943</v>
+      </c>
+      <c r="E41" s="251">
+        <v>963211613</v>
       </c>
       <c r="F41" s="129">
-        <v>11836</v>
+        <v>2170</v>
       </c>
       <c r="G41" s="147">
-        <v>33.42</v>
+        <v>572.94000000000005</v>
       </c>
       <c r="H41" s="148"/>
-      <c r="I41" s="161">
-        <v>33.42</v>
+      <c r="I41" s="148">
+        <v>572.94000000000005</v>
       </c>
       <c r="J41" s="148"/>
       <c r="K41" s="120" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="121">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B42" s="145">
-        <v>43096</v>
+        <v>42916</v>
       </c>
       <c r="C42" s="152" t="s">
         <v>178</v>
       </c>
       <c r="D42" s="127">
+        <v>1104</v>
+      </c>
+      <c r="E42" s="251">
+        <v>963211613</v>
+      </c>
+      <c r="F42" s="129">
+        <v>2170</v>
+      </c>
+      <c r="G42" s="147">
+        <v>381.96</v>
+      </c>
+      <c r="H42" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="148">
+        <v>381.96</v>
+      </c>
+      <c r="J42" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="120" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="144">
+        <v>14</v>
+      </c>
+      <c r="B43" s="145">
+        <v>42850</v>
+      </c>
+      <c r="C43" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="127">
+        <v>395</v>
+      </c>
+      <c r="E43" s="250">
+        <v>4957</v>
+      </c>
+      <c r="F43" s="131">
+        <v>2612</v>
+      </c>
+      <c r="G43" s="147">
+        <v>3756</v>
+      </c>
+      <c r="H43" s="148">
+        <v>3756</v>
+      </c>
+      <c r="I43" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" s="155" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="121">
+        <v>15</v>
+      </c>
+      <c r="B44" s="145">
+        <v>42850</v>
+      </c>
+      <c r="C44" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="127">
+        <v>395</v>
+      </c>
+      <c r="E44" s="250">
+        <v>4959</v>
+      </c>
+      <c r="F44" s="131">
+        <v>2612</v>
+      </c>
+      <c r="G44" s="147">
+        <v>159</v>
+      </c>
+      <c r="H44" s="148">
+        <v>159</v>
+      </c>
+      <c r="I44" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J44" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="155" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="121">
+        <v>16</v>
+      </c>
+      <c r="B45" s="145">
+        <v>42850</v>
+      </c>
+      <c r="C45" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="127">
+        <v>395</v>
+      </c>
+      <c r="E45" s="250">
+        <v>4960</v>
+      </c>
+      <c r="F45" s="131">
+        <v>2612</v>
+      </c>
+      <c r="G45" s="147">
+        <v>585</v>
+      </c>
+      <c r="H45" s="148">
+        <v>585</v>
+      </c>
+      <c r="I45" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K45" s="120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="144">
+        <v>17</v>
+      </c>
+      <c r="B46" s="145">
+        <v>42850</v>
+      </c>
+      <c r="C46" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="127">
+        <v>395</v>
+      </c>
+      <c r="E46" s="250">
+        <v>4963</v>
+      </c>
+      <c r="F46" s="131">
+        <v>2612</v>
+      </c>
+      <c r="G46" s="147">
+        <v>405</v>
+      </c>
+      <c r="H46" s="148">
+        <v>405</v>
+      </c>
+      <c r="I46" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K46" s="120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="121">
+        <v>18</v>
+      </c>
+      <c r="B47" s="145">
+        <v>42857</v>
+      </c>
+      <c r="C47" s="152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="127">
+        <v>1253</v>
+      </c>
+      <c r="E47" s="156" t="s">
+        <v>578</v>
+      </c>
+      <c r="F47" s="131">
+        <v>2756</v>
+      </c>
+      <c r="G47" s="147">
+        <v>3600</v>
+      </c>
+      <c r="H47" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" s="148">
+        <v>3600</v>
+      </c>
+      <c r="K47" s="120" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="121">
+        <v>19</v>
+      </c>
+      <c r="B48" s="145">
+        <v>42885</v>
+      </c>
+      <c r="C48" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="127">
+        <v>575</v>
+      </c>
+      <c r="E48" s="250">
+        <v>7116</v>
+      </c>
+      <c r="F48" s="131">
+        <v>3401</v>
+      </c>
+      <c r="G48" s="147">
+        <v>3756</v>
+      </c>
+      <c r="H48" s="148">
+        <v>3756</v>
+      </c>
+      <c r="I48" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J48" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="120" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="144">
+        <v>20</v>
+      </c>
+      <c r="B49" s="145">
+        <v>42885</v>
+      </c>
+      <c r="C49" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="127">
+        <v>575</v>
+      </c>
+      <c r="E49" s="250">
+        <v>7118</v>
+      </c>
+      <c r="F49" s="131">
+        <v>3401</v>
+      </c>
+      <c r="G49" s="147">
+        <v>585</v>
+      </c>
+      <c r="H49" s="148">
+        <v>585</v>
+      </c>
+      <c r="I49" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J49" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" s="120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="121">
+        <v>21</v>
+      </c>
+      <c r="B50" s="145">
+        <v>42885</v>
+      </c>
+      <c r="C50" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="127">
+        <v>575</v>
+      </c>
+      <c r="E50" s="250">
+        <v>7119</v>
+      </c>
+      <c r="F50" s="131">
+        <v>3401</v>
+      </c>
+      <c r="G50" s="147">
+        <v>159</v>
+      </c>
+      <c r="H50" s="148">
+        <v>159</v>
+      </c>
+      <c r="I50" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J50" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K50" s="155" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="255">
+        <v>22</v>
+      </c>
+      <c r="B51" s="146">
+        <v>42885</v>
+      </c>
+      <c r="C51" s="154" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="162">
+        <v>575</v>
+      </c>
+      <c r="E51" s="252">
+        <v>7122</v>
+      </c>
+      <c r="F51" s="253">
+        <v>3401</v>
+      </c>
+      <c r="G51" s="163">
+        <v>405</v>
+      </c>
+      <c r="H51" s="149">
+        <v>405</v>
+      </c>
+      <c r="I51" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="J51" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" s="128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="254">
+        <f>SUM(G40:G51)</f>
+        <v>27098.23</v>
+      </c>
+      <c r="H52" s="254">
+        <f t="shared" ref="H52:J52" si="2">SUM(H40:H51)</f>
+        <v>22543.33</v>
+      </c>
+      <c r="I52" s="254">
+        <f t="shared" si="2"/>
+        <v>954.90000000000009</v>
+      </c>
+      <c r="J52" s="254">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="K52" s="19"/>
+    </row>
+    <row r="53" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="201"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
+    </row>
+    <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A54" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="192"/>
+      <c r="C54" s="192"/>
+      <c r="D54" s="202"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="192"/>
+      <c r="I54" s="192"/>
+      <c r="J54" s="192"/>
+      <c r="K54" s="192"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="248"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="182" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="182"/>
+      <c r="C56" s="182"/>
+      <c r="D56" s="203"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="182"/>
+      <c r="H56" s="182"/>
+      <c r="I56" s="182"/>
+      <c r="J56" s="182"/>
+      <c r="K56" s="182"/>
+    </row>
+    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="248"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="140" t="s">
+        <v>616</v>
+      </c>
+      <c r="E58" s="249"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="240" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="240"/>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="241" t="s">
+        <v>613</v>
+      </c>
+      <c r="E59" s="241"/>
+      <c r="F59" s="241"/>
+      <c r="G59" s="241"/>
+      <c r="H59" s="241"/>
+      <c r="I59" s="241"/>
+      <c r="J59" s="241"/>
+      <c r="K59" s="241"/>
+    </row>
+    <row r="60" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="240"/>
+      <c r="C60" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="241" t="s">
+        <v>614</v>
+      </c>
+      <c r="E60" s="241"/>
+      <c r="F60" s="241"/>
+      <c r="G60" s="241"/>
+      <c r="H60" s="241"/>
+      <c r="I60" s="241"/>
+      <c r="J60" s="241"/>
+      <c r="K60" s="241"/>
+    </row>
+    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="243"/>
+      <c r="C61" s="242" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E61" s="249"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="249"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="206"/>
+      <c r="D63" s="207"/>
+      <c r="E63" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="244" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="212" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="211"/>
+      <c r="I63" s="211"/>
+      <c r="J63" s="211"/>
+      <c r="K63" s="212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="205"/>
+      <c r="B64" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="246"/>
+      <c r="F64" s="245"/>
+      <c r="G64" s="205"/>
+      <c r="H64" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="160" t="s">
+        <v>207</v>
+      </c>
+      <c r="J64" s="160" t="s">
+        <v>208</v>
+      </c>
+      <c r="K64" s="205"/>
+    </row>
+    <row r="65" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="188" t="s">
+        <v>617</v>
+      </c>
+      <c r="B65" s="189"/>
+      <c r="C65" s="189"/>
+      <c r="D65" s="189"/>
+      <c r="E65" s="189"/>
+      <c r="F65" s="190"/>
+      <c r="G65" s="254">
+        <f>G52</f>
+        <v>27098.23</v>
+      </c>
+      <c r="H65" s="254">
+        <f t="shared" ref="H65:J65" si="3">H52</f>
+        <v>22543.33</v>
+      </c>
+      <c r="I65" s="254">
+        <f t="shared" si="3"/>
+        <v>954.90000000000009</v>
+      </c>
+      <c r="J65" s="254">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="K65" s="19"/>
+    </row>
+    <row r="66" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="144">
+        <v>23</v>
+      </c>
+      <c r="B66" s="145">
+        <v>42976</v>
+      </c>
+      <c r="C66" s="152" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="250">
+        <v>14407</v>
+      </c>
+      <c r="F66" s="131">
+        <v>6837</v>
+      </c>
+      <c r="G66" s="147">
+        <v>135.35</v>
+      </c>
+      <c r="H66" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J66" s="148">
+        <v>135.35</v>
+      </c>
+      <c r="K66" s="120" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="121">
+        <v>24</v>
+      </c>
+      <c r="B67" s="145">
+        <v>43096</v>
+      </c>
+      <c r="C67" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="127">
+        <v>3917</v>
+      </c>
+      <c r="E67" s="250">
+        <v>339</v>
+      </c>
+      <c r="F67" s="129">
+        <v>11343</v>
+      </c>
+      <c r="G67" s="147">
+        <v>82</v>
+      </c>
+      <c r="H67" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I67" s="151">
+        <v>82</v>
+      </c>
+      <c r="J67" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K67" s="120" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="121">
+        <v>25</v>
+      </c>
+      <c r="B68" s="145">
+        <v>43096</v>
+      </c>
+      <c r="C68" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="127">
         <v>4114</v>
       </c>
-      <c r="E42" s="127">
+      <c r="E68" s="250">
         <v>1208</v>
       </c>
-      <c r="F42" s="129">
+      <c r="F68" s="129">
         <v>11836</v>
       </c>
-      <c r="G42" s="147">
+      <c r="G68" s="147">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H68" s="148"/>
+      <c r="I68" s="161">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J68" s="148"/>
+      <c r="K68" s="120" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="144">
+        <v>26</v>
+      </c>
+      <c r="B69" s="145">
+        <v>43096</v>
+      </c>
+      <c r="C69" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="127">
+        <v>4114</v>
+      </c>
+      <c r="E69" s="250">
+        <v>1208</v>
+      </c>
+      <c r="F69" s="129">
+        <v>11836</v>
+      </c>
+      <c r="G69" s="147">
+        <v>23.9</v>
+      </c>
+      <c r="H69" s="148"/>
+      <c r="I69" s="161">
+        <v>23.9</v>
+      </c>
+      <c r="J69" s="148"/>
+      <c r="K69" s="120" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="121">
+        <v>27</v>
+      </c>
+      <c r="B70" s="145">
+        <v>43096</v>
+      </c>
+      <c r="C70" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="127">
+        <v>4114</v>
+      </c>
+      <c r="E70" s="250">
+        <v>1208</v>
+      </c>
+      <c r="F70" s="129">
+        <v>11836</v>
+      </c>
+      <c r="G70" s="147">
+        <v>33.42</v>
+      </c>
+      <c r="H70" s="148"/>
+      <c r="I70" s="161">
+        <v>33.42</v>
+      </c>
+      <c r="J70" s="148"/>
+      <c r="K70" s="120" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="121">
+        <v>28</v>
+      </c>
+      <c r="B71" s="145">
+        <v>43096</v>
+      </c>
+      <c r="C71" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="127">
+        <v>4114</v>
+      </c>
+      <c r="E71" s="250">
+        <v>1208</v>
+      </c>
+      <c r="F71" s="129">
+        <v>11836</v>
+      </c>
+      <c r="G71" s="147">
         <v>28.2</v>
       </c>
-      <c r="H42" s="148"/>
-      <c r="I42" s="161">
+      <c r="H71" s="148"/>
+      <c r="I71" s="161">
         <v>28.2</v>
       </c>
-      <c r="J42" s="148"/>
-      <c r="K42" s="120" t="s">
+      <c r="J71" s="148"/>
+      <c r="K71" s="120" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="144">
+    <row r="72" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="144">
         <v>29</v>
       </c>
-      <c r="B43" s="145">
+      <c r="B72" s="145">
         <v>43096</v>
       </c>
-      <c r="C43" s="152" t="s">
+      <c r="C72" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="127">
+      <c r="D72" s="127">
         <v>4114</v>
       </c>
-      <c r="E43" s="127">
+      <c r="E72" s="250">
         <v>1208</v>
       </c>
-      <c r="F43" s="129">
+      <c r="F72" s="129">
         <v>11836</v>
       </c>
-      <c r="G43" s="147">
+      <c r="G72" s="147">
         <v>44.85</v>
       </c>
-      <c r="H43" s="148"/>
-      <c r="I43" s="161">
+      <c r="H72" s="148"/>
+      <c r="I72" s="161">
         <v>44.85</v>
       </c>
-      <c r="J43" s="148"/>
-      <c r="K43" s="120" t="s">
+      <c r="J72" s="148"/>
+      <c r="K72" s="120" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121">
+    <row r="73" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="121">
         <v>30</v>
       </c>
-      <c r="B44" s="145">
+      <c r="B73" s="145">
         <v>43090</v>
       </c>
-      <c r="C44" s="152" t="s">
+      <c r="C73" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="127">
+      <c r="D73" s="127">
         <v>4601</v>
       </c>
-      <c r="E44" s="122" t="s">
+      <c r="E73" s="156" t="s">
         <v>593</v>
       </c>
-      <c r="F44" s="131">
+      <c r="F73" s="131">
         <v>12124</v>
       </c>
-      <c r="G44" s="147">
+      <c r="G73" s="147">
         <v>0</v>
       </c>
-      <c r="H44" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K44" s="120" t="s">
+      <c r="H73" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I73" s="148"/>
+      <c r="J73" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K73" s="120" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121">
+    <row r="74" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="121">
         <v>31</v>
       </c>
-      <c r="B45" s="145">
+      <c r="B74" s="145">
         <v>43159</v>
       </c>
-      <c r="C45" s="152" t="s">
+      <c r="C74" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="127">
-        <v>8</v>
-      </c>
-      <c r="E45" s="127">
+      <c r="D74" s="127"/>
+      <c r="E74" s="250">
         <v>2041</v>
       </c>
-      <c r="F45" s="129">
+      <c r="F74" s="129">
         <v>12330</v>
       </c>
-      <c r="G45" s="147">
+      <c r="G74" s="147">
         <v>345</v>
       </c>
-      <c r="H45" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="148">
+      <c r="H74" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I74" s="151">
         <v>345</v>
       </c>
-      <c r="J45" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K45" s="120" t="s">
+      <c r="J74" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K74" s="120" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="212" t="s">
+    <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="213"/>
-      <c r="C46" s="213"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="213"/>
-      <c r="F46" s="214"/>
-      <c r="G46" s="173">
-        <f>SUM(G15:G45)</f>
+      <c r="B75" s="215"/>
+      <c r="C75" s="215"/>
+      <c r="D75" s="215"/>
+      <c r="E75" s="215"/>
+      <c r="F75" s="216"/>
+      <c r="G75" s="173">
+        <f>SUM(G65:G74)</f>
         <v>27807.94</v>
       </c>
-      <c r="H46" s="173">
-        <f>SUM(H15:H45)</f>
+      <c r="H75" s="173">
+        <f t="shared" ref="H75:J75" si="4">SUM(H65:H74)</f>
         <v>22543.33</v>
       </c>
-      <c r="I46" s="173">
-        <f t="shared" ref="I46:J46" si="0">SUM(I15:I45)</f>
+      <c r="I75" s="173">
+        <f t="shared" si="4"/>
         <v>1529.2600000000002</v>
       </c>
-      <c r="J46" s="173">
-        <f t="shared" si="0"/>
+      <c r="J75" s="173">
+        <f t="shared" si="4"/>
         <v>3735.35</v>
       </c>
-      <c r="K46" s="119"/>
+      <c r="K75" s="119"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="256" t="s">
+        <v>618</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E14:K46">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Rendicion al Habilito Otorgado según C/P 1407-2017 - Puma neyra mario aurelio"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="7">
-    <mergeCell ref="A46:F46"/>
+  <mergeCells count="50">
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="A75:F75"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
-  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.52" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="26" max="10" man="1"/>
+    <brk id="52" max="16383" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -26514,30 +27170,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -26551,17 +27207,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26648,15 +27304,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="206" t="s">
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="208" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="168" t="s">
@@ -26668,12 +27324,12 @@
       <c r="H12" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="210" t="s">
+      <c r="I12" s="212" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -26683,13 +27339,13 @@
       <c r="D13" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="207"/>
+      <c r="E13" s="209"/>
       <c r="F13" s="170"/>
       <c r="G13" s="171"/>
       <c r="H13" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="211"/>
+      <c r="I13" s="213"/>
       <c r="J13" s="166" t="s">
         <v>607</v>
       </c>
@@ -26734,14 +27390,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="188"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="190"/>
       <c r="G15" s="150">
         <f>SUM(G14:G14)</f>
         <v>5384.95</v>
@@ -26779,10 +27435,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:N230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E197"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26791,7 +27447,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9" style="123" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="138" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="133" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -27749,34 +28405,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -27792,19 +28448,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -27903,14 +28559,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -27928,7 +28584,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -27958,7 +28614,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="121">
         <v>3</v>
       </c>
@@ -27996,7 +28652,7 @@
       <c r="L14" s="172"/>
       <c r="M14" s="172"/>
     </row>
-    <row r="15" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="144">
         <v>4</v>
       </c>
@@ -28069,7 +28725,9 @@
       <c r="K16" s="120" t="s">
         <v>526</v>
       </c>
-      <c r="L16" s="172"/>
+      <c r="L16" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M16" s="172"/>
     </row>
     <row r="17" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28107,10 +28765,12 @@
       <c r="K17" s="120" t="s">
         <v>527</v>
       </c>
-      <c r="L17" s="172"/>
+      <c r="L17" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M17" s="172"/>
     </row>
-    <row r="18" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="144">
         <v>7</v>
       </c>
@@ -28186,7 +28846,7 @@
       <c r="L19" s="172"/>
       <c r="M19" s="172"/>
     </row>
-    <row r="20" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
         <v>9</v>
       </c>
@@ -28571,7 +29231,9 @@
       <c r="K29" s="120" t="s">
         <v>531</v>
       </c>
-      <c r="L29" s="172"/>
+      <c r="L29" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M29" s="172"/>
     </row>
     <row r="30" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28609,7 +29271,9 @@
       <c r="K30" s="120" t="s">
         <v>532</v>
       </c>
-      <c r="L30" s="172"/>
+      <c r="L30" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M30" s="172"/>
     </row>
     <row r="31" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28647,7 +29311,9 @@
       <c r="K31" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L31" s="172"/>
+      <c r="L31" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M31" s="172"/>
     </row>
     <row r="32" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28685,7 +29351,9 @@
       <c r="K32" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="172"/>
+      <c r="L32" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M32" s="172"/>
     </row>
     <row r="33" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28723,7 +29391,9 @@
       <c r="K33" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="L33" s="172"/>
+      <c r="L33" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M33" s="172"/>
     </row>
     <row r="34" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28761,7 +29431,9 @@
       <c r="K34" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L34" s="172"/>
+      <c r="L34" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M34" s="172"/>
     </row>
     <row r="35" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28799,8 +29471,12 @@
       <c r="K35" s="120" t="s">
         <v>537</v>
       </c>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
+      <c r="L35" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M35" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="36" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="121">
@@ -28837,8 +29513,12 @@
       <c r="K36" s="120" t="s">
         <v>537</v>
       </c>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
+      <c r="L36" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M36" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="37" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="144">
@@ -28875,8 +29555,12 @@
       <c r="K37" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
+      <c r="L37" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M37" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="38" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="121">
@@ -28913,8 +29597,12 @@
       <c r="K38" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
+      <c r="L38" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M38" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="39" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="121">
@@ -28951,8 +29639,12 @@
       <c r="K39" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
+      <c r="L39" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M39" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="40" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="144">
@@ -29753,7 +30445,9 @@
       <c r="K60" s="120" t="s">
         <v>536</v>
       </c>
-      <c r="L60" s="172"/>
+      <c r="L60" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M60" s="172"/>
     </row>
     <row r="61" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29791,7 +30485,9 @@
       <c r="K61" s="120" t="s">
         <v>536</v>
       </c>
-      <c r="L61" s="172"/>
+      <c r="L61" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M61" s="172"/>
     </row>
     <row r="62" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29829,7 +30525,9 @@
       <c r="K62" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L62" s="172"/>
+      <c r="L62" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M62" s="172"/>
     </row>
     <row r="63" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29867,7 +30565,9 @@
       <c r="K63" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L63" s="172"/>
+      <c r="L63" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M63" s="172"/>
     </row>
     <row r="64" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29905,7 +30605,9 @@
       <c r="K64" s="120" t="s">
         <v>536</v>
       </c>
-      <c r="L64" s="172"/>
+      <c r="L64" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M64" s="172"/>
     </row>
     <row r="65" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29943,7 +30645,9 @@
       <c r="K65" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L65" s="172"/>
+      <c r="L65" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M65" s="172"/>
     </row>
     <row r="66" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30023,8 +30727,12 @@
       <c r="K67" s="120" t="s">
         <v>538</v>
       </c>
-      <c r="L67" s="172"/>
-      <c r="M67" s="172"/>
+      <c r="L67" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M67" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="68" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="121">
@@ -30061,8 +30769,12 @@
       <c r="K68" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L68" s="172"/>
-      <c r="M68" s="172"/>
+      <c r="L68" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M68" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="69" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="121">
@@ -30099,8 +30811,12 @@
       <c r="K69" s="120" t="s">
         <v>539</v>
       </c>
-      <c r="L69" s="172"/>
-      <c r="M69" s="172"/>
+      <c r="L69" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M69" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="70" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="144">
@@ -30137,8 +30853,12 @@
       <c r="K70" s="120" t="s">
         <v>538</v>
       </c>
-      <c r="L70" s="172"/>
-      <c r="M70" s="172"/>
+      <c r="L70" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M70" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="71" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
@@ -30175,8 +30895,12 @@
       <c r="K71" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L71" s="172"/>
-      <c r="M71" s="172"/>
+      <c r="L71" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M71" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="72" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="121">
@@ -30213,8 +30937,12 @@
       <c r="K72" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L72" s="172"/>
-      <c r="M72" s="172"/>
+      <c r="L72" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M72" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="73" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="144">
@@ -30251,8 +30979,12 @@
       <c r="K73" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L73" s="172"/>
-      <c r="M73" s="172"/>
+      <c r="L73" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M73" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="74" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="121">
@@ -30453,7 +31185,9 @@
       <c r="K78" s="155" t="s">
         <v>425</v>
       </c>
-      <c r="L78" s="172"/>
+      <c r="L78" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M78" s="172"/>
     </row>
     <row r="79" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30491,7 +31225,9 @@
       <c r="K79" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L79" s="172"/>
+      <c r="L79" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M79" s="172"/>
     </row>
     <row r="80" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30529,7 +31265,9 @@
       <c r="K80" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L80" s="172"/>
+      <c r="L80" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M80" s="172"/>
     </row>
     <row r="81" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30567,7 +31305,9 @@
       <c r="K81" s="120" t="s">
         <v>426</v>
       </c>
-      <c r="L81" s="172"/>
+      <c r="L81" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M81" s="172"/>
     </row>
     <row r="82" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30605,7 +31345,9 @@
       <c r="K82" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L82" s="172"/>
+      <c r="L82" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M82" s="172"/>
     </row>
     <row r="83" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30643,7 +31385,9 @@
       <c r="K83" s="120" t="s">
         <v>543</v>
       </c>
-      <c r="L83" s="172"/>
+      <c r="L83" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M83" s="172"/>
     </row>
     <row r="84" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30681,8 +31425,12 @@
       <c r="K84" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="L84" s="172"/>
-      <c r="M84" s="172"/>
+      <c r="L84" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M84" s="180" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="85" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="144">
@@ -30719,8 +31467,12 @@
       <c r="K85" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L85" s="172"/>
-      <c r="M85" s="172"/>
+      <c r="L85" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M85" s="180" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="86" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="121">
@@ -30757,8 +31509,12 @@
       <c r="K86" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="L86" s="172"/>
-      <c r="M86" s="172"/>
+      <c r="L86" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M86" s="180" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="87" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="144">
@@ -30795,8 +31551,12 @@
       <c r="K87" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L87" s="172"/>
-      <c r="M87" s="172"/>
+      <c r="L87" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M87" s="180" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="88" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="121">
@@ -30833,8 +31593,12 @@
       <c r="K88" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L88" s="172"/>
-      <c r="M88" s="172"/>
+      <c r="L88" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M88" s="180" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="89" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="121">
@@ -30871,8 +31635,12 @@
       <c r="K89" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L89" s="172"/>
-      <c r="M89" s="172"/>
+      <c r="L89" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M89" s="180" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="90" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="144">
@@ -30909,8 +31677,12 @@
       <c r="K90" s="120" t="s">
         <v>541</v>
       </c>
-      <c r="L90" s="172"/>
-      <c r="M90" s="172"/>
+      <c r="L90" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M90" s="180" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="91" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="121">
@@ -31316,7 +32088,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="144">
         <v>118</v>
       </c>
@@ -31713,7 +32485,9 @@
       <c r="K111" s="120" t="s">
         <v>432</v>
       </c>
-      <c r="L111" s="172"/>
+      <c r="L111" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M111" s="172"/>
     </row>
     <row r="112" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -31751,10 +32525,12 @@
       <c r="K112" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L112" s="172"/>
+      <c r="L112" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M112" s="172"/>
     </row>
-    <row r="113" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="144">
         <v>133</v>
       </c>
@@ -31789,10 +32565,12 @@
       <c r="K113" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L113" s="172"/>
+      <c r="L113" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M113" s="172"/>
     </row>
-    <row r="114" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="121">
         <v>134</v>
       </c>
@@ -31827,10 +32605,12 @@
       <c r="K114" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="L114" s="172"/>
+      <c r="L114" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M114" s="172"/>
     </row>
-    <row r="115" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="121">
         <v>135</v>
       </c>
@@ -31865,10 +32645,12 @@
       <c r="K115" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L115" s="172"/>
+      <c r="L115" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M115" s="172"/>
     </row>
-    <row r="116" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="121">
         <v>137</v>
       </c>
@@ -31903,10 +32685,12 @@
       <c r="K116" s="120" t="s">
         <v>544</v>
       </c>
-      <c r="L116" s="172"/>
+      <c r="L116" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M116" s="172"/>
     </row>
-    <row r="117" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="121">
         <v>138</v>
       </c>
@@ -31942,7 +32726,7 @@
       </c>
       <c r="M117" s="172"/>
     </row>
-    <row r="118" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="144">
         <v>139</v>
       </c>
@@ -31982,7 +32766,7 @@
       </c>
       <c r="M118" s="172"/>
     </row>
-    <row r="119" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="121">
         <v>140</v>
       </c>
@@ -32020,7 +32804,7 @@
       <c r="L119" s="172"/>
       <c r="M119" s="172"/>
     </row>
-    <row r="120" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="121">
         <v>141</v>
       </c>
@@ -32060,7 +32844,7 @@
       </c>
       <c r="M120" s="172"/>
     </row>
-    <row r="121" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="144">
         <v>142</v>
       </c>
@@ -32095,10 +32879,15 @@
       <c r="K121" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="L121" s="172"/>
-      <c r="M121" s="172"/>
-    </row>
-    <row r="122" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="M121" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="N121" s="181"/>
+    </row>
+    <row r="122" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="121">
         <v>143</v>
       </c>
@@ -32133,10 +32922,15 @@
       <c r="K122" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L122" s="172"/>
-      <c r="M122" s="172"/>
-    </row>
-    <row r="123" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L122" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="M122" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="N122" s="181"/>
+    </row>
+    <row r="123" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="121">
         <v>144</v>
       </c>
@@ -32171,10 +32965,15 @@
       <c r="K123" s="120" t="s">
         <v>435</v>
       </c>
-      <c r="L123" s="172"/>
-      <c r="M123" s="172"/>
-    </row>
-    <row r="124" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L123" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="M123" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="N123" s="181"/>
+    </row>
+    <row r="124" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="144">
         <v>145</v>
       </c>
@@ -32209,10 +33008,15 @@
       <c r="K124" s="120" t="s">
         <v>554</v>
       </c>
-      <c r="L124" s="172"/>
-      <c r="M124" s="172"/>
-    </row>
-    <row r="125" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L124" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="M124" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="N124" s="181"/>
+    </row>
+    <row r="125" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="121">
         <v>146</v>
       </c>
@@ -32247,10 +33051,15 @@
       <c r="K125" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L125" s="172"/>
-      <c r="M125" s="172"/>
-    </row>
-    <row r="126" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L125" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="M125" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="N125" s="181"/>
+    </row>
+    <row r="126" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="121">
         <v>147</v>
       </c>
@@ -32285,10 +33094,15 @@
       <c r="K126" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L126" s="172"/>
-      <c r="M126" s="172"/>
-    </row>
-    <row r="127" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L126" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="M126" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="N126" s="181"/>
+    </row>
+    <row r="127" spans="1:14" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="144">
         <v>148</v>
       </c>
@@ -32323,10 +33137,15 @@
       <c r="K127" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L127" s="172"/>
-      <c r="M127" s="172"/>
-    </row>
-    <row r="128" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="M127" s="172" t="s">
+        <v>611</v>
+      </c>
+      <c r="N127" s="181"/>
+    </row>
+    <row r="128" spans="1:14" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="121">
         <v>149</v>
       </c>
@@ -32515,7 +33334,9 @@
       <c r="K132" s="120" t="s">
         <v>437</v>
       </c>
-      <c r="L132" s="172"/>
+      <c r="L132" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M132" s="172"/>
     </row>
     <row r="133" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32553,7 +33374,9 @@
       <c r="K133" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="L133" s="172"/>
+      <c r="L133" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M133" s="172"/>
     </row>
     <row r="134" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32591,7 +33414,9 @@
       <c r="K134" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L134" s="172"/>
+      <c r="L134" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M134" s="172"/>
     </row>
     <row r="135" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32629,7 +33454,9 @@
       <c r="K135" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L135" s="172"/>
+      <c r="L135" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M135" s="172"/>
     </row>
     <row r="136" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32667,7 +33494,9 @@
       <c r="K136" s="120" t="s">
         <v>438</v>
       </c>
-      <c r="L136" s="172"/>
+      <c r="L136" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M136" s="172"/>
     </row>
     <row r="137" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32705,7 +33534,9 @@
       <c r="K137" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L137" s="172"/>
+      <c r="L137" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M137" s="172"/>
     </row>
     <row r="138" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32783,8 +33614,12 @@
       <c r="K139" s="120" t="s">
         <v>437</v>
       </c>
-      <c r="L139" s="172"/>
-      <c r="M139" s="172"/>
+      <c r="L139" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M139" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="140" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="121">
@@ -32821,8 +33656,12 @@
       <c r="K140" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L140" s="172"/>
-      <c r="M140" s="172"/>
+      <c r="L140" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M140" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="141" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="121">
@@ -32859,8 +33698,12 @@
       <c r="K141" s="120" t="s">
         <v>439</v>
       </c>
-      <c r="L141" s="172"/>
-      <c r="M141" s="172"/>
+      <c r="L141" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M141" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="142" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="144">
@@ -32897,8 +33740,12 @@
       <c r="K142" s="120" t="s">
         <v>546</v>
       </c>
-      <c r="L142" s="172"/>
-      <c r="M142" s="172"/>
+      <c r="L142" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M142" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="143" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="121">
@@ -32935,8 +33782,12 @@
       <c r="K143" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L143" s="172"/>
-      <c r="M143" s="172"/>
+      <c r="L143" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M143" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="144" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="121">
@@ -32973,8 +33824,12 @@
       <c r="K144" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L144" s="172"/>
-      <c r="M144" s="172"/>
+      <c r="L144" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M144" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="145" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="144">
@@ -33011,8 +33866,12 @@
       <c r="K145" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L145" s="172"/>
-      <c r="M145" s="172"/>
+      <c r="L145" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M145" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="146" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="121">
@@ -33049,7 +33908,9 @@
       <c r="K146" s="120" t="s">
         <v>441</v>
       </c>
-      <c r="L146" s="172"/>
+      <c r="L146" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M146" s="172"/>
     </row>
     <row r="147" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33087,7 +33948,9 @@
       <c r="K147" s="120" t="s">
         <v>547</v>
       </c>
-      <c r="L147" s="172"/>
+      <c r="L147" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M147" s="172"/>
     </row>
     <row r="148" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33125,7 +33988,9 @@
       <c r="K148" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L148" s="172"/>
+      <c r="L148" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M148" s="172"/>
     </row>
     <row r="149" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33163,7 +34028,9 @@
       <c r="K149" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L149" s="172"/>
+      <c r="L149" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M149" s="172"/>
     </row>
     <row r="150" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33201,7 +34068,9 @@
       <c r="K150" s="120" t="s">
         <v>440</v>
       </c>
-      <c r="L150" s="172"/>
+      <c r="L150" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M150" s="172"/>
     </row>
     <row r="151" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33239,7 +34108,9 @@
       <c r="K151" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L151" s="172"/>
+      <c r="L151" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M151" s="172"/>
     </row>
     <row r="152" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33277,8 +34148,12 @@
       <c r="K152" s="120" t="s">
         <v>443</v>
       </c>
-      <c r="L152" s="172"/>
-      <c r="M152" s="172"/>
+      <c r="L152" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M152" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="153" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="144">
@@ -33315,8 +34190,12 @@
       <c r="K153" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L153" s="172"/>
-      <c r="M153" s="172"/>
+      <c r="L153" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M153" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="154" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="121">
@@ -33353,8 +34232,12 @@
       <c r="K154" s="120" t="s">
         <v>442</v>
       </c>
-      <c r="L154" s="172"/>
-      <c r="M154" s="172"/>
+      <c r="L154" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M154" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="155" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="121">
@@ -33391,8 +34274,12 @@
       <c r="K155" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L155" s="172"/>
-      <c r="M155" s="172"/>
+      <c r="L155" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M155" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="156" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="121">
@@ -33429,8 +34316,12 @@
       <c r="K156" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L156" s="172"/>
-      <c r="M156" s="172"/>
+      <c r="L156" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M156" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="157" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="121">
@@ -33467,8 +34358,12 @@
       <c r="K157" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L157" s="172"/>
-      <c r="M157" s="172"/>
+      <c r="L157" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M157" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="158" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="144">
@@ -33505,8 +34400,12 @@
       <c r="K158" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="L158" s="172"/>
-      <c r="M158" s="172"/>
+      <c r="L158" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M158" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="159" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="144">
@@ -33626,7 +34525,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="144">
         <v>187</v>
       </c>
@@ -33702,7 +34601,7 @@
       <c r="L163" s="172"/>
       <c r="M163" s="172"/>
     </row>
-    <row r="164" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="121">
         <v>189</v>
       </c>
@@ -33778,7 +34677,7 @@
       <c r="L165" s="172"/>
       <c r="M165" s="172"/>
     </row>
-    <row r="166" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="121">
         <v>191</v>
       </c>
@@ -33851,8 +34750,12 @@
       <c r="K167" s="120" t="s">
         <v>445</v>
       </c>
-      <c r="L167" s="172"/>
-      <c r="M167" s="172"/>
+      <c r="L167" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M167" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="168" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="144">
@@ -33889,8 +34792,12 @@
       <c r="K168" s="120" t="s">
         <v>446</v>
       </c>
-      <c r="L168" s="172"/>
-      <c r="M168" s="172"/>
+      <c r="L168" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M168" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="169" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="121">
@@ -33927,8 +34834,12 @@
       <c r="K169" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L169" s="172"/>
-      <c r="M169" s="172"/>
+      <c r="L169" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M169" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="170" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="121">
@@ -33965,8 +34876,12 @@
       <c r="K170" s="120" t="s">
         <v>549</v>
       </c>
-      <c r="L170" s="172"/>
-      <c r="M170" s="172"/>
+      <c r="L170" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M170" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="171" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="144">
@@ -34003,8 +34918,12 @@
       <c r="K171" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L171" s="172"/>
-      <c r="M171" s="172"/>
+      <c r="L171" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M171" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="172" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="121">
@@ -34041,8 +34960,12 @@
       <c r="K172" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L172" s="172"/>
-      <c r="M172" s="172"/>
+      <c r="L172" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M172" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="173" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="121">
@@ -34079,8 +35002,12 @@
       <c r="K173" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L173" s="172"/>
-      <c r="M173" s="172"/>
+      <c r="L173" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M173" s="172" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="174" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="144">
@@ -34199,7 +35126,9 @@
       <c r="K176" s="120" t="s">
         <v>447</v>
       </c>
-      <c r="L176" s="172"/>
+      <c r="L176" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M176" s="172"/>
     </row>
     <row r="177" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34237,7 +35166,9 @@
       <c r="K177" s="120" t="s">
         <v>550</v>
       </c>
-      <c r="L177" s="172"/>
+      <c r="L177" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M177" s="172"/>
     </row>
     <row r="178" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34275,7 +35206,9 @@
       <c r="K178" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L178" s="172"/>
+      <c r="L178" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M178" s="172"/>
     </row>
     <row r="179" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34313,7 +35246,9 @@
       <c r="K179" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L179" s="172"/>
+      <c r="L179" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M179" s="172"/>
     </row>
     <row r="180" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34351,7 +35286,9 @@
       <c r="K180" s="120" t="s">
         <v>448</v>
       </c>
-      <c r="L180" s="172"/>
+      <c r="L180" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M180" s="172"/>
     </row>
     <row r="181" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34389,10 +35326,12 @@
       <c r="K181" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L181" s="172"/>
+      <c r="L181" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M181" s="172"/>
     </row>
-    <row r="182" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="121">
         <v>207</v>
       </c>
@@ -34430,7 +35369,7 @@
       <c r="L182" s="172"/>
       <c r="M182" s="172"/>
     </row>
-    <row r="183" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="144">
         <v>208</v>
       </c>
@@ -34506,7 +35445,7 @@
       <c r="L184" s="172"/>
       <c r="M184" s="172"/>
     </row>
-    <row r="185" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="121">
         <v>210</v>
       </c>
@@ -34582,7 +35521,7 @@
       <c r="L186" s="172"/>
       <c r="M186" s="172"/>
     </row>
-    <row r="187" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="121">
         <v>212</v>
       </c>
@@ -34655,7 +35594,9 @@
       <c r="K188" s="120" t="s">
         <v>453</v>
       </c>
-      <c r="L188" s="172"/>
+      <c r="L188" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M188" s="172"/>
     </row>
     <row r="189" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34693,7 +35634,9 @@
       <c r="K189" s="120" t="s">
         <v>551</v>
       </c>
-      <c r="L189" s="172"/>
+      <c r="L189" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M189" s="172"/>
     </row>
     <row r="190" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34731,7 +35674,9 @@
       <c r="K190" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L190" s="172"/>
+      <c r="L190" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M190" s="172"/>
     </row>
     <row r="191" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34769,7 +35714,9 @@
       <c r="K191" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L191" s="172"/>
+      <c r="L191" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M191" s="172"/>
     </row>
     <row r="192" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34807,7 +35754,9 @@
       <c r="K192" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="L192" s="172"/>
+      <c r="L192" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M192" s="172"/>
     </row>
     <row r="193" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34845,7 +35794,9 @@
       <c r="K193" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L193" s="172"/>
+      <c r="L193" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M193" s="172"/>
     </row>
     <row r="194" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34883,7 +35834,9 @@
       <c r="K194" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L194" s="172"/>
+      <c r="L194" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M194" s="172"/>
     </row>
     <row r="195" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34921,7 +35874,9 @@
       <c r="K195" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L195" s="172"/>
+      <c r="L195" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M195" s="172"/>
     </row>
     <row r="196" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34959,10 +35914,12 @@
       <c r="K196" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="L196" s="172"/>
+      <c r="L196" s="172" t="s">
+        <v>23</v>
+      </c>
       <c r="M196" s="172"/>
     </row>
-    <row r="197" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="144">
         <v>223</v>
       </c>
@@ -35164,7 +36121,7 @@
       </c>
       <c r="M201" s="172"/>
     </row>
-    <row r="202" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="121">
         <v>228</v>
       </c>
@@ -35202,7 +36159,7 @@
       <c r="L202" s="172"/>
       <c r="M202" s="172"/>
     </row>
-    <row r="203" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="144">
         <v>229</v>
       </c>
@@ -35316,7 +36273,7 @@
       <c r="L205" s="172"/>
       <c r="M205" s="172"/>
     </row>
-    <row r="206" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="144">
         <v>232</v>
       </c>
@@ -35674,7 +36631,7 @@
       </c>
       <c r="M214" s="172"/>
     </row>
-    <row r="215" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="121">
         <v>248</v>
       </c>
@@ -35712,7 +36669,7 @@
       <c r="L215" s="172"/>
       <c r="M215" s="172"/>
     </row>
-    <row r="216" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="121">
         <v>249</v>
       </c>
@@ -35750,7 +36707,7 @@
       <c r="L216" s="172"/>
       <c r="M216" s="172"/>
     </row>
-    <row r="217" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="144">
         <v>250</v>
       </c>
@@ -35788,7 +36745,7 @@
       <c r="L217" s="172"/>
       <c r="M217" s="172"/>
     </row>
-    <row r="218" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="121">
         <v>251</v>
       </c>
@@ -35826,7 +36783,7 @@
       <c r="L218" s="172"/>
       <c r="M218" s="172"/>
     </row>
-    <row r="219" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="121">
         <v>252</v>
       </c>
@@ -35864,7 +36821,7 @@
       <c r="L219" s="172"/>
       <c r="M219" s="172"/>
     </row>
-    <row r="220" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="144">
         <v>253</v>
       </c>
@@ -35902,7 +36859,7 @@
       <c r="L220" s="172"/>
       <c r="M220" s="172"/>
     </row>
-    <row r="221" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="121">
         <v>254</v>
       </c>
@@ -35940,7 +36897,7 @@
       <c r="L221" s="172"/>
       <c r="M221" s="172"/>
     </row>
-    <row r="222" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="121">
         <v>255</v>
       </c>
@@ -35978,7 +36935,7 @@
       <c r="L222" s="172"/>
       <c r="M222" s="172"/>
     </row>
-    <row r="223" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="144">
         <v>256</v>
       </c>
@@ -36016,7 +36973,7 @@
       <c r="L223" s="172"/>
       <c r="M223" s="172"/>
     </row>
-    <row r="224" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="121">
         <v>258</v>
       </c>
@@ -36051,10 +37008,14 @@
       <c r="K224" s="120" t="s">
         <v>553</v>
       </c>
-      <c r="L224" s="172"/>
-      <c r="M224" s="172"/>
-    </row>
-    <row r="225" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L224" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M224" s="172" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="144">
         <v>259</v>
       </c>
@@ -36089,10 +37050,14 @@
       <c r="K225" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L225" s="172"/>
-      <c r="M225" s="172"/>
-    </row>
-    <row r="226" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L225" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M225" s="172" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="121">
         <v>260</v>
       </c>
@@ -36127,10 +37092,14 @@
       <c r="K226" s="120" t="s">
         <v>460</v>
       </c>
-      <c r="L226" s="172"/>
-      <c r="M226" s="172"/>
-    </row>
-    <row r="227" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L226" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M226" s="172" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="121">
         <v>261</v>
       </c>
@@ -36165,10 +37134,14 @@
       <c r="K227" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L227" s="172"/>
-      <c r="M227" s="172"/>
-    </row>
-    <row r="228" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L227" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M227" s="172" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="144">
         <v>262</v>
       </c>
@@ -36203,18 +37176,22 @@
       <c r="K228" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L228" s="172"/>
-      <c r="M228" s="172"/>
-    </row>
-    <row r="229" spans="1:13" s="125" customFormat="1" ht="57" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="186" t="s">
+      <c r="L228" s="172" t="s">
+        <v>609</v>
+      </c>
+      <c r="M228" s="172" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B229" s="187"/>
-      <c r="C229" s="187"/>
-      <c r="D229" s="187"/>
-      <c r="E229" s="187"/>
-      <c r="F229" s="188"/>
+      <c r="B229" s="189"/>
+      <c r="C229" s="189"/>
+      <c r="D229" s="189"/>
+      <c r="E229" s="189"/>
+      <c r="F229" s="190"/>
       <c r="G229" s="150">
         <f>SUM(G14:G228)</f>
         <v>1069430.58</v>
@@ -36233,7 +37210,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:13" s="125" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" s="125" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C230" s="126"/>
       <c r="D230" s="143"/>
       <c r="F230" s="135"/>
@@ -36248,16 +37225,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E13:K230">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 0838-17 por la Planilla de Viaticos según MEMO N° 0072-17-GRAP/07.DR.ADMYF. - Gavino marcilla acuña"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 1136-17 por la Planilla de Viaticos según MEMO N° 0150-17-GRAP/07.DR.ADMYF. - Puma neyra mario aurelio"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 20427-17 por la Planilla de Viaticos según MEMO N° 2020-17-GRAP/07.DR.ADMYF. - Puma neyra mario aurelio"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 22287-17 por la Planilla de Viaticos según MEMO N° 2219-17-GRAP/07.DR.ADMYF. - Puma neyra mario aurelio"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 7679-17 por la Planilla de Viaticos según MEMO N° 669-17-GRAP/07.DR.ADMYF. -Puma neyra mario aurelio"/>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 8692-17 por la Planilla de Viaticos según MEMO N° 805-17-GRAP/07.DR.ADMYF. - Puma neyra mario aurelio"/>
+  <autoFilter ref="G13:M230">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="10009.94"/>
+        <filter val="1005.78"/>
+        <filter val="10113.44"/>
+        <filter val="1044.00"/>
+        <filter val="1069430.58"/>
+        <filter val="1157.00"/>
+        <filter val="1178.00"/>
+        <filter val="12481.52"/>
+        <filter val="137398.31"/>
+        <filter val="17022.33"/>
+        <filter val="17085.00"/>
+        <filter val="1990.16"/>
+        <filter val="20071.00"/>
+        <filter val="2758.00"/>
+        <filter val="46049.53"/>
+        <filter val="936.00"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="6">
@@ -37246,34 +38241,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -37289,19 +38284,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -37400,14 +38395,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -37425,7 +38420,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -40021,14 +41016,14 @@
       <c r="M184" s="172"/>
     </row>
     <row r="185" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="186" t="s">
+      <c r="A185" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B185" s="187"/>
-      <c r="C185" s="187"/>
-      <c r="D185" s="187"/>
-      <c r="E185" s="187"/>
-      <c r="F185" s="188"/>
+      <c r="B185" s="189"/>
+      <c r="C185" s="189"/>
+      <c r="D185" s="189"/>
+      <c r="E185" s="189"/>
+      <c r="F185" s="190"/>
       <c r="G185" s="150">
         <f>SUM(G14:G184)</f>
         <v>0</v>
@@ -41048,34 +42043,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -41091,19 +42086,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -41202,14 +42197,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -41227,7 +42222,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -43508,14 +44503,14 @@
       <c r="M163" s="172"/>
     </row>
     <row r="164" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="186" t="s">
+      <c r="A164" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="187"/>
-      <c r="C164" s="187"/>
-      <c r="D164" s="187"/>
-      <c r="E164" s="187"/>
-      <c r="F164" s="188"/>
+      <c r="B164" s="189"/>
+      <c r="C164" s="189"/>
+      <c r="D164" s="189"/>
+      <c r="E164" s="189"/>
+      <c r="F164" s="190"/>
       <c r="G164" s="150">
         <f>SUM(G14:G163)</f>
         <v>0</v>
@@ -44535,34 +45530,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -44578,19 +45573,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -44689,14 +45684,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -44714,7 +45709,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -47520,14 +48515,14 @@
       <c r="M198" s="172"/>
     </row>
     <row r="199" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="186" t="s">
+      <c r="A199" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="B199" s="187"/>
-      <c r="C199" s="187"/>
-      <c r="D199" s="187"/>
-      <c r="E199" s="187"/>
-      <c r="F199" s="188"/>
+      <c r="B199" s="189"/>
+      <c r="C199" s="189"/>
+      <c r="D199" s="189"/>
+      <c r="E199" s="189"/>
+      <c r="F199" s="190"/>
       <c r="G199" s="150">
         <f>SUM(G14:G198)</f>
         <v>0</v>
@@ -47605,21 +48600,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -47637,21 +48632,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -47761,56 +48756,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="228" t="s">
+      <c r="B10" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="230" t="s">
+      <c r="D10" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="218" t="s">
+      <c r="E10" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="218" t="s">
+      <c r="G10" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="218" t="s">
+      <c r="H10" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="216" t="s">
+      <c r="I10" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="218" t="s">
+      <c r="J10" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="218" t="s">
+      <c r="K10" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="218" t="s">
+      <c r="L10" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="220" t="s">
+      <c r="M10" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="221"/>
+      <c r="N10" s="223"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="229"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="221"/>
+      <c r="K11" s="221"/>
+      <c r="L11" s="221"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -47945,31 +48940,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="224"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="226"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="225"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="227"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="229"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="215" t="s">
+      <c r="M20" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="215"/>
+      <c r="N20" s="217"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -47991,21 +48986,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -48023,21 +49018,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="180" t="s">
+      <c r="B25" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -48147,56 +49142,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="228" t="s">
+      <c r="B31" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="218" t="s">
+      <c r="C31" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="230" t="s">
+      <c r="D31" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="218" t="s">
+      <c r="E31" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="218" t="s">
+      <c r="G31" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="218" t="s">
+      <c r="H31" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="216" t="s">
+      <c r="I31" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="218" t="s">
+      <c r="J31" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="218" t="s">
+      <c r="K31" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="218" t="s">
+      <c r="L31" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="220" t="s">
+      <c r="M31" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="221"/>
+      <c r="N31" s="223"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="229"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="231"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="219"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="221"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -48290,31 +49285,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="232" t="s">
+      <c r="B38" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="233"/>
-      <c r="D38" s="233"/>
-      <c r="E38" s="233"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="234"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="236"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="235"/>
-      <c r="K38" s="236"/>
-      <c r="L38" s="236"/>
-      <c r="M38" s="236"/>
-      <c r="N38" s="237"/>
+      <c r="J38" s="237"/>
+      <c r="K38" s="238"/>
+      <c r="L38" s="238"/>
+      <c r="M38" s="238"/>
+      <c r="N38" s="239"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="215" t="s">
+      <c r="M40" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="215"/>
+      <c r="N40" s="217"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -48336,21 +49331,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="180"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
+      <c r="L43" s="182"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="182"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -48368,21 +49363,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="180" t="s">
+      <c r="B45" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="180"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
-      <c r="N45" s="180"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="182"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="182"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -48492,56 +49487,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="228" t="s">
+      <c r="B51" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="218" t="s">
+      <c r="C51" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="230" t="s">
+      <c r="D51" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="218" t="s">
+      <c r="E51" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="218" t="s">
+      <c r="F51" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="218" t="s">
+      <c r="G51" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="218" t="s">
+      <c r="H51" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="216" t="s">
+      <c r="I51" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="218" t="s">
+      <c r="J51" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="218" t="s">
+      <c r="K51" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="218" t="s">
+      <c r="L51" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="220" t="s">
+      <c r="M51" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="221"/>
+      <c r="N51" s="223"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="229"/>
-      <c r="C52" s="219"/>
-      <c r="D52" s="231"/>
-      <c r="E52" s="219"/>
-      <c r="F52" s="219"/>
-      <c r="G52" s="219"/>
-      <c r="H52" s="219"/>
-      <c r="I52" s="217"/>
-      <c r="J52" s="219"/>
-      <c r="K52" s="219"/>
-      <c r="L52" s="219"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="233"/>
+      <c r="E52" s="221"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="221"/>
+      <c r="H52" s="221"/>
+      <c r="I52" s="219"/>
+      <c r="J52" s="221"/>
+      <c r="K52" s="221"/>
+      <c r="L52" s="221"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -48618,31 +49613,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="232" t="s">
+      <c r="B57" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="233"/>
-      <c r="D57" s="233"/>
-      <c r="E57" s="233"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="233"/>
-      <c r="H57" s="234"/>
+      <c r="C57" s="235"/>
+      <c r="D57" s="235"/>
+      <c r="E57" s="235"/>
+      <c r="F57" s="235"/>
+      <c r="G57" s="235"/>
+      <c r="H57" s="236"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="235"/>
-      <c r="K57" s="236"/>
-      <c r="L57" s="236"/>
-      <c r="M57" s="236"/>
-      <c r="N57" s="237"/>
+      <c r="J57" s="237"/>
+      <c r="K57" s="238"/>
+      <c r="L57" s="238"/>
+      <c r="M57" s="238"/>
+      <c r="N57" s="239"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="215" t="s">
+      <c r="M59" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="215"/>
+      <c r="N59" s="217"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -48672,21 +49667,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="180" t="s">
+      <c r="B64" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="180"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="180"/>
-      <c r="H64" s="180"/>
-      <c r="I64" s="180"/>
-      <c r="J64" s="180"/>
-      <c r="K64" s="180"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="180"/>
-      <c r="N64" s="180"/>
+      <c r="C64" s="182"/>
+      <c r="D64" s="182"/>
+      <c r="E64" s="182"/>
+      <c r="F64" s="182"/>
+      <c r="G64" s="182"/>
+      <c r="H64" s="182"/>
+      <c r="I64" s="182"/>
+      <c r="J64" s="182"/>
+      <c r="K64" s="182"/>
+      <c r="L64" s="182"/>
+      <c r="M64" s="182"/>
+      <c r="N64" s="182"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -48704,21 +49699,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="180" t="s">
+      <c r="B66" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="180"/>
-      <c r="D66" s="180"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
-      <c r="H66" s="180"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="180"/>
-      <c r="L66" s="180"/>
-      <c r="M66" s="180"/>
-      <c r="N66" s="180"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="182"/>
+      <c r="L66" s="182"/>
+      <c r="M66" s="182"/>
+      <c r="N66" s="182"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -48828,56 +49823,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="228" t="s">
+      <c r="B72" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="218" t="s">
+      <c r="C72" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="230" t="s">
+      <c r="D72" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="218" t="s">
+      <c r="E72" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="218" t="s">
+      <c r="F72" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="218" t="s">
+      <c r="G72" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="218" t="s">
+      <c r="H72" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="216" t="s">
+      <c r="I72" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="218" t="s">
+      <c r="J72" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="218" t="s">
+      <c r="K72" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="218" t="s">
+      <c r="L72" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="220" t="s">
+      <c r="M72" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="221"/>
+      <c r="N72" s="223"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="229"/>
-      <c r="C73" s="219"/>
-      <c r="D73" s="231"/>
-      <c r="E73" s="219"/>
-      <c r="F73" s="219"/>
-      <c r="G73" s="219"/>
-      <c r="H73" s="219"/>
-      <c r="I73" s="217"/>
-      <c r="J73" s="219"/>
-      <c r="K73" s="219"/>
-      <c r="L73" s="219"/>
+      <c r="B73" s="231"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="233"/>
+      <c r="E73" s="221"/>
+      <c r="F73" s="221"/>
+      <c r="G73" s="221"/>
+      <c r="H73" s="221"/>
+      <c r="I73" s="219"/>
+      <c r="J73" s="221"/>
+      <c r="K73" s="221"/>
+      <c r="L73" s="221"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -48937,31 +49932,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="222" t="s">
+      <c r="B77" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="223"/>
-      <c r="D77" s="223"/>
-      <c r="E77" s="223"/>
-      <c r="F77" s="223"/>
-      <c r="G77" s="223"/>
-      <c r="H77" s="224"/>
+      <c r="C77" s="225"/>
+      <c r="D77" s="225"/>
+      <c r="E77" s="225"/>
+      <c r="F77" s="225"/>
+      <c r="G77" s="225"/>
+      <c r="H77" s="226"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="225"/>
-      <c r="K77" s="226"/>
-      <c r="L77" s="226"/>
-      <c r="M77" s="226"/>
-      <c r="N77" s="227"/>
+      <c r="J77" s="227"/>
+      <c r="K77" s="228"/>
+      <c r="L77" s="228"/>
+      <c r="M77" s="228"/>
+      <c r="N77" s="229"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="215" t="s">
+      <c r="M79" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="215"/>
+      <c r="N79" s="217"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2017.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3780,22 +3780,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3807,14 +3837,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3825,16 +3852,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3876,6 +3909,18 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3885,20 +3930,29 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3924,18 +3978,6 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3954,56 +3996,14 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4332,42 +4332,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4387,23 +4387,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4526,38 +4526,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="195" t="s">
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="195" t="s">
+      <c r="F12" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="186" t="s">
+      <c r="G12" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="183" t="s">
+      <c r="H12" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="185"/>
-      <c r="O12" s="186" t="s">
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="206" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="187"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4567,9 +4567,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="187"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="202"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="187"/>
+      <c r="O13" s="202"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5162,14 +5162,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="200"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5202,42 +5202,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="191" t="s">
+      <c r="A35" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="191"/>
-      <c r="M35" s="191"/>
-      <c r="N35" s="191"/>
-      <c r="O35" s="191"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="193"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="193"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="193"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="192"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5360,38 +5360,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="194" t="s">
+      <c r="B43" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="195" t="s">
+      <c r="C43" s="203"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="195" t="s">
+      <c r="F43" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="186" t="s">
+      <c r="G43" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="183" t="s">
+      <c r="H43" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="184"/>
-      <c r="L43" s="184"/>
-      <c r="M43" s="184"/>
-      <c r="N43" s="185"/>
-      <c r="O43" s="186" t="s">
+      <c r="I43" s="209"/>
+      <c r="J43" s="209"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="209"/>
+      <c r="M43" s="209"/>
+      <c r="N43" s="210"/>
+      <c r="O43" s="206" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="187"/>
+      <c r="A44" s="202"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5401,9 +5401,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="196"/>
-      <c r="F44" s="197"/>
-      <c r="G44" s="187"/>
+      <c r="E44" s="205"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="202"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5425,17 +5425,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="187"/>
+      <c r="O44" s="202"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="199"/>
-      <c r="C45" s="199"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="199"/>
-      <c r="F45" s="200"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="197"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5890,14 +5890,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="188" t="s">
+      <c r="A66" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="189"/>
-      <c r="C66" s="189"/>
-      <c r="D66" s="189"/>
-      <c r="E66" s="189"/>
-      <c r="F66" s="190"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="199"/>
+      <c r="F66" s="200"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5930,42 +5930,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="191" t="s">
+      <c r="A69" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="191"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="191"/>
-      <c r="E69" s="191"/>
-      <c r="F69" s="191"/>
-      <c r="G69" s="191"/>
-      <c r="H69" s="191"/>
-      <c r="I69" s="191"/>
-      <c r="J69" s="191"/>
-      <c r="K69" s="191"/>
-      <c r="L69" s="191"/>
-      <c r="M69" s="191"/>
-      <c r="N69" s="191"/>
-      <c r="O69" s="191"/>
+      <c r="B69" s="193"/>
+      <c r="C69" s="193"/>
+      <c r="D69" s="193"/>
+      <c r="E69" s="193"/>
+      <c r="F69" s="193"/>
+      <c r="G69" s="193"/>
+      <c r="H69" s="193"/>
+      <c r="I69" s="193"/>
+      <c r="J69" s="193"/>
+      <c r="K69" s="193"/>
+      <c r="L69" s="193"/>
+      <c r="M69" s="193"/>
+      <c r="N69" s="193"/>
+      <c r="O69" s="193"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="192" t="s">
+      <c r="A70" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="192"/>
-      <c r="C70" s="192"/>
-      <c r="D70" s="192"/>
-      <c r="E70" s="192"/>
-      <c r="F70" s="192"/>
-      <c r="G70" s="192"/>
-      <c r="H70" s="192"/>
-      <c r="I70" s="192"/>
-      <c r="J70" s="192"/>
-      <c r="K70" s="192"/>
-      <c r="L70" s="192"/>
-      <c r="M70" s="192"/>
-      <c r="N70" s="192"/>
-      <c r="O70" s="192"/>
+      <c r="B70" s="194"/>
+      <c r="C70" s="194"/>
+      <c r="D70" s="194"/>
+      <c r="E70" s="194"/>
+      <c r="F70" s="194"/>
+      <c r="G70" s="194"/>
+      <c r="H70" s="194"/>
+      <c r="I70" s="194"/>
+      <c r="J70" s="194"/>
+      <c r="K70" s="194"/>
+      <c r="L70" s="194"/>
+      <c r="M70" s="194"/>
+      <c r="N70" s="194"/>
+      <c r="O70" s="194"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6088,38 +6088,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="193" t="s">
+      <c r="A77" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="194" t="s">
+      <c r="B77" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="194"/>
-      <c r="D77" s="194"/>
-      <c r="E77" s="195" t="s">
+      <c r="C77" s="203"/>
+      <c r="D77" s="203"/>
+      <c r="E77" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="195" t="s">
+      <c r="F77" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="186" t="s">
+      <c r="G77" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="183" t="s">
+      <c r="H77" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="184"/>
-      <c r="J77" s="184"/>
-      <c r="K77" s="184"/>
-      <c r="L77" s="184"/>
-      <c r="M77" s="184"/>
-      <c r="N77" s="185"/>
-      <c r="O77" s="186" t="s">
+      <c r="I77" s="209"/>
+      <c r="J77" s="209"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="209"/>
+      <c r="M77" s="209"/>
+      <c r="N77" s="210"/>
+      <c r="O77" s="206" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="187"/>
+      <c r="A78" s="202"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6129,9 +6129,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="196"/>
-      <c r="F78" s="197"/>
-      <c r="G78" s="187"/>
+      <c r="E78" s="205"/>
+      <c r="F78" s="207"/>
+      <c r="G78" s="202"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6153,17 +6153,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="187"/>
+      <c r="O78" s="202"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="198" t="s">
+      <c r="A79" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="199"/>
-      <c r="C79" s="199"/>
-      <c r="D79" s="199"/>
-      <c r="E79" s="199"/>
-      <c r="F79" s="200"/>
+      <c r="B79" s="196"/>
+      <c r="C79" s="196"/>
+      <c r="D79" s="196"/>
+      <c r="E79" s="196"/>
+      <c r="F79" s="197"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6596,14 +6596,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="188" t="s">
+      <c r="A99" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="189"/>
-      <c r="C99" s="189"/>
-      <c r="D99" s="189"/>
-      <c r="E99" s="189"/>
-      <c r="F99" s="190"/>
+      <c r="B99" s="199"/>
+      <c r="C99" s="199"/>
+      <c r="D99" s="199"/>
+      <c r="E99" s="199"/>
+      <c r="F99" s="200"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6689,42 +6689,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="191" t="s">
+      <c r="A105" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="191"/>
-      <c r="C105" s="191"/>
-      <c r="D105" s="191"/>
-      <c r="E105" s="191"/>
-      <c r="F105" s="191"/>
-      <c r="G105" s="191"/>
-      <c r="H105" s="191"/>
-      <c r="I105" s="191"/>
-      <c r="J105" s="191"/>
-      <c r="K105" s="191"/>
-      <c r="L105" s="191"/>
-      <c r="M105" s="191"/>
-      <c r="N105" s="191"/>
-      <c r="O105" s="191"/>
+      <c r="B105" s="193"/>
+      <c r="C105" s="193"/>
+      <c r="D105" s="193"/>
+      <c r="E105" s="193"/>
+      <c r="F105" s="193"/>
+      <c r="G105" s="193"/>
+      <c r="H105" s="193"/>
+      <c r="I105" s="193"/>
+      <c r="J105" s="193"/>
+      <c r="K105" s="193"/>
+      <c r="L105" s="193"/>
+      <c r="M105" s="193"/>
+      <c r="N105" s="193"/>
+      <c r="O105" s="193"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="192" t="s">
+      <c r="A106" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="192"/>
-      <c r="C106" s="192"/>
-      <c r="D106" s="192"/>
-      <c r="E106" s="192"/>
-      <c r="F106" s="192"/>
-      <c r="G106" s="192"/>
-      <c r="H106" s="192"/>
-      <c r="I106" s="192"/>
-      <c r="J106" s="192"/>
-      <c r="K106" s="192"/>
-      <c r="L106" s="192"/>
-      <c r="M106" s="192"/>
-      <c r="N106" s="192"/>
-      <c r="O106" s="192"/>
+      <c r="B106" s="194"/>
+      <c r="C106" s="194"/>
+      <c r="D106" s="194"/>
+      <c r="E106" s="194"/>
+      <c r="F106" s="194"/>
+      <c r="G106" s="194"/>
+      <c r="H106" s="194"/>
+      <c r="I106" s="194"/>
+      <c r="J106" s="194"/>
+      <c r="K106" s="194"/>
+      <c r="L106" s="194"/>
+      <c r="M106" s="194"/>
+      <c r="N106" s="194"/>
+      <c r="O106" s="194"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6744,23 +6744,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="182" t="s">
+      <c r="A108" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="182"/>
-      <c r="C108" s="182"/>
-      <c r="D108" s="182"/>
-      <c r="E108" s="182"/>
-      <c r="F108" s="182"/>
-      <c r="G108" s="182"/>
-      <c r="H108" s="182"/>
-      <c r="I108" s="182"/>
-      <c r="J108" s="182"/>
-      <c r="K108" s="182"/>
-      <c r="L108" s="182"/>
-      <c r="M108" s="182"/>
-      <c r="N108" s="182"/>
-      <c r="O108" s="182"/>
+      <c r="B108" s="211"/>
+      <c r="C108" s="211"/>
+      <c r="D108" s="211"/>
+      <c r="E108" s="211"/>
+      <c r="F108" s="211"/>
+      <c r="G108" s="211"/>
+      <c r="H108" s="211"/>
+      <c r="I108" s="211"/>
+      <c r="J108" s="211"/>
+      <c r="K108" s="211"/>
+      <c r="L108" s="211"/>
+      <c r="M108" s="211"/>
+      <c r="N108" s="211"/>
+      <c r="O108" s="211"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6883,38 +6883,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="193" t="s">
+      <c r="A115" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="194" t="s">
+      <c r="B115" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="194"/>
-      <c r="D115" s="194"/>
-      <c r="E115" s="195" t="s">
+      <c r="C115" s="203"/>
+      <c r="D115" s="203"/>
+      <c r="E115" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="195" t="s">
+      <c r="F115" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="186" t="s">
+      <c r="G115" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="183" t="s">
+      <c r="H115" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="184"/>
-      <c r="J115" s="184"/>
-      <c r="K115" s="184"/>
-      <c r="L115" s="184"/>
-      <c r="M115" s="184"/>
-      <c r="N115" s="185"/>
-      <c r="O115" s="186" t="s">
+      <c r="I115" s="209"/>
+      <c r="J115" s="209"/>
+      <c r="K115" s="209"/>
+      <c r="L115" s="209"/>
+      <c r="M115" s="209"/>
+      <c r="N115" s="210"/>
+      <c r="O115" s="206" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="187"/>
+      <c r="A116" s="202"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6924,9 +6924,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="196"/>
-      <c r="F116" s="197"/>
-      <c r="G116" s="187"/>
+      <c r="E116" s="205"/>
+      <c r="F116" s="207"/>
+      <c r="G116" s="202"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6948,7 +6948,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="187"/>
+      <c r="O116" s="202"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7077,14 +7077,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="188" t="s">
+      <c r="A122" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="189"/>
-      <c r="C122" s="189"/>
-      <c r="D122" s="189"/>
-      <c r="E122" s="189"/>
-      <c r="F122" s="190"/>
+      <c r="B122" s="199"/>
+      <c r="C122" s="199"/>
+      <c r="D122" s="199"/>
+      <c r="E122" s="199"/>
+      <c r="F122" s="200"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7127,6 +7127,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="H115:N115"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A106:O106"/>
     <mergeCell ref="A45:F45"/>
@@ -7143,34 +7171,6 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="H115:N115"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7207,21 +7207,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7331,56 +7331,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="220" t="s">
+      <c r="C9" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="232" t="s">
+      <c r="D9" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="220" t="s">
+      <c r="E9" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="220" t="s">
+      <c r="F9" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="220" t="s">
+      <c r="G9" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="220" t="s">
+      <c r="H9" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="218" t="s">
+      <c r="I9" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="220" t="s">
+      <c r="J9" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="220" t="s">
+      <c r="K9" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="220" t="s">
+      <c r="L9" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="222" t="s">
+      <c r="M9" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="223"/>
+      <c r="N9" s="241"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="231"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7809,44 +7809,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="224" t="s">
+      <c r="B31" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="226"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="244"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="227"/>
-      <c r="K31" s="228"/>
-      <c r="L31" s="228"/>
-      <c r="M31" s="228"/>
-      <c r="N31" s="229"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="246"/>
+      <c r="L31" s="246"/>
+      <c r="M31" s="246"/>
+      <c r="N31" s="247"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="211"/>
+      <c r="K35" s="211"/>
+      <c r="L35" s="211"/>
+      <c r="M35" s="211"/>
+      <c r="N35" s="211"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7956,56 +7956,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="230" t="s">
+      <c r="B42" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="220" t="s">
+      <c r="C42" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="232" t="s">
+      <c r="D42" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="220" t="s">
+      <c r="E42" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="220" t="s">
+      <c r="F42" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="220" t="s">
+      <c r="G42" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="220" t="s">
+      <c r="H42" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="218" t="s">
+      <c r="I42" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="220" t="s">
+      <c r="J42" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="220" t="s">
+      <c r="K42" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="220" t="s">
+      <c r="L42" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="222" t="s">
+      <c r="M42" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="223"/>
+      <c r="N42" s="241"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="231"/>
-      <c r="C43" s="221"/>
-      <c r="D43" s="233"/>
-      <c r="E43" s="221"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="221"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="237"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="235"/>
+      <c r="G43" s="235"/>
+      <c r="H43" s="235"/>
+      <c r="I43" s="239"/>
+      <c r="J43" s="235"/>
+      <c r="K43" s="235"/>
+      <c r="L43" s="235"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -8014,24 +8014,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="235"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="236"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
+      <c r="G44" s="249"/>
+      <c r="H44" s="250"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="237"/>
-      <c r="K44" s="238"/>
-      <c r="L44" s="238"/>
-      <c r="M44" s="238"/>
-      <c r="N44" s="239"/>
+      <c r="J44" s="251"/>
+      <c r="K44" s="252"/>
+      <c r="L44" s="252"/>
+      <c r="M44" s="252"/>
+      <c r="N44" s="253"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8395,44 +8395,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="224" t="s">
+      <c r="B63" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="225"/>
-      <c r="D63" s="225"/>
-      <c r="E63" s="225"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="225"/>
-      <c r="H63" s="226"/>
+      <c r="C63" s="243"/>
+      <c r="D63" s="243"/>
+      <c r="E63" s="243"/>
+      <c r="F63" s="243"/>
+      <c r="G63" s="243"/>
+      <c r="H63" s="244"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="227"/>
-      <c r="K63" s="228"/>
-      <c r="L63" s="228"/>
-      <c r="M63" s="228"/>
-      <c r="N63" s="229"/>
+      <c r="J63" s="245"/>
+      <c r="K63" s="246"/>
+      <c r="L63" s="246"/>
+      <c r="M63" s="246"/>
+      <c r="N63" s="247"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="182" t="s">
+      <c r="B67" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="182"/>
-      <c r="D67" s="182"/>
-      <c r="E67" s="182"/>
-      <c r="F67" s="182"/>
-      <c r="G67" s="182"/>
-      <c r="H67" s="182"/>
-      <c r="I67" s="182"/>
-      <c r="J67" s="182"/>
-      <c r="K67" s="182"/>
-      <c r="L67" s="182"/>
-      <c r="M67" s="182"/>
-      <c r="N67" s="182"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="211"/>
+      <c r="E67" s="211"/>
+      <c r="F67" s="211"/>
+      <c r="G67" s="211"/>
+      <c r="H67" s="211"/>
+      <c r="I67" s="211"/>
+      <c r="J67" s="211"/>
+      <c r="K67" s="211"/>
+      <c r="L67" s="211"/>
+      <c r="M67" s="211"/>
+      <c r="N67" s="211"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8542,56 +8542,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="230" t="s">
+      <c r="B74" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="220" t="s">
+      <c r="C74" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="232" t="s">
+      <c r="D74" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="220" t="s">
+      <c r="E74" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="220" t="s">
+      <c r="F74" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="220" t="s">
+      <c r="G74" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="220" t="s">
+      <c r="H74" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="218" t="s">
+      <c r="I74" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="220" t="s">
+      <c r="J74" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="220" t="s">
+      <c r="K74" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="220" t="s">
+      <c r="L74" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="222" t="s">
+      <c r="M74" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="223"/>
+      <c r="N74" s="241"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="231"/>
-      <c r="C75" s="221"/>
-      <c r="D75" s="233"/>
-      <c r="E75" s="221"/>
-      <c r="F75" s="221"/>
-      <c r="G75" s="221"/>
-      <c r="H75" s="221"/>
-      <c r="I75" s="219"/>
-      <c r="J75" s="221"/>
-      <c r="K75" s="221"/>
-      <c r="L75" s="221"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="235"/>
+      <c r="D75" s="237"/>
+      <c r="E75" s="235"/>
+      <c r="F75" s="235"/>
+      <c r="G75" s="235"/>
+      <c r="H75" s="235"/>
+      <c r="I75" s="239"/>
+      <c r="J75" s="235"/>
+      <c r="K75" s="235"/>
+      <c r="L75" s="235"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8600,24 +8600,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="234" t="s">
+      <c r="B76" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="235"/>
-      <c r="D76" s="235"/>
-      <c r="E76" s="235"/>
-      <c r="F76" s="235"/>
-      <c r="G76" s="235"/>
-      <c r="H76" s="236"/>
+      <c r="C76" s="249"/>
+      <c r="D76" s="249"/>
+      <c r="E76" s="249"/>
+      <c r="F76" s="249"/>
+      <c r="G76" s="249"/>
+      <c r="H76" s="250"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="237"/>
-      <c r="K76" s="238"/>
-      <c r="L76" s="238"/>
-      <c r="M76" s="238"/>
-      <c r="N76" s="239"/>
+      <c r="J76" s="251"/>
+      <c r="K76" s="252"/>
+      <c r="L76" s="252"/>
+      <c r="M76" s="252"/>
+      <c r="N76" s="253"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -9060,44 +9060,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="224" t="s">
+      <c r="B97" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="225"/>
-      <c r="D97" s="225"/>
-      <c r="E97" s="225"/>
-      <c r="F97" s="225"/>
-      <c r="G97" s="225"/>
-      <c r="H97" s="226"/>
+      <c r="C97" s="243"/>
+      <c r="D97" s="243"/>
+      <c r="E97" s="243"/>
+      <c r="F97" s="243"/>
+      <c r="G97" s="243"/>
+      <c r="H97" s="244"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="227"/>
-      <c r="K97" s="228"/>
-      <c r="L97" s="228"/>
-      <c r="M97" s="228"/>
-      <c r="N97" s="229"/>
+      <c r="J97" s="245"/>
+      <c r="K97" s="246"/>
+      <c r="L97" s="246"/>
+      <c r="M97" s="246"/>
+      <c r="N97" s="247"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="182" t="s">
+      <c r="B101" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="182"/>
-      <c r="D101" s="182"/>
-      <c r="E101" s="182"/>
-      <c r="F101" s="182"/>
-      <c r="G101" s="182"/>
-      <c r="H101" s="182"/>
-      <c r="I101" s="182"/>
-      <c r="J101" s="182"/>
-      <c r="K101" s="182"/>
-      <c r="L101" s="182"/>
-      <c r="M101" s="182"/>
-      <c r="N101" s="182"/>
+      <c r="C101" s="211"/>
+      <c r="D101" s="211"/>
+      <c r="E101" s="211"/>
+      <c r="F101" s="211"/>
+      <c r="G101" s="211"/>
+      <c r="H101" s="211"/>
+      <c r="I101" s="211"/>
+      <c r="J101" s="211"/>
+      <c r="K101" s="211"/>
+      <c r="L101" s="211"/>
+      <c r="M101" s="211"/>
+      <c r="N101" s="211"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9207,56 +9207,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="230" t="s">
+      <c r="B108" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="220" t="s">
+      <c r="C108" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="232" t="s">
+      <c r="D108" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="220" t="s">
+      <c r="E108" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="220" t="s">
+      <c r="F108" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="220" t="s">
+      <c r="G108" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="220" t="s">
+      <c r="H108" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="218" t="s">
+      <c r="I108" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="220" t="s">
+      <c r="J108" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="220" t="s">
+      <c r="K108" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="220" t="s">
+      <c r="L108" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="222" t="s">
+      <c r="M108" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="223"/>
+      <c r="N108" s="241"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="231"/>
-      <c r="C109" s="221"/>
-      <c r="D109" s="233"/>
-      <c r="E109" s="221"/>
-      <c r="F109" s="221"/>
-      <c r="G109" s="221"/>
-      <c r="H109" s="221"/>
-      <c r="I109" s="219"/>
-      <c r="J109" s="221"/>
-      <c r="K109" s="221"/>
-      <c r="L109" s="221"/>
+      <c r="B109" s="233"/>
+      <c r="C109" s="235"/>
+      <c r="D109" s="237"/>
+      <c r="E109" s="235"/>
+      <c r="F109" s="235"/>
+      <c r="G109" s="235"/>
+      <c r="H109" s="235"/>
+      <c r="I109" s="239"/>
+      <c r="J109" s="235"/>
+      <c r="K109" s="235"/>
+      <c r="L109" s="235"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9265,24 +9265,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="234" t="s">
+      <c r="B110" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="235"/>
-      <c r="D110" s="235"/>
-      <c r="E110" s="235"/>
-      <c r="F110" s="235"/>
-      <c r="G110" s="235"/>
-      <c r="H110" s="236"/>
+      <c r="C110" s="249"/>
+      <c r="D110" s="249"/>
+      <c r="E110" s="249"/>
+      <c r="F110" s="249"/>
+      <c r="G110" s="249"/>
+      <c r="H110" s="250"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="237"/>
-      <c r="K110" s="238"/>
-      <c r="L110" s="238"/>
-      <c r="M110" s="238"/>
-      <c r="N110" s="239"/>
+      <c r="J110" s="251"/>
+      <c r="K110" s="252"/>
+      <c r="L110" s="252"/>
+      <c r="M110" s="252"/>
+      <c r="N110" s="253"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9652,44 +9652,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="224" t="s">
+      <c r="B130" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="225"/>
-      <c r="D130" s="225"/>
-      <c r="E130" s="225"/>
-      <c r="F130" s="225"/>
-      <c r="G130" s="225"/>
-      <c r="H130" s="226"/>
+      <c r="C130" s="243"/>
+      <c r="D130" s="243"/>
+      <c r="E130" s="243"/>
+      <c r="F130" s="243"/>
+      <c r="G130" s="243"/>
+      <c r="H130" s="244"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="227"/>
-      <c r="K130" s="228"/>
-      <c r="L130" s="228"/>
-      <c r="M130" s="228"/>
-      <c r="N130" s="229"/>
+      <c r="J130" s="245"/>
+      <c r="K130" s="246"/>
+      <c r="L130" s="246"/>
+      <c r="M130" s="246"/>
+      <c r="N130" s="247"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="182" t="s">
+      <c r="B134" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="182"/>
-      <c r="D134" s="182"/>
-      <c r="E134" s="182"/>
-      <c r="F134" s="182"/>
-      <c r="G134" s="182"/>
-      <c r="H134" s="182"/>
-      <c r="I134" s="182"/>
-      <c r="J134" s="182"/>
-      <c r="K134" s="182"/>
-      <c r="L134" s="182"/>
-      <c r="M134" s="182"/>
-      <c r="N134" s="182"/>
+      <c r="C134" s="211"/>
+      <c r="D134" s="211"/>
+      <c r="E134" s="211"/>
+      <c r="F134" s="211"/>
+      <c r="G134" s="211"/>
+      <c r="H134" s="211"/>
+      <c r="I134" s="211"/>
+      <c r="J134" s="211"/>
+      <c r="K134" s="211"/>
+      <c r="L134" s="211"/>
+      <c r="M134" s="211"/>
+      <c r="N134" s="211"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9799,56 +9799,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="230" t="s">
+      <c r="B141" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="220" t="s">
+      <c r="C141" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="232" t="s">
+      <c r="D141" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="220" t="s">
+      <c r="E141" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="220" t="s">
+      <c r="F141" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="220" t="s">
+      <c r="G141" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="220" t="s">
+      <c r="H141" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="218" t="s">
+      <c r="I141" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="220" t="s">
+      <c r="J141" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="220" t="s">
+      <c r="K141" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="220" t="s">
+      <c r="L141" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="222" t="s">
+      <c r="M141" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="223"/>
+      <c r="N141" s="241"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="231"/>
-      <c r="C142" s="221"/>
-      <c r="D142" s="233"/>
-      <c r="E142" s="221"/>
-      <c r="F142" s="221"/>
-      <c r="G142" s="221"/>
-      <c r="H142" s="221"/>
-      <c r="I142" s="219"/>
-      <c r="J142" s="221"/>
-      <c r="K142" s="221"/>
-      <c r="L142" s="221"/>
+      <c r="B142" s="233"/>
+      <c r="C142" s="235"/>
+      <c r="D142" s="237"/>
+      <c r="E142" s="235"/>
+      <c r="F142" s="235"/>
+      <c r="G142" s="235"/>
+      <c r="H142" s="235"/>
+      <c r="I142" s="239"/>
+      <c r="J142" s="235"/>
+      <c r="K142" s="235"/>
+      <c r="L142" s="235"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9857,24 +9857,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="234" t="s">
+      <c r="B143" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="235"/>
-      <c r="D143" s="235"/>
-      <c r="E143" s="235"/>
-      <c r="F143" s="235"/>
-      <c r="G143" s="235"/>
-      <c r="H143" s="236"/>
+      <c r="C143" s="249"/>
+      <c r="D143" s="249"/>
+      <c r="E143" s="249"/>
+      <c r="F143" s="249"/>
+      <c r="G143" s="249"/>
+      <c r="H143" s="250"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="237"/>
-      <c r="K143" s="238"/>
-      <c r="L143" s="238"/>
-      <c r="M143" s="238"/>
-      <c r="N143" s="239"/>
+      <c r="J143" s="251"/>
+      <c r="K143" s="252"/>
+      <c r="L143" s="252"/>
+      <c r="M143" s="252"/>
+      <c r="N143" s="253"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10200,44 +10200,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="224" t="s">
+      <c r="B161" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="225"/>
-      <c r="D161" s="225"/>
-      <c r="E161" s="225"/>
-      <c r="F161" s="225"/>
-      <c r="G161" s="225"/>
-      <c r="H161" s="226"/>
+      <c r="C161" s="243"/>
+      <c r="D161" s="243"/>
+      <c r="E161" s="243"/>
+      <c r="F161" s="243"/>
+      <c r="G161" s="243"/>
+      <c r="H161" s="244"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="227"/>
-      <c r="K161" s="228"/>
-      <c r="L161" s="228"/>
-      <c r="M161" s="228"/>
-      <c r="N161" s="229"/>
+      <c r="J161" s="245"/>
+      <c r="K161" s="246"/>
+      <c r="L161" s="246"/>
+      <c r="M161" s="246"/>
+      <c r="N161" s="247"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="182" t="s">
+      <c r="B165" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="182"/>
-      <c r="D165" s="182"/>
-      <c r="E165" s="182"/>
-      <c r="F165" s="182"/>
-      <c r="G165" s="182"/>
-      <c r="H165" s="182"/>
-      <c r="I165" s="182"/>
-      <c r="J165" s="182"/>
-      <c r="K165" s="182"/>
-      <c r="L165" s="182"/>
-      <c r="M165" s="182"/>
-      <c r="N165" s="182"/>
+      <c r="C165" s="211"/>
+      <c r="D165" s="211"/>
+      <c r="E165" s="211"/>
+      <c r="F165" s="211"/>
+      <c r="G165" s="211"/>
+      <c r="H165" s="211"/>
+      <c r="I165" s="211"/>
+      <c r="J165" s="211"/>
+      <c r="K165" s="211"/>
+      <c r="L165" s="211"/>
+      <c r="M165" s="211"/>
+      <c r="N165" s="211"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10347,56 +10347,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="230" t="s">
+      <c r="B172" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="220" t="s">
+      <c r="C172" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="232" t="s">
+      <c r="D172" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="220" t="s">
+      <c r="E172" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="220" t="s">
+      <c r="F172" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="220" t="s">
+      <c r="G172" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="220" t="s">
+      <c r="H172" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="218" t="s">
+      <c r="I172" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="220" t="s">
+      <c r="J172" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="220" t="s">
+      <c r="K172" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="220" t="s">
+      <c r="L172" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="222" t="s">
+      <c r="M172" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="223"/>
+      <c r="N172" s="241"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="231"/>
-      <c r="C173" s="221"/>
-      <c r="D173" s="233"/>
-      <c r="E173" s="221"/>
-      <c r="F173" s="221"/>
-      <c r="G173" s="221"/>
-      <c r="H173" s="221"/>
-      <c r="I173" s="219"/>
-      <c r="J173" s="221"/>
-      <c r="K173" s="221"/>
-      <c r="L173" s="221"/>
+      <c r="B173" s="233"/>
+      <c r="C173" s="235"/>
+      <c r="D173" s="237"/>
+      <c r="E173" s="235"/>
+      <c r="F173" s="235"/>
+      <c r="G173" s="235"/>
+      <c r="H173" s="235"/>
+      <c r="I173" s="239"/>
+      <c r="J173" s="235"/>
+      <c r="K173" s="235"/>
+      <c r="L173" s="235"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10405,24 +10405,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="234" t="s">
+      <c r="B174" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="235"/>
-      <c r="D174" s="235"/>
-      <c r="E174" s="235"/>
-      <c r="F174" s="235"/>
-      <c r="G174" s="235"/>
-      <c r="H174" s="236"/>
+      <c r="C174" s="249"/>
+      <c r="D174" s="249"/>
+      <c r="E174" s="249"/>
+      <c r="F174" s="249"/>
+      <c r="G174" s="249"/>
+      <c r="H174" s="250"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="237"/>
-      <c r="K174" s="238"/>
-      <c r="L174" s="238"/>
-      <c r="M174" s="238"/>
-      <c r="N174" s="239"/>
+      <c r="J174" s="251"/>
+      <c r="K174" s="252"/>
+      <c r="L174" s="252"/>
+      <c r="M174" s="252"/>
+      <c r="N174" s="253"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10488,31 +10488,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="234" t="s">
+      <c r="B178" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="235"/>
-      <c r="D178" s="235"/>
-      <c r="E178" s="235"/>
-      <c r="F178" s="235"/>
-      <c r="G178" s="235"/>
-      <c r="H178" s="236"/>
+      <c r="C178" s="249"/>
+      <c r="D178" s="249"/>
+      <c r="E178" s="249"/>
+      <c r="F178" s="249"/>
+      <c r="G178" s="249"/>
+      <c r="H178" s="250"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="237"/>
-      <c r="K178" s="238"/>
-      <c r="L178" s="238"/>
-      <c r="M178" s="238"/>
-      <c r="N178" s="239"/>
+      <c r="J178" s="251"/>
+      <c r="K178" s="252"/>
+      <c r="L178" s="252"/>
+      <c r="M178" s="252"/>
+      <c r="N178" s="253"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="217" t="s">
+      <c r="M180" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="217"/>
+      <c r="N180" s="254"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10529,90 +10529,6 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -10630,6 +10546,90 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -11614,42 +11614,42 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11669,23 +11669,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11808,15 +11808,15 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="208" t="s">
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="168" t="s">
@@ -11825,21 +11825,21 @@
       <c r="G12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="210" t="s">
+      <c r="H12" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="212" t="s">
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="222"/>
+      <c r="N12" s="222"/>
+      <c r="O12" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -11849,7 +11849,7 @@
       <c r="D13" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="209"/>
+      <c r="E13" s="220"/>
       <c r="F13" s="170"/>
       <c r="G13" s="171"/>
       <c r="H13" s="160" t="s">
@@ -11873,7 +11873,7 @@
       <c r="N13" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="O13" s="213"/>
+      <c r="O13" s="224"/>
       <c r="P13" s="166" t="s">
         <v>607</v>
       </c>
@@ -24184,14 +24184,14 @@
       <c r="Q266" s="172"/>
     </row>
     <row r="267" spans="1:17" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="188" t="s">
+      <c r="A267" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B267" s="189"/>
-      <c r="C267" s="189"/>
-      <c r="D267" s="189"/>
-      <c r="E267" s="189"/>
-      <c r="F267" s="190"/>
+      <c r="B267" s="199"/>
+      <c r="C267" s="199"/>
+      <c r="D267" s="199"/>
+      <c r="E267" s="199"/>
+      <c r="F267" s="200"/>
       <c r="G267" s="150">
         <f t="shared" ref="G267:N267" si="8">SUM(G14:G266)</f>
         <v>1102623.47</v>
@@ -24275,8 +24275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B28" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24285,7 +24285,7 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="247" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="183" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
@@ -24300,41 +24300,41 @@
       <c r="F2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
     </row>
     <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="117"/>
       <c r="D5" s="139"/>
-      <c r="E5" s="248"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="3"/>
       <c r="G5" s="26"/>
       <c r="H5" s="3"/>
@@ -24343,26 +24343,26 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="117"/>
       <c r="D7" s="139"/>
-      <c r="E7" s="248"/>
+      <c r="E7" s="184"/>
       <c r="F7" s="3"/>
       <c r="G7" s="26"/>
       <c r="H7" s="3"/>
@@ -24381,7 +24381,7 @@
       <c r="D8" s="140" t="s">
         <v>616</v>
       </c>
-      <c r="E8" s="249"/>
+      <c r="E8" s="185"/>
       <c r="F8" s="134"/>
       <c r="G8" s="27"/>
       <c r="H8" s="5"/>
@@ -24390,55 +24390,55 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="240"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="241" t="s">
+      <c r="D9" s="227" t="s">
         <v>613</v>
       </c>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="227"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="240"/>
-      <c r="C10" s="242" t="s">
+      <c r="B10" s="226"/>
+      <c r="C10" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="241" t="s">
+      <c r="D10" s="227" t="s">
         <v>614</v>
       </c>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="227"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="243" t="s">
+      <c r="A11" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="242" t="s">
+      <c r="B11" s="228"/>
+      <c r="C11" s="182" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="E11" s="249"/>
+      <c r="E11" s="185"/>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -24451,7 +24451,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="118"/>
       <c r="D12" s="142"/>
-      <c r="E12" s="249"/>
+      <c r="E12" s="185"/>
       <c r="F12" s="134"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -24462,32 +24462,32 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="206"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="208" t="s">
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="244" t="s">
+      <c r="F13" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="212" t="s">
+      <c r="G13" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="212" t="s">
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
+      <c r="K13" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="205"/>
+      <c r="A14" s="216"/>
       <c r="B14" s="158" t="s">
         <v>14</v>
       </c>
@@ -24497,9 +24497,9 @@
       <c r="D14" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="246"/>
-      <c r="F14" s="245"/>
-      <c r="G14" s="205"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="216"/>
       <c r="H14" s="160" t="s">
         <v>206</v>
       </c>
@@ -24509,7 +24509,7 @@
       <c r="J14" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="205"/>
+      <c r="K14" s="216"/>
     </row>
     <row r="15" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="121">
@@ -24524,7 +24524,7 @@
       <c r="D15" s="127">
         <v>94</v>
       </c>
-      <c r="E15" s="250">
+      <c r="E15" s="186">
         <v>1920</v>
       </c>
       <c r="F15" s="131">
@@ -24559,7 +24559,7 @@
       <c r="D16" s="127">
         <v>94</v>
       </c>
-      <c r="E16" s="250">
+      <c r="E16" s="186">
         <v>1921</v>
       </c>
       <c r="F16" s="131">
@@ -24594,7 +24594,7 @@
       <c r="D17" s="127">
         <v>94</v>
       </c>
-      <c r="E17" s="250">
+      <c r="E17" s="186">
         <v>1919</v>
       </c>
       <c r="F17" s="131">
@@ -24629,7 +24629,7 @@
       <c r="D18" s="127">
         <v>94</v>
       </c>
-      <c r="E18" s="250">
+      <c r="E18" s="186">
         <v>1924</v>
       </c>
       <c r="F18" s="131">
@@ -24664,7 +24664,7 @@
       <c r="D19" s="127">
         <v>94</v>
       </c>
-      <c r="E19" s="250">
+      <c r="E19" s="186">
         <v>1926</v>
       </c>
       <c r="F19" s="131">
@@ -24699,7 +24699,7 @@
       <c r="D20" s="127">
         <v>94</v>
       </c>
-      <c r="E20" s="250">
+      <c r="E20" s="186">
         <v>2074</v>
       </c>
       <c r="F20" s="131">
@@ -24734,7 +24734,7 @@
       <c r="D21" s="127">
         <v>220</v>
       </c>
-      <c r="E21" s="250">
+      <c r="E21" s="186">
         <v>2762</v>
       </c>
       <c r="F21" s="131">
@@ -24769,7 +24769,7 @@
       <c r="D22" s="127">
         <v>220</v>
       </c>
-      <c r="E22" s="250">
+      <c r="E22" s="186">
         <v>2764</v>
       </c>
       <c r="F22" s="131">
@@ -24804,7 +24804,7 @@
       <c r="D23" s="127">
         <v>220</v>
       </c>
-      <c r="E23" s="250">
+      <c r="E23" s="186">
         <v>2766</v>
       </c>
       <c r="F23" s="131">
@@ -24839,7 +24839,7 @@
       <c r="D24" s="127">
         <v>220</v>
       </c>
-      <c r="E24" s="250">
+      <c r="E24" s="186">
         <v>2768</v>
       </c>
       <c r="F24" s="131">
@@ -24874,10 +24874,10 @@
       <c r="D25" s="162">
         <v>220</v>
       </c>
-      <c r="E25" s="252">
+      <c r="E25" s="188">
         <v>2770</v>
       </c>
-      <c r="F25" s="253">
+      <c r="F25" s="189">
         <v>1259</v>
       </c>
       <c r="G25" s="163">
@@ -24897,27 +24897,27 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="254">
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="190">
         <f>SUM(G15:G25)</f>
         <v>12733.33</v>
       </c>
-      <c r="H26" s="254">
+      <c r="H26" s="190">
         <f t="shared" ref="H26:J26" si="0">SUM(H15:H25)</f>
         <v>12733.33</v>
       </c>
-      <c r="I26" s="254">
+      <c r="I26" s="190">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="254">
+      <c r="J26" s="190">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24929,41 +24929,41 @@
       <c r="F27" s="133"/>
     </row>
     <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="191"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="193"/>
     </row>
     <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A29" s="192" t="s">
+      <c r="A29" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="192"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="117"/>
       <c r="D30" s="139"/>
-      <c r="E30" s="248"/>
+      <c r="E30" s="184"/>
       <c r="F30" s="3"/>
       <c r="G30" s="26"/>
       <c r="H30" s="3"/>
@@ -24972,26 +24972,26 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="182" t="s">
+      <c r="A31" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="211"/>
+      <c r="K31" s="211"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="117"/>
       <c r="D32" s="139"/>
-      <c r="E32" s="248"/>
+      <c r="E32" s="184"/>
       <c r="F32" s="3"/>
       <c r="G32" s="26"/>
       <c r="H32" s="3"/>
@@ -25010,7 +25010,7 @@
       <c r="D33" s="140" t="s">
         <v>616</v>
       </c>
-      <c r="E33" s="249"/>
+      <c r="E33" s="185"/>
       <c r="F33" s="134"/>
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
@@ -25019,55 +25019,55 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="240" t="s">
+      <c r="A34" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="240"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="241" t="s">
+      <c r="D34" s="227" t="s">
         <v>613</v>
       </c>
-      <c r="E34" s="241"/>
-      <c r="F34" s="241"/>
-      <c r="G34" s="241"/>
-      <c r="H34" s="241"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="241"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="227"/>
+      <c r="J34" s="227"/>
+      <c r="K34" s="227"/>
     </row>
     <row r="35" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="240" t="s">
+      <c r="A35" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="240"/>
-      <c r="C35" s="242" t="s">
+      <c r="B35" s="226"/>
+      <c r="C35" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="241" t="s">
+      <c r="D35" s="227" t="s">
         <v>614</v>
       </c>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="241"/>
-      <c r="K35" s="241"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="227"/>
+      <c r="G35" s="227"/>
+      <c r="H35" s="227"/>
+      <c r="I35" s="227"/>
+      <c r="J35" s="227"/>
+      <c r="K35" s="227"/>
     </row>
     <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="243" t="s">
+      <c r="A36" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="243"/>
-      <c r="C36" s="242" t="s">
+      <c r="B36" s="228"/>
+      <c r="C36" s="182" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="E36" s="249"/>
+      <c r="E36" s="185"/>
       <c r="F36" s="1"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -25080,7 +25080,7 @@
       <c r="B37" s="9"/>
       <c r="C37" s="118"/>
       <c r="D37" s="142"/>
-      <c r="E37" s="249"/>
+      <c r="E37" s="185"/>
       <c r="F37" s="134"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -25091,32 +25091,32 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="204" t="s">
+      <c r="A38" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="206" t="s">
+      <c r="B38" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="206"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="208" t="s">
+      <c r="C38" s="217"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="244" t="s">
+      <c r="F38" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="212" t="s">
+      <c r="G38" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="211"/>
-      <c r="K38" s="212" t="s">
+      <c r="H38" s="222"/>
+      <c r="I38" s="222"/>
+      <c r="J38" s="222"/>
+      <c r="K38" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="205"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="158" t="s">
         <v>14</v>
       </c>
@@ -25126,9 +25126,9 @@
       <c r="D39" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="246"/>
-      <c r="F39" s="245"/>
-      <c r="G39" s="205"/>
+      <c r="E39" s="225"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="216"/>
       <c r="H39" s="160" t="s">
         <v>206</v>
       </c>
@@ -25138,30 +25138,30 @@
       <c r="J39" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="205"/>
+      <c r="K39" s="216"/>
     </row>
     <row r="40" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="198" t="s">
         <v>617</v>
       </c>
-      <c r="B40" s="189"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="254">
+      <c r="B40" s="199"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="190">
         <f>G26</f>
         <v>12733.33</v>
       </c>
-      <c r="H40" s="254">
+      <c r="H40" s="190">
         <f t="shared" ref="H40:J40" si="1">H26</f>
         <v>12733.33</v>
       </c>
-      <c r="I40" s="254">
+      <c r="I40" s="190">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="254">
+      <c r="J40" s="190">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -25180,7 +25180,7 @@
       <c r="D41" s="127">
         <v>943</v>
       </c>
-      <c r="E41" s="251">
+      <c r="E41" s="187">
         <v>963211613</v>
       </c>
       <c r="F41" s="129">
@@ -25211,7 +25211,7 @@
       <c r="D42" s="127">
         <v>1104</v>
       </c>
-      <c r="E42" s="251">
+      <c r="E42" s="187">
         <v>963211613</v>
       </c>
       <c r="F42" s="129">
@@ -25246,7 +25246,7 @@
       <c r="D43" s="127">
         <v>395</v>
       </c>
-      <c r="E43" s="250">
+      <c r="E43" s="186">
         <v>4957</v>
       </c>
       <c r="F43" s="131">
@@ -25281,7 +25281,7 @@
       <c r="D44" s="127">
         <v>395</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="186">
         <v>4959</v>
       </c>
       <c r="F44" s="131">
@@ -25316,7 +25316,7 @@
       <c r="D45" s="127">
         <v>395</v>
       </c>
-      <c r="E45" s="250">
+      <c r="E45" s="186">
         <v>4960</v>
       </c>
       <c r="F45" s="131">
@@ -25351,7 +25351,7 @@
       <c r="D46" s="127">
         <v>395</v>
       </c>
-      <c r="E46" s="250">
+      <c r="E46" s="186">
         <v>4963</v>
       </c>
       <c r="F46" s="131">
@@ -25421,7 +25421,7 @@
       <c r="D48" s="127">
         <v>575</v>
       </c>
-      <c r="E48" s="250">
+      <c r="E48" s="186">
         <v>7116</v>
       </c>
       <c r="F48" s="131">
@@ -25456,7 +25456,7 @@
       <c r="D49" s="127">
         <v>575</v>
       </c>
-      <c r="E49" s="250">
+      <c r="E49" s="186">
         <v>7118</v>
       </c>
       <c r="F49" s="131">
@@ -25491,7 +25491,7 @@
       <c r="D50" s="127">
         <v>575</v>
       </c>
-      <c r="E50" s="250">
+      <c r="E50" s="186">
         <v>7119</v>
       </c>
       <c r="F50" s="131">
@@ -25514,7 +25514,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="255">
+      <c r="A51" s="191">
         <v>22</v>
       </c>
       <c r="B51" s="146">
@@ -25526,10 +25526,10 @@
       <c r="D51" s="162">
         <v>575</v>
       </c>
-      <c r="E51" s="252">
+      <c r="E51" s="188">
         <v>7122</v>
       </c>
-      <c r="F51" s="253">
+      <c r="F51" s="189">
         <v>3401</v>
       </c>
       <c r="G51" s="163">
@@ -25549,68 +25549,68 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="188" t="s">
+      <c r="A52" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="189"/>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="254">
+      <c r="B52" s="199"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="190">
         <f>SUM(G40:G51)</f>
         <v>27098.23</v>
       </c>
-      <c r="H52" s="254">
+      <c r="H52" s="190">
         <f t="shared" ref="H52:J52" si="2">SUM(H40:H51)</f>
         <v>22543.33</v>
       </c>
-      <c r="I52" s="254">
-        <f t="shared" si="2"/>
+      <c r="I52" s="190">
+        <f>SUM(I40:I51)</f>
         <v>954.90000000000009</v>
       </c>
-      <c r="J52" s="254">
+      <c r="J52" s="190">
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="K52" s="19"/>
     </row>
     <row r="53" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="191" t="s">
+      <c r="A53" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="201"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="193"/>
+      <c r="D53" s="212"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="193"/>
+      <c r="G53" s="193"/>
+      <c r="H53" s="193"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="193"/>
+      <c r="K53" s="193"/>
     </row>
     <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A54" s="192" t="s">
+      <c r="A54" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="192"/>
-      <c r="C54" s="192"/>
-      <c r="D54" s="202"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="192"/>
-      <c r="H54" s="192"/>
-      <c r="I54" s="192"/>
-      <c r="J54" s="192"/>
-      <c r="K54" s="192"/>
+      <c r="B54" s="194"/>
+      <c r="C54" s="194"/>
+      <c r="D54" s="213"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="194"/>
+      <c r="I54" s="194"/>
+      <c r="J54" s="194"/>
+      <c r="K54" s="194"/>
     </row>
     <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="117"/>
       <c r="D55" s="139"/>
-      <c r="E55" s="248"/>
+      <c r="E55" s="184"/>
       <c r="F55" s="3"/>
       <c r="G55" s="26"/>
       <c r="H55" s="3"/>
@@ -25619,26 +25619,26 @@
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="182" t="s">
+      <c r="A56" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="182"/>
-      <c r="C56" s="182"/>
-      <c r="D56" s="203"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="182"/>
-      <c r="J56" s="182"/>
-      <c r="K56" s="182"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="211"/>
+      <c r="D56" s="214"/>
+      <c r="E56" s="211"/>
+      <c r="F56" s="211"/>
+      <c r="G56" s="211"/>
+      <c r="H56" s="211"/>
+      <c r="I56" s="211"/>
+      <c r="J56" s="211"/>
+      <c r="K56" s="211"/>
     </row>
     <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="117"/>
       <c r="D57" s="139"/>
-      <c r="E57" s="248"/>
+      <c r="E57" s="184"/>
       <c r="F57" s="3"/>
       <c r="G57" s="26"/>
       <c r="H57" s="3"/>
@@ -25657,7 +25657,7 @@
       <c r="D58" s="140" t="s">
         <v>616</v>
       </c>
-      <c r="E58" s="249"/>
+      <c r="E58" s="185"/>
       <c r="F58" s="134"/>
       <c r="G58" s="27"/>
       <c r="H58" s="5"/>
@@ -25666,55 +25666,55 @@
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="240" t="s">
+      <c r="A59" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="240"/>
+      <c r="B59" s="226"/>
       <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="241" t="s">
+      <c r="D59" s="227" t="s">
         <v>613</v>
       </c>
-      <c r="E59" s="241"/>
-      <c r="F59" s="241"/>
-      <c r="G59" s="241"/>
-      <c r="H59" s="241"/>
-      <c r="I59" s="241"/>
-      <c r="J59" s="241"/>
-      <c r="K59" s="241"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="227"/>
+      <c r="H59" s="227"/>
+      <c r="I59" s="227"/>
+      <c r="J59" s="227"/>
+      <c r="K59" s="227"/>
     </row>
     <row r="60" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="240" t="s">
+      <c r="A60" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="240"/>
-      <c r="C60" s="242" t="s">
+      <c r="B60" s="226"/>
+      <c r="C60" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="241" t="s">
+      <c r="D60" s="227" t="s">
         <v>614</v>
       </c>
-      <c r="E60" s="241"/>
-      <c r="F60" s="241"/>
-      <c r="G60" s="241"/>
-      <c r="H60" s="241"/>
-      <c r="I60" s="241"/>
-      <c r="J60" s="241"/>
-      <c r="K60" s="241"/>
+      <c r="E60" s="227"/>
+      <c r="F60" s="227"/>
+      <c r="G60" s="227"/>
+      <c r="H60" s="227"/>
+      <c r="I60" s="227"/>
+      <c r="J60" s="227"/>
+      <c r="K60" s="227"/>
     </row>
     <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="243" t="s">
+      <c r="A61" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="243"/>
-      <c r="C61" s="242" t="s">
+      <c r="B61" s="228"/>
+      <c r="C61" s="182" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="E61" s="249"/>
+      <c r="E61" s="185"/>
       <c r="F61" s="1"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -25727,7 +25727,7 @@
       <c r="B62" s="9"/>
       <c r="C62" s="118"/>
       <c r="D62" s="142"/>
-      <c r="E62" s="249"/>
+      <c r="E62" s="185"/>
       <c r="F62" s="134"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -25738,32 +25738,32 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="204" t="s">
+      <c r="A63" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="206" t="s">
+      <c r="B63" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="206"/>
-      <c r="D63" s="207"/>
-      <c r="E63" s="208" t="s">
+      <c r="C63" s="217"/>
+      <c r="D63" s="218"/>
+      <c r="E63" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="244" t="s">
+      <c r="F63" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="212" t="s">
+      <c r="G63" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="211"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="212" t="s">
+      <c r="H63" s="222"/>
+      <c r="I63" s="222"/>
+      <c r="J63" s="222"/>
+      <c r="K63" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="205"/>
+      <c r="A64" s="216"/>
       <c r="B64" s="158" t="s">
         <v>14</v>
       </c>
@@ -25773,9 +25773,9 @@
       <c r="D64" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="246"/>
-      <c r="F64" s="245"/>
-      <c r="G64" s="205"/>
+      <c r="E64" s="225"/>
+      <c r="F64" s="256"/>
+      <c r="G64" s="216"/>
       <c r="H64" s="160" t="s">
         <v>206</v>
       </c>
@@ -25785,30 +25785,30 @@
       <c r="J64" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="K64" s="205"/>
+      <c r="K64" s="216"/>
     </row>
     <row r="65" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="188" t="s">
+      <c r="A65" s="198" t="s">
         <v>617</v>
       </c>
-      <c r="B65" s="189"/>
-      <c r="C65" s="189"/>
-      <c r="D65" s="189"/>
-      <c r="E65" s="189"/>
-      <c r="F65" s="190"/>
-      <c r="G65" s="254">
+      <c r="B65" s="199"/>
+      <c r="C65" s="199"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="199"/>
+      <c r="F65" s="200"/>
+      <c r="G65" s="190">
         <f>G52</f>
         <v>27098.23</v>
       </c>
-      <c r="H65" s="254">
+      <c r="H65" s="190">
         <f t="shared" ref="H65:J65" si="3">H52</f>
         <v>22543.33</v>
       </c>
-      <c r="I65" s="254">
-        <f t="shared" si="3"/>
+      <c r="I65" s="190">
+        <f>I52</f>
         <v>954.90000000000009</v>
       </c>
-      <c r="J65" s="254">
+      <c r="J65" s="190">
         <f t="shared" si="3"/>
         <v>3600</v>
       </c>
@@ -25827,7 +25827,7 @@
       <c r="D66" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="250">
+      <c r="E66" s="186">
         <v>14407</v>
       </c>
       <c r="F66" s="131">
@@ -25862,7 +25862,7 @@
       <c r="D67" s="127">
         <v>3917</v>
       </c>
-      <c r="E67" s="250">
+      <c r="E67" s="186">
         <v>339</v>
       </c>
       <c r="F67" s="129">
@@ -25897,7 +25897,7 @@
       <c r="D68" s="127">
         <v>4114</v>
       </c>
-      <c r="E68" s="250">
+      <c r="E68" s="186">
         <v>1208</v>
       </c>
       <c r="F68" s="129">
@@ -25928,7 +25928,7 @@
       <c r="D69" s="127">
         <v>4114</v>
       </c>
-      <c r="E69" s="250">
+      <c r="E69" s="186">
         <v>1208</v>
       </c>
       <c r="F69" s="129">
@@ -25959,7 +25959,7 @@
       <c r="D70" s="127">
         <v>4114</v>
       </c>
-      <c r="E70" s="250">
+      <c r="E70" s="186">
         <v>1208</v>
       </c>
       <c r="F70" s="129">
@@ -25990,7 +25990,7 @@
       <c r="D71" s="127">
         <v>4114</v>
       </c>
-      <c r="E71" s="250">
+      <c r="E71" s="186">
         <v>1208</v>
       </c>
       <c r="F71" s="129">
@@ -26021,7 +26021,7 @@
       <c r="D72" s="127">
         <v>4114</v>
       </c>
-      <c r="E72" s="250">
+      <c r="E72" s="186">
         <v>1208</v>
       </c>
       <c r="F72" s="129">
@@ -26083,7 +26083,7 @@
         <v>178</v>
       </c>
       <c r="D74" s="127"/>
-      <c r="E74" s="250">
+      <c r="E74" s="186">
         <v>2041</v>
       </c>
       <c r="F74" s="129">
@@ -26106,14 +26106,14 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="214" t="s">
+      <c r="A75" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="215"/>
-      <c r="C75" s="215"/>
-      <c r="D75" s="215"/>
-      <c r="E75" s="215"/>
-      <c r="F75" s="216"/>
+      <c r="B75" s="230"/>
+      <c r="C75" s="230"/>
+      <c r="D75" s="230"/>
+      <c r="E75" s="230"/>
+      <c r="F75" s="231"/>
       <c r="G75" s="173">
         <f>SUM(G65:G74)</f>
         <v>27807.94</v>
@@ -26123,7 +26123,7 @@
         <v>22543.33</v>
       </c>
       <c r="I75" s="173">
-        <f t="shared" si="4"/>
+        <f>SUM(I65:I74)</f>
         <v>1529.2600000000002</v>
       </c>
       <c r="J75" s="173">
@@ -26133,12 +26133,46 @@
       <c r="K75" s="119"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K78" s="256" t="s">
+      <c r="K78" s="192" t="s">
         <v>618</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:K39"/>
     <mergeCell ref="H63:J63"/>
     <mergeCell ref="K63:K64"/>
     <mergeCell ref="A65:F65"/>
@@ -26155,40 +26189,6 @@
     <mergeCell ref="D59:K59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="D60:K60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.52" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -27170,30 +27170,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -27207,17 +27207,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -27304,15 +27304,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="208" t="s">
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="168" t="s">
@@ -27324,12 +27324,12 @@
       <c r="H12" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="212" t="s">
+      <c r="I12" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -27339,13 +27339,13 @@
       <c r="D13" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="209"/>
+      <c r="E13" s="220"/>
       <c r="F13" s="170"/>
       <c r="G13" s="171"/>
       <c r="H13" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="213"/>
+      <c r="I13" s="224"/>
       <c r="J13" s="166" t="s">
         <v>607</v>
       </c>
@@ -27390,14 +27390,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="190"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="200"/>
       <c r="G15" s="150">
         <f>SUM(G14:G14)</f>
         <v>5384.95</v>
@@ -28405,34 +28405,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -28448,19 +28448,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -28559,14 +28559,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -28584,7 +28584,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -37184,14 +37184,14 @@
       </c>
     </row>
     <row r="229" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="188" t="s">
+      <c r="A229" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B229" s="189"/>
-      <c r="C229" s="189"/>
-      <c r="D229" s="189"/>
-      <c r="E229" s="189"/>
-      <c r="F229" s="190"/>
+      <c r="B229" s="199"/>
+      <c r="C229" s="199"/>
+      <c r="D229" s="199"/>
+      <c r="E229" s="199"/>
+      <c r="F229" s="200"/>
       <c r="G229" s="150">
         <f>SUM(G14:G228)</f>
         <v>1069430.58</v>
@@ -38241,34 +38241,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -38284,19 +38284,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -38395,14 +38395,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -38420,7 +38420,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -41016,14 +41016,14 @@
       <c r="M184" s="172"/>
     </row>
     <row r="185" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="188" t="s">
+      <c r="A185" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B185" s="189"/>
-      <c r="C185" s="189"/>
-      <c r="D185" s="189"/>
-      <c r="E185" s="189"/>
-      <c r="F185" s="190"/>
+      <c r="B185" s="199"/>
+      <c r="C185" s="199"/>
+      <c r="D185" s="199"/>
+      <c r="E185" s="199"/>
+      <c r="F185" s="200"/>
       <c r="G185" s="150">
         <f>SUM(G14:G184)</f>
         <v>0</v>
@@ -42043,34 +42043,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -42086,19 +42086,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -42197,14 +42197,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -42222,7 +42222,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -44503,14 +44503,14 @@
       <c r="M163" s="172"/>
     </row>
     <row r="164" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="188" t="s">
+      <c r="A164" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="189"/>
-      <c r="C164" s="189"/>
-      <c r="D164" s="189"/>
-      <c r="E164" s="189"/>
-      <c r="F164" s="190"/>
+      <c r="B164" s="199"/>
+      <c r="C164" s="199"/>
+      <c r="D164" s="199"/>
+      <c r="E164" s="199"/>
+      <c r="F164" s="200"/>
       <c r="G164" s="150">
         <f>SUM(G14:G163)</f>
         <v>0</v>
@@ -45530,34 +45530,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -45573,19 +45573,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="211" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -45684,14 +45684,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -45709,7 +45709,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="205"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -48515,14 +48515,14 @@
       <c r="M198" s="172"/>
     </row>
     <row r="199" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="188" t="s">
+      <c r="A199" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B199" s="189"/>
-      <c r="C199" s="189"/>
-      <c r="D199" s="189"/>
-      <c r="E199" s="189"/>
-      <c r="F199" s="190"/>
+      <c r="B199" s="199"/>
+      <c r="C199" s="199"/>
+      <c r="D199" s="199"/>
+      <c r="E199" s="199"/>
+      <c r="F199" s="200"/>
       <c r="G199" s="150">
         <f>SUM(G14:G198)</f>
         <v>0</v>
@@ -48600,21 +48600,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -48632,21 +48632,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -48756,56 +48756,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="232" t="s">
+      <c r="D10" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="220" t="s">
+      <c r="E10" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="220" t="s">
+      <c r="F10" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="220" t="s">
+      <c r="G10" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="220" t="s">
+      <c r="H10" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="218" t="s">
+      <c r="I10" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="220" t="s">
+      <c r="J10" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="220" t="s">
+      <c r="K10" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="220" t="s">
+      <c r="L10" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="222" t="s">
+      <c r="M10" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="223"/>
+      <c r="N10" s="241"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="231"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="221"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="235"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -48940,31 +48940,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="224" t="s">
+      <c r="B18" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="226"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="244"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="227"/>
-      <c r="K18" s="228"/>
-      <c r="L18" s="228"/>
-      <c r="M18" s="228"/>
-      <c r="N18" s="229"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="246"/>
+      <c r="M18" s="246"/>
+      <c r="N18" s="247"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="217" t="s">
+      <c r="M20" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="217"/>
+      <c r="N20" s="254"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -48986,21 +48986,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -49018,21 +49018,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="182" t="s">
+      <c r="B25" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="211"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -49142,56 +49142,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="230" t="s">
+      <c r="B31" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="220" t="s">
+      <c r="C31" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="232" t="s">
+      <c r="D31" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="220" t="s">
+      <c r="E31" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="220" t="s">
+      <c r="F31" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="220" t="s">
+      <c r="G31" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="220" t="s">
+      <c r="H31" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="218" t="s">
+      <c r="I31" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="220" t="s">
+      <c r="J31" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="220" t="s">
+      <c r="K31" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="220" t="s">
+      <c r="L31" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="222" t="s">
+      <c r="M31" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="223"/>
+      <c r="N31" s="241"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="231"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="233"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="221"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="235"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -49285,31 +49285,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="234" t="s">
+      <c r="B38" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="235"/>
-      <c r="D38" s="235"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="235"/>
-      <c r="G38" s="235"/>
-      <c r="H38" s="236"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="249"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="250"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="237"/>
-      <c r="K38" s="238"/>
-      <c r="L38" s="238"/>
-      <c r="M38" s="238"/>
-      <c r="N38" s="239"/>
+      <c r="J38" s="251"/>
+      <c r="K38" s="252"/>
+      <c r="L38" s="252"/>
+      <c r="M38" s="252"/>
+      <c r="N38" s="253"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="217" t="s">
+      <c r="M40" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="217"/>
+      <c r="N40" s="254"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -49331,21 +49331,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="182" t="s">
+      <c r="B43" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="182"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="211"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="211"/>
+      <c r="J43" s="211"/>
+      <c r="K43" s="211"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="211"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -49363,21 +49363,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="182" t="s">
+      <c r="B45" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="182"/>
-      <c r="D45" s="182"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="182"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="182"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="182"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="211"/>
+      <c r="E45" s="211"/>
+      <c r="F45" s="211"/>
+      <c r="G45" s="211"/>
+      <c r="H45" s="211"/>
+      <c r="I45" s="211"/>
+      <c r="J45" s="211"/>
+      <c r="K45" s="211"/>
+      <c r="L45" s="211"/>
+      <c r="M45" s="211"/>
+      <c r="N45" s="211"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -49487,56 +49487,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="230" t="s">
+      <c r="B51" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="220" t="s">
+      <c r="C51" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="232" t="s">
+      <c r="D51" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="220" t="s">
+      <c r="E51" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="220" t="s">
+      <c r="F51" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="220" t="s">
+      <c r="G51" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="220" t="s">
+      <c r="H51" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="218" t="s">
+      <c r="I51" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="220" t="s">
+      <c r="J51" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="220" t="s">
+      <c r="K51" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="220" t="s">
+      <c r="L51" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="222" t="s">
+      <c r="M51" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="223"/>
+      <c r="N51" s="241"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="231"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="221"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="221"/>
-      <c r="H52" s="221"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="221"/>
-      <c r="K52" s="221"/>
-      <c r="L52" s="221"/>
+      <c r="B52" s="233"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="237"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="235"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="235"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="235"/>
+      <c r="K52" s="235"/>
+      <c r="L52" s="235"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -49613,31 +49613,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="234" t="s">
+      <c r="B57" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="235"/>
-      <c r="D57" s="235"/>
-      <c r="E57" s="235"/>
-      <c r="F57" s="235"/>
-      <c r="G57" s="235"/>
-      <c r="H57" s="236"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="249"/>
+      <c r="E57" s="249"/>
+      <c r="F57" s="249"/>
+      <c r="G57" s="249"/>
+      <c r="H57" s="250"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="237"/>
-      <c r="K57" s="238"/>
-      <c r="L57" s="238"/>
-      <c r="M57" s="238"/>
-      <c r="N57" s="239"/>
+      <c r="J57" s="251"/>
+      <c r="K57" s="252"/>
+      <c r="L57" s="252"/>
+      <c r="M57" s="252"/>
+      <c r="N57" s="253"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="217" t="s">
+      <c r="M59" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="217"/>
+      <c r="N59" s="254"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -49667,21 +49667,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="182" t="s">
+      <c r="B64" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="182"/>
-      <c r="D64" s="182"/>
-      <c r="E64" s="182"/>
-      <c r="F64" s="182"/>
-      <c r="G64" s="182"/>
-      <c r="H64" s="182"/>
-      <c r="I64" s="182"/>
-      <c r="J64" s="182"/>
-      <c r="K64" s="182"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="182"/>
-      <c r="N64" s="182"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="211"/>
+      <c r="F64" s="211"/>
+      <c r="G64" s="211"/>
+      <c r="H64" s="211"/>
+      <c r="I64" s="211"/>
+      <c r="J64" s="211"/>
+      <c r="K64" s="211"/>
+      <c r="L64" s="211"/>
+      <c r="M64" s="211"/>
+      <c r="N64" s="211"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -49699,21 +49699,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="182" t="s">
+      <c r="B66" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="182"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="182"/>
-      <c r="N66" s="182"/>
+      <c r="C66" s="211"/>
+      <c r="D66" s="211"/>
+      <c r="E66" s="211"/>
+      <c r="F66" s="211"/>
+      <c r="G66" s="211"/>
+      <c r="H66" s="211"/>
+      <c r="I66" s="211"/>
+      <c r="J66" s="211"/>
+      <c r="K66" s="211"/>
+      <c r="L66" s="211"/>
+      <c r="M66" s="211"/>
+      <c r="N66" s="211"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -49823,56 +49823,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="230" t="s">
+      <c r="B72" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="220" t="s">
+      <c r="C72" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="232" t="s">
+      <c r="D72" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="220" t="s">
+      <c r="E72" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="220" t="s">
+      <c r="F72" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="220" t="s">
+      <c r="G72" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="220" t="s">
+      <c r="H72" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="218" t="s">
+      <c r="I72" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="220" t="s">
+      <c r="J72" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="220" t="s">
+      <c r="K72" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="220" t="s">
+      <c r="L72" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="222" t="s">
+      <c r="M72" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="223"/>
+      <c r="N72" s="241"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="231"/>
-      <c r="C73" s="221"/>
-      <c r="D73" s="233"/>
-      <c r="E73" s="221"/>
-      <c r="F73" s="221"/>
-      <c r="G73" s="221"/>
-      <c r="H73" s="221"/>
-      <c r="I73" s="219"/>
-      <c r="J73" s="221"/>
-      <c r="K73" s="221"/>
-      <c r="L73" s="221"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="235"/>
+      <c r="D73" s="237"/>
+      <c r="E73" s="235"/>
+      <c r="F73" s="235"/>
+      <c r="G73" s="235"/>
+      <c r="H73" s="235"/>
+      <c r="I73" s="239"/>
+      <c r="J73" s="235"/>
+      <c r="K73" s="235"/>
+      <c r="L73" s="235"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -49932,31 +49932,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="224" t="s">
+      <c r="B77" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="225"/>
-      <c r="D77" s="225"/>
-      <c r="E77" s="225"/>
-      <c r="F77" s="225"/>
-      <c r="G77" s="225"/>
-      <c r="H77" s="226"/>
+      <c r="C77" s="243"/>
+      <c r="D77" s="243"/>
+      <c r="E77" s="243"/>
+      <c r="F77" s="243"/>
+      <c r="G77" s="243"/>
+      <c r="H77" s="244"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="227"/>
-      <c r="K77" s="228"/>
-      <c r="L77" s="228"/>
-      <c r="M77" s="228"/>
-      <c r="N77" s="229"/>
+      <c r="J77" s="245"/>
+      <c r="K77" s="246"/>
+      <c r="L77" s="246"/>
+      <c r="M77" s="246"/>
+      <c r="N77" s="247"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="217" t="s">
+      <c r="M79" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="217"/>
+      <c r="N79" s="254"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -50001,20 +50001,44 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="B38:H38"/>
@@ -50031,44 +50055,20 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2017.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2017.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="689" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="689" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="2017" sheetId="16" r:id="rId2"/>
-    <sheet name="G.SUPERVISION" sheetId="22" r:id="rId3"/>
+    <sheet name="G.SUPERVISION (2)" sheetId="28" r:id="rId3"/>
     <sheet name="2.6.3.2.3.1" sheetId="23" r:id="rId4"/>
     <sheet name="2.6.7.1.6.(1.2.3)" sheetId="24" r:id="rId5"/>
     <sheet name="GASTOS GENERALES" sheetId="25" r:id="rId6"/>
@@ -25,16 +25,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.6.3.2.3.1'!$F$13:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.6.7.1.6.(1.2.3)'!$G$13:$M$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.6.7.1.6.(1.2.3)'!$E$13:$M$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2017'!$F$13:$N$268</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'COSTO DIRECTO'!$E$13:$K$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$14:$K$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'G.SUPERVISION (2)'!$E$13:$K$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GASTOS GENERALES'!$E$13:$K$186</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GESTION PROYECT.'!$E$13:$K$200</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MODELO!$B$13:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'ACTIVOS FIJOS'!$B$1:$N$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">EQUIPAMIENTO!$B$1:$N$182</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">G.SUPERVISION!$A$1:$K$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'G.SUPERVISION (2)'!$A$1:$K$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -665,7 +665,7 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="I67" authorId="0" shapeId="0">
+    <comment ref="I66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -689,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I74" authorId="0" shapeId="0">
+    <comment ref="I72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +699,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">se encontro en bd de pecosa 2018 dentro del monto 6,555.00
+          <t xml:space="preserve">la pecosa se encontra en el año 2018 dentro del monto 6,555.00
 </t>
         </r>
       </text>
@@ -3255,7 +3255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3807,11 +3807,17 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3909,9 +3915,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3920,6 +3923,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3998,12 +4010,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4332,42 +4338,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4387,23 +4393,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4526,38 +4532,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="201" t="s">
+      <c r="A12" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="204" t="s">
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="204" t="s">
+      <c r="F12" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="206" t="s">
+      <c r="G12" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="208" t="s">
+      <c r="H12" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="206" t="s">
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4567,9 +4573,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="205"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="202"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="204"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4591,7 +4597,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="202"/>
+      <c r="O13" s="204"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5162,14 +5168,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="198" t="s">
+      <c r="A32" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="199"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="200"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="202"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5202,42 +5208,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="193" t="s">
+      <c r="A35" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="193"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="193"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="194"/>
-      <c r="M36" s="194"/>
-      <c r="N36" s="194"/>
-      <c r="O36" s="194"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="196"/>
+      <c r="M36" s="196"/>
+      <c r="N36" s="196"/>
+      <c r="O36" s="196"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5360,38 +5366,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="201" t="s">
+      <c r="A43" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="203" t="s">
+      <c r="B43" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="203"/>
-      <c r="D43" s="203"/>
-      <c r="E43" s="204" t="s">
+      <c r="C43" s="205"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="204" t="s">
+      <c r="F43" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="206" t="s">
+      <c r="G43" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="208" t="s">
+      <c r="H43" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="209"/>
-      <c r="J43" s="209"/>
-      <c r="K43" s="209"/>
-      <c r="L43" s="209"/>
-      <c r="M43" s="209"/>
-      <c r="N43" s="210"/>
-      <c r="O43" s="206" t="s">
+      <c r="I43" s="211"/>
+      <c r="J43" s="211"/>
+      <c r="K43" s="211"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="212"/>
+      <c r="O43" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="202"/>
+      <c r="A44" s="204"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5401,9 +5407,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="205"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="202"/>
+      <c r="E44" s="207"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="204"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5425,17 +5431,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="202"/>
+      <c r="O44" s="204"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="195" t="s">
+      <c r="A45" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="196"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="197"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="198"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="198"/>
+      <c r="F45" s="199"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5890,14 +5896,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="198" t="s">
+      <c r="A66" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="199"/>
-      <c r="C66" s="199"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="200"/>
+      <c r="B66" s="201"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="201"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="202"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5930,42 +5936,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="193" t="s">
+      <c r="A69" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="193"/>
-      <c r="C69" s="193"/>
-      <c r="D69" s="193"/>
-      <c r="E69" s="193"/>
-      <c r="F69" s="193"/>
-      <c r="G69" s="193"/>
-      <c r="H69" s="193"/>
-      <c r="I69" s="193"/>
-      <c r="J69" s="193"/>
-      <c r="K69" s="193"/>
-      <c r="L69" s="193"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="193"/>
-      <c r="O69" s="193"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
+      <c r="F69" s="195"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="195"/>
+      <c r="K69" s="195"/>
+      <c r="L69" s="195"/>
+      <c r="M69" s="195"/>
+      <c r="N69" s="195"/>
+      <c r="O69" s="195"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="194" t="s">
+      <c r="A70" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="194"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="194"/>
-      <c r="E70" s="194"/>
-      <c r="F70" s="194"/>
-      <c r="G70" s="194"/>
-      <c r="H70" s="194"/>
-      <c r="I70" s="194"/>
-      <c r="J70" s="194"/>
-      <c r="K70" s="194"/>
-      <c r="L70" s="194"/>
-      <c r="M70" s="194"/>
-      <c r="N70" s="194"/>
-      <c r="O70" s="194"/>
+      <c r="B70" s="196"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="196"/>
+      <c r="E70" s="196"/>
+      <c r="F70" s="196"/>
+      <c r="G70" s="196"/>
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
+      <c r="J70" s="196"/>
+      <c r="K70" s="196"/>
+      <c r="L70" s="196"/>
+      <c r="M70" s="196"/>
+      <c r="N70" s="196"/>
+      <c r="O70" s="196"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6088,38 +6094,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="201" t="s">
+      <c r="A77" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="203" t="s">
+      <c r="B77" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="203"/>
-      <c r="D77" s="203"/>
-      <c r="E77" s="204" t="s">
+      <c r="C77" s="205"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="204" t="s">
+      <c r="F77" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="206" t="s">
+      <c r="G77" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="208" t="s">
+      <c r="H77" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="209"/>
-      <c r="J77" s="209"/>
-      <c r="K77" s="209"/>
-      <c r="L77" s="209"/>
-      <c r="M77" s="209"/>
-      <c r="N77" s="210"/>
-      <c r="O77" s="206" t="s">
+      <c r="I77" s="211"/>
+      <c r="J77" s="211"/>
+      <c r="K77" s="211"/>
+      <c r="L77" s="211"/>
+      <c r="M77" s="211"/>
+      <c r="N77" s="212"/>
+      <c r="O77" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="202"/>
+      <c r="A78" s="204"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6129,9 +6135,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="205"/>
-      <c r="F78" s="207"/>
-      <c r="G78" s="202"/>
+      <c r="E78" s="207"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="204"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6153,17 +6159,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="202"/>
+      <c r="O78" s="204"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="195" t="s">
+      <c r="A79" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="196"/>
-      <c r="C79" s="196"/>
-      <c r="D79" s="196"/>
-      <c r="E79" s="196"/>
-      <c r="F79" s="197"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="198"/>
+      <c r="E79" s="198"/>
+      <c r="F79" s="199"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6596,14 +6602,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="198" t="s">
+      <c r="A99" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="199"/>
-      <c r="C99" s="199"/>
-      <c r="D99" s="199"/>
-      <c r="E99" s="199"/>
-      <c r="F99" s="200"/>
+      <c r="B99" s="201"/>
+      <c r="C99" s="201"/>
+      <c r="D99" s="201"/>
+      <c r="E99" s="201"/>
+      <c r="F99" s="202"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6689,42 +6695,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="193" t="s">
+      <c r="A105" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="193"/>
-      <c r="C105" s="193"/>
-      <c r="D105" s="193"/>
-      <c r="E105" s="193"/>
-      <c r="F105" s="193"/>
-      <c r="G105" s="193"/>
-      <c r="H105" s="193"/>
-      <c r="I105" s="193"/>
-      <c r="J105" s="193"/>
-      <c r="K105" s="193"/>
-      <c r="L105" s="193"/>
-      <c r="M105" s="193"/>
-      <c r="N105" s="193"/>
-      <c r="O105" s="193"/>
+      <c r="B105" s="195"/>
+      <c r="C105" s="195"/>
+      <c r="D105" s="195"/>
+      <c r="E105" s="195"/>
+      <c r="F105" s="195"/>
+      <c r="G105" s="195"/>
+      <c r="H105" s="195"/>
+      <c r="I105" s="195"/>
+      <c r="J105" s="195"/>
+      <c r="K105" s="195"/>
+      <c r="L105" s="195"/>
+      <c r="M105" s="195"/>
+      <c r="N105" s="195"/>
+      <c r="O105" s="195"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="194" t="s">
+      <c r="A106" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="194"/>
-      <c r="C106" s="194"/>
-      <c r="D106" s="194"/>
-      <c r="E106" s="194"/>
-      <c r="F106" s="194"/>
-      <c r="G106" s="194"/>
-      <c r="H106" s="194"/>
-      <c r="I106" s="194"/>
-      <c r="J106" s="194"/>
-      <c r="K106" s="194"/>
-      <c r="L106" s="194"/>
-      <c r="M106" s="194"/>
-      <c r="N106" s="194"/>
-      <c r="O106" s="194"/>
+      <c r="B106" s="196"/>
+      <c r="C106" s="196"/>
+      <c r="D106" s="196"/>
+      <c r="E106" s="196"/>
+      <c r="F106" s="196"/>
+      <c r="G106" s="196"/>
+      <c r="H106" s="196"/>
+      <c r="I106" s="196"/>
+      <c r="J106" s="196"/>
+      <c r="K106" s="196"/>
+      <c r="L106" s="196"/>
+      <c r="M106" s="196"/>
+      <c r="N106" s="196"/>
+      <c r="O106" s="196"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6744,23 +6750,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="211" t="s">
+      <c r="A108" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="211"/>
-      <c r="C108" s="211"/>
-      <c r="D108" s="211"/>
-      <c r="E108" s="211"/>
-      <c r="F108" s="211"/>
-      <c r="G108" s="211"/>
-      <c r="H108" s="211"/>
-      <c r="I108" s="211"/>
-      <c r="J108" s="211"/>
-      <c r="K108" s="211"/>
-      <c r="L108" s="211"/>
-      <c r="M108" s="211"/>
-      <c r="N108" s="211"/>
-      <c r="O108" s="211"/>
+      <c r="B108" s="213"/>
+      <c r="C108" s="213"/>
+      <c r="D108" s="213"/>
+      <c r="E108" s="213"/>
+      <c r="F108" s="213"/>
+      <c r="G108" s="213"/>
+      <c r="H108" s="213"/>
+      <c r="I108" s="213"/>
+      <c r="J108" s="213"/>
+      <c r="K108" s="213"/>
+      <c r="L108" s="213"/>
+      <c r="M108" s="213"/>
+      <c r="N108" s="213"/>
+      <c r="O108" s="213"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6883,38 +6889,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="201" t="s">
+      <c r="A115" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="203" t="s">
+      <c r="B115" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="203"/>
-      <c r="D115" s="203"/>
-      <c r="E115" s="204" t="s">
+      <c r="C115" s="205"/>
+      <c r="D115" s="205"/>
+      <c r="E115" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="204" t="s">
+      <c r="F115" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="206" t="s">
+      <c r="G115" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="208" t="s">
+      <c r="H115" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="209"/>
-      <c r="J115" s="209"/>
-      <c r="K115" s="209"/>
-      <c r="L115" s="209"/>
-      <c r="M115" s="209"/>
-      <c r="N115" s="210"/>
-      <c r="O115" s="206" t="s">
+      <c r="I115" s="211"/>
+      <c r="J115" s="211"/>
+      <c r="K115" s="211"/>
+      <c r="L115" s="211"/>
+      <c r="M115" s="211"/>
+      <c r="N115" s="212"/>
+      <c r="O115" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="202"/>
+      <c r="A116" s="204"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6924,9 +6930,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="205"/>
-      <c r="F116" s="207"/>
-      <c r="G116" s="202"/>
+      <c r="E116" s="207"/>
+      <c r="F116" s="209"/>
+      <c r="G116" s="204"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6948,7 +6954,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="202"/>
+      <c r="O116" s="204"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7077,14 +7083,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="198" t="s">
+      <c r="A122" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="199"/>
-      <c r="C122" s="199"/>
-      <c r="D122" s="199"/>
-      <c r="E122" s="199"/>
-      <c r="F122" s="200"/>
+      <c r="B122" s="201"/>
+      <c r="C122" s="201"/>
+      <c r="D122" s="201"/>
+      <c r="E122" s="201"/>
+      <c r="F122" s="202"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7207,21 +7213,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7331,56 +7337,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="232" t="s">
+      <c r="B9" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="234" t="s">
+      <c r="C9" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="236" t="s">
+      <c r="D9" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="234" t="s">
+      <c r="E9" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="234" t="s">
+      <c r="F9" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="234" t="s">
+      <c r="G9" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="234" t="s">
+      <c r="H9" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="238" t="s">
+      <c r="I9" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="234" t="s">
+      <c r="J9" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="234" t="s">
+      <c r="K9" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="234" t="s">
+      <c r="L9" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="240" t="s">
+      <c r="M9" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="241"/>
+      <c r="N9" s="245"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="233"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="235"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="239"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7809,44 +7815,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="242" t="s">
+      <c r="B31" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="243"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="244"/>
+      <c r="C31" s="247"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="248"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="245"/>
-      <c r="K31" s="246"/>
-      <c r="L31" s="246"/>
-      <c r="M31" s="246"/>
-      <c r="N31" s="247"/>
+      <c r="J31" s="249"/>
+      <c r="K31" s="250"/>
+      <c r="L31" s="250"/>
+      <c r="M31" s="250"/>
+      <c r="N31" s="251"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="211" t="s">
+      <c r="B35" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="211"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="211"/>
-      <c r="K35" s="211"/>
-      <c r="L35" s="211"/>
-      <c r="M35" s="211"/>
-      <c r="N35" s="211"/>
+      <c r="C35" s="213"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="213"/>
+      <c r="L35" s="213"/>
+      <c r="M35" s="213"/>
+      <c r="N35" s="213"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7956,56 +7962,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="232" t="s">
+      <c r="B42" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="234" t="s">
+      <c r="C42" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="236" t="s">
+      <c r="D42" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="234" t="s">
+      <c r="E42" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="234" t="s">
+      <c r="F42" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="234" t="s">
+      <c r="G42" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="234" t="s">
+      <c r="H42" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="238" t="s">
+      <c r="I42" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="234" t="s">
+      <c r="J42" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="234" t="s">
+      <c r="K42" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="234" t="s">
+      <c r="L42" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="240" t="s">
+      <c r="M42" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="241"/>
+      <c r="N42" s="245"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="233"/>
-      <c r="C43" s="235"/>
-      <c r="D43" s="237"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="235"/>
-      <c r="H43" s="235"/>
-      <c r="I43" s="239"/>
-      <c r="J43" s="235"/>
-      <c r="K43" s="235"/>
-      <c r="L43" s="235"/>
+      <c r="B43" s="237"/>
+      <c r="C43" s="239"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="239"/>
+      <c r="F43" s="239"/>
+      <c r="G43" s="239"/>
+      <c r="H43" s="239"/>
+      <c r="I43" s="243"/>
+      <c r="J43" s="239"/>
+      <c r="K43" s="239"/>
+      <c r="L43" s="239"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -8014,24 +8020,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="248" t="s">
+      <c r="B44" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="249"/>
-      <c r="D44" s="249"/>
-      <c r="E44" s="249"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="249"/>
-      <c r="H44" s="250"/>
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="254"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="251"/>
-      <c r="K44" s="252"/>
-      <c r="L44" s="252"/>
-      <c r="M44" s="252"/>
-      <c r="N44" s="253"/>
+      <c r="J44" s="255"/>
+      <c r="K44" s="256"/>
+      <c r="L44" s="256"/>
+      <c r="M44" s="256"/>
+      <c r="N44" s="257"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8395,44 +8401,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="242" t="s">
+      <c r="B63" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="243"/>
-      <c r="D63" s="243"/>
-      <c r="E63" s="243"/>
-      <c r="F63" s="243"/>
-      <c r="G63" s="243"/>
-      <c r="H63" s="244"/>
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="247"/>
+      <c r="H63" s="248"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="245"/>
-      <c r="K63" s="246"/>
-      <c r="L63" s="246"/>
-      <c r="M63" s="246"/>
-      <c r="N63" s="247"/>
+      <c r="J63" s="249"/>
+      <c r="K63" s="250"/>
+      <c r="L63" s="250"/>
+      <c r="M63" s="250"/>
+      <c r="N63" s="251"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="211" t="s">
+      <c r="B67" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="211"/>
-      <c r="D67" s="211"/>
-      <c r="E67" s="211"/>
-      <c r="F67" s="211"/>
-      <c r="G67" s="211"/>
-      <c r="H67" s="211"/>
-      <c r="I67" s="211"/>
-      <c r="J67" s="211"/>
-      <c r="K67" s="211"/>
-      <c r="L67" s="211"/>
-      <c r="M67" s="211"/>
-      <c r="N67" s="211"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="213"/>
+      <c r="F67" s="213"/>
+      <c r="G67" s="213"/>
+      <c r="H67" s="213"/>
+      <c r="I67" s="213"/>
+      <c r="J67" s="213"/>
+      <c r="K67" s="213"/>
+      <c r="L67" s="213"/>
+      <c r="M67" s="213"/>
+      <c r="N67" s="213"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8542,56 +8548,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="232" t="s">
+      <c r="B74" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="234" t="s">
+      <c r="C74" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="236" t="s">
+      <c r="D74" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="234" t="s">
+      <c r="E74" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="234" t="s">
+      <c r="F74" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="234" t="s">
+      <c r="G74" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="234" t="s">
+      <c r="H74" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="238" t="s">
+      <c r="I74" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="234" t="s">
+      <c r="J74" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="234" t="s">
+      <c r="K74" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="234" t="s">
+      <c r="L74" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="240" t="s">
+      <c r="M74" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="241"/>
+      <c r="N74" s="245"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="233"/>
-      <c r="C75" s="235"/>
-      <c r="D75" s="237"/>
-      <c r="E75" s="235"/>
-      <c r="F75" s="235"/>
-      <c r="G75" s="235"/>
-      <c r="H75" s="235"/>
-      <c r="I75" s="239"/>
-      <c r="J75" s="235"/>
-      <c r="K75" s="235"/>
-      <c r="L75" s="235"/>
+      <c r="B75" s="237"/>
+      <c r="C75" s="239"/>
+      <c r="D75" s="241"/>
+      <c r="E75" s="239"/>
+      <c r="F75" s="239"/>
+      <c r="G75" s="239"/>
+      <c r="H75" s="239"/>
+      <c r="I75" s="243"/>
+      <c r="J75" s="239"/>
+      <c r="K75" s="239"/>
+      <c r="L75" s="239"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8600,24 +8606,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="248" t="s">
+      <c r="B76" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="249"/>
-      <c r="D76" s="249"/>
-      <c r="E76" s="249"/>
-      <c r="F76" s="249"/>
-      <c r="G76" s="249"/>
-      <c r="H76" s="250"/>
+      <c r="C76" s="253"/>
+      <c r="D76" s="253"/>
+      <c r="E76" s="253"/>
+      <c r="F76" s="253"/>
+      <c r="G76" s="253"/>
+      <c r="H76" s="254"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="251"/>
-      <c r="K76" s="252"/>
-      <c r="L76" s="252"/>
-      <c r="M76" s="252"/>
-      <c r="N76" s="253"/>
+      <c r="J76" s="255"/>
+      <c r="K76" s="256"/>
+      <c r="L76" s="256"/>
+      <c r="M76" s="256"/>
+      <c r="N76" s="257"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -9060,44 +9066,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="242" t="s">
+      <c r="B97" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="243"/>
-      <c r="D97" s="243"/>
-      <c r="E97" s="243"/>
-      <c r="F97" s="243"/>
-      <c r="G97" s="243"/>
-      <c r="H97" s="244"/>
+      <c r="C97" s="247"/>
+      <c r="D97" s="247"/>
+      <c r="E97" s="247"/>
+      <c r="F97" s="247"/>
+      <c r="G97" s="247"/>
+      <c r="H97" s="248"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="245"/>
-      <c r="K97" s="246"/>
-      <c r="L97" s="246"/>
-      <c r="M97" s="246"/>
-      <c r="N97" s="247"/>
+      <c r="J97" s="249"/>
+      <c r="K97" s="250"/>
+      <c r="L97" s="250"/>
+      <c r="M97" s="250"/>
+      <c r="N97" s="251"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="211" t="s">
+      <c r="B101" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="211"/>
-      <c r="D101" s="211"/>
-      <c r="E101" s="211"/>
-      <c r="F101" s="211"/>
-      <c r="G101" s="211"/>
-      <c r="H101" s="211"/>
-      <c r="I101" s="211"/>
-      <c r="J101" s="211"/>
-      <c r="K101" s="211"/>
-      <c r="L101" s="211"/>
-      <c r="M101" s="211"/>
-      <c r="N101" s="211"/>
+      <c r="C101" s="213"/>
+      <c r="D101" s="213"/>
+      <c r="E101" s="213"/>
+      <c r="F101" s="213"/>
+      <c r="G101" s="213"/>
+      <c r="H101" s="213"/>
+      <c r="I101" s="213"/>
+      <c r="J101" s="213"/>
+      <c r="K101" s="213"/>
+      <c r="L101" s="213"/>
+      <c r="M101" s="213"/>
+      <c r="N101" s="213"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9207,56 +9213,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="232" t="s">
+      <c r="B108" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="234" t="s">
+      <c r="C108" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="236" t="s">
+      <c r="D108" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="234" t="s">
+      <c r="E108" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="234" t="s">
+      <c r="F108" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="234" t="s">
+      <c r="G108" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="234" t="s">
+      <c r="H108" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="238" t="s">
+      <c r="I108" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="234" t="s">
+      <c r="J108" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="234" t="s">
+      <c r="K108" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="234" t="s">
+      <c r="L108" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="240" t="s">
+      <c r="M108" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="241"/>
+      <c r="N108" s="245"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="233"/>
-      <c r="C109" s="235"/>
-      <c r="D109" s="237"/>
-      <c r="E109" s="235"/>
-      <c r="F109" s="235"/>
-      <c r="G109" s="235"/>
-      <c r="H109" s="235"/>
-      <c r="I109" s="239"/>
-      <c r="J109" s="235"/>
-      <c r="K109" s="235"/>
-      <c r="L109" s="235"/>
+      <c r="B109" s="237"/>
+      <c r="C109" s="239"/>
+      <c r="D109" s="241"/>
+      <c r="E109" s="239"/>
+      <c r="F109" s="239"/>
+      <c r="G109" s="239"/>
+      <c r="H109" s="239"/>
+      <c r="I109" s="243"/>
+      <c r="J109" s="239"/>
+      <c r="K109" s="239"/>
+      <c r="L109" s="239"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9265,24 +9271,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="248" t="s">
+      <c r="B110" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="249"/>
-      <c r="D110" s="249"/>
-      <c r="E110" s="249"/>
-      <c r="F110" s="249"/>
-      <c r="G110" s="249"/>
-      <c r="H110" s="250"/>
+      <c r="C110" s="253"/>
+      <c r="D110" s="253"/>
+      <c r="E110" s="253"/>
+      <c r="F110" s="253"/>
+      <c r="G110" s="253"/>
+      <c r="H110" s="254"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="251"/>
-      <c r="K110" s="252"/>
-      <c r="L110" s="252"/>
-      <c r="M110" s="252"/>
-      <c r="N110" s="253"/>
+      <c r="J110" s="255"/>
+      <c r="K110" s="256"/>
+      <c r="L110" s="256"/>
+      <c r="M110" s="256"/>
+      <c r="N110" s="257"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9652,44 +9658,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="242" t="s">
+      <c r="B130" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="243"/>
-      <c r="D130" s="243"/>
-      <c r="E130" s="243"/>
-      <c r="F130" s="243"/>
-      <c r="G130" s="243"/>
-      <c r="H130" s="244"/>
+      <c r="C130" s="247"/>
+      <c r="D130" s="247"/>
+      <c r="E130" s="247"/>
+      <c r="F130" s="247"/>
+      <c r="G130" s="247"/>
+      <c r="H130" s="248"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="245"/>
-      <c r="K130" s="246"/>
-      <c r="L130" s="246"/>
-      <c r="M130" s="246"/>
-      <c r="N130" s="247"/>
+      <c r="J130" s="249"/>
+      <c r="K130" s="250"/>
+      <c r="L130" s="250"/>
+      <c r="M130" s="250"/>
+      <c r="N130" s="251"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="211" t="s">
+      <c r="B134" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="211"/>
-      <c r="D134" s="211"/>
-      <c r="E134" s="211"/>
-      <c r="F134" s="211"/>
-      <c r="G134" s="211"/>
-      <c r="H134" s="211"/>
-      <c r="I134" s="211"/>
-      <c r="J134" s="211"/>
-      <c r="K134" s="211"/>
-      <c r="L134" s="211"/>
-      <c r="M134" s="211"/>
-      <c r="N134" s="211"/>
+      <c r="C134" s="213"/>
+      <c r="D134" s="213"/>
+      <c r="E134" s="213"/>
+      <c r="F134" s="213"/>
+      <c r="G134" s="213"/>
+      <c r="H134" s="213"/>
+      <c r="I134" s="213"/>
+      <c r="J134" s="213"/>
+      <c r="K134" s="213"/>
+      <c r="L134" s="213"/>
+      <c r="M134" s="213"/>
+      <c r="N134" s="213"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9799,56 +9805,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="232" t="s">
+      <c r="B141" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="234" t="s">
+      <c r="C141" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="236" t="s">
+      <c r="D141" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="234" t="s">
+      <c r="E141" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="234" t="s">
+      <c r="F141" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="234" t="s">
+      <c r="G141" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="234" t="s">
+      <c r="H141" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="238" t="s">
+      <c r="I141" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="234" t="s">
+      <c r="J141" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="234" t="s">
+      <c r="K141" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="234" t="s">
+      <c r="L141" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="240" t="s">
+      <c r="M141" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="241"/>
+      <c r="N141" s="245"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="233"/>
-      <c r="C142" s="235"/>
-      <c r="D142" s="237"/>
-      <c r="E142" s="235"/>
-      <c r="F142" s="235"/>
-      <c r="G142" s="235"/>
-      <c r="H142" s="235"/>
-      <c r="I142" s="239"/>
-      <c r="J142" s="235"/>
-      <c r="K142" s="235"/>
-      <c r="L142" s="235"/>
+      <c r="B142" s="237"/>
+      <c r="C142" s="239"/>
+      <c r="D142" s="241"/>
+      <c r="E142" s="239"/>
+      <c r="F142" s="239"/>
+      <c r="G142" s="239"/>
+      <c r="H142" s="239"/>
+      <c r="I142" s="243"/>
+      <c r="J142" s="239"/>
+      <c r="K142" s="239"/>
+      <c r="L142" s="239"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9857,24 +9863,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="248" t="s">
+      <c r="B143" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="249"/>
-      <c r="D143" s="249"/>
-      <c r="E143" s="249"/>
-      <c r="F143" s="249"/>
-      <c r="G143" s="249"/>
-      <c r="H143" s="250"/>
+      <c r="C143" s="253"/>
+      <c r="D143" s="253"/>
+      <c r="E143" s="253"/>
+      <c r="F143" s="253"/>
+      <c r="G143" s="253"/>
+      <c r="H143" s="254"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="251"/>
-      <c r="K143" s="252"/>
-      <c r="L143" s="252"/>
-      <c r="M143" s="252"/>
-      <c r="N143" s="253"/>
+      <c r="J143" s="255"/>
+      <c r="K143" s="256"/>
+      <c r="L143" s="256"/>
+      <c r="M143" s="256"/>
+      <c r="N143" s="257"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10200,44 +10206,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="242" t="s">
+      <c r="B161" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="243"/>
-      <c r="D161" s="243"/>
-      <c r="E161" s="243"/>
-      <c r="F161" s="243"/>
-      <c r="G161" s="243"/>
-      <c r="H161" s="244"/>
+      <c r="C161" s="247"/>
+      <c r="D161" s="247"/>
+      <c r="E161" s="247"/>
+      <c r="F161" s="247"/>
+      <c r="G161" s="247"/>
+      <c r="H161" s="248"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="245"/>
-      <c r="K161" s="246"/>
-      <c r="L161" s="246"/>
-      <c r="M161" s="246"/>
-      <c r="N161" s="247"/>
+      <c r="J161" s="249"/>
+      <c r="K161" s="250"/>
+      <c r="L161" s="250"/>
+      <c r="M161" s="250"/>
+      <c r="N161" s="251"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="211" t="s">
+      <c r="B165" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="211"/>
-      <c r="D165" s="211"/>
-      <c r="E165" s="211"/>
-      <c r="F165" s="211"/>
-      <c r="G165" s="211"/>
-      <c r="H165" s="211"/>
-      <c r="I165" s="211"/>
-      <c r="J165" s="211"/>
-      <c r="K165" s="211"/>
-      <c r="L165" s="211"/>
-      <c r="M165" s="211"/>
-      <c r="N165" s="211"/>
+      <c r="C165" s="213"/>
+      <c r="D165" s="213"/>
+      <c r="E165" s="213"/>
+      <c r="F165" s="213"/>
+      <c r="G165" s="213"/>
+      <c r="H165" s="213"/>
+      <c r="I165" s="213"/>
+      <c r="J165" s="213"/>
+      <c r="K165" s="213"/>
+      <c r="L165" s="213"/>
+      <c r="M165" s="213"/>
+      <c r="N165" s="213"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10347,56 +10353,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="232" t="s">
+      <c r="B172" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="234" t="s">
+      <c r="C172" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="236" t="s">
+      <c r="D172" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="234" t="s">
+      <c r="E172" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="234" t="s">
+      <c r="F172" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="234" t="s">
+      <c r="G172" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="234" t="s">
+      <c r="H172" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="238" t="s">
+      <c r="I172" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="234" t="s">
+      <c r="J172" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="234" t="s">
+      <c r="K172" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="234" t="s">
+      <c r="L172" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="240" t="s">
+      <c r="M172" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="241"/>
+      <c r="N172" s="245"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="233"/>
-      <c r="C173" s="235"/>
-      <c r="D173" s="237"/>
-      <c r="E173" s="235"/>
-      <c r="F173" s="235"/>
-      <c r="G173" s="235"/>
-      <c r="H173" s="235"/>
-      <c r="I173" s="239"/>
-      <c r="J173" s="235"/>
-      <c r="K173" s="235"/>
-      <c r="L173" s="235"/>
+      <c r="B173" s="237"/>
+      <c r="C173" s="239"/>
+      <c r="D173" s="241"/>
+      <c r="E173" s="239"/>
+      <c r="F173" s="239"/>
+      <c r="G173" s="239"/>
+      <c r="H173" s="239"/>
+      <c r="I173" s="243"/>
+      <c r="J173" s="239"/>
+      <c r="K173" s="239"/>
+      <c r="L173" s="239"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10405,24 +10411,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="248" t="s">
+      <c r="B174" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="249"/>
-      <c r="D174" s="249"/>
-      <c r="E174" s="249"/>
-      <c r="F174" s="249"/>
-      <c r="G174" s="249"/>
-      <c r="H174" s="250"/>
+      <c r="C174" s="253"/>
+      <c r="D174" s="253"/>
+      <c r="E174" s="253"/>
+      <c r="F174" s="253"/>
+      <c r="G174" s="253"/>
+      <c r="H174" s="254"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="251"/>
-      <c r="K174" s="252"/>
-      <c r="L174" s="252"/>
-      <c r="M174" s="252"/>
-      <c r="N174" s="253"/>
+      <c r="J174" s="255"/>
+      <c r="K174" s="256"/>
+      <c r="L174" s="256"/>
+      <c r="M174" s="256"/>
+      <c r="N174" s="257"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10488,31 +10494,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="248" t="s">
+      <c r="B178" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="249"/>
-      <c r="D178" s="249"/>
-      <c r="E178" s="249"/>
-      <c r="F178" s="249"/>
-      <c r="G178" s="249"/>
-      <c r="H178" s="250"/>
+      <c r="C178" s="253"/>
+      <c r="D178" s="253"/>
+      <c r="E178" s="253"/>
+      <c r="F178" s="253"/>
+      <c r="G178" s="253"/>
+      <c r="H178" s="254"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="251"/>
-      <c r="K178" s="252"/>
-      <c r="L178" s="252"/>
-      <c r="M178" s="252"/>
-      <c r="N178" s="253"/>
+      <c r="J178" s="255"/>
+      <c r="K178" s="256"/>
+      <c r="L178" s="256"/>
+      <c r="M178" s="256"/>
+      <c r="N178" s="257"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="254" t="s">
+      <c r="M180" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="254"/>
+      <c r="N180" s="258"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10644,8 +10650,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:Q268"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q91" sqref="Q91"/>
+    <sheetView topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11614,42 +11620,42 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11669,23 +11675,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11808,15 +11814,15 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219" t="s">
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="168" t="s">
@@ -11825,21 +11831,21 @@
       <c r="G12" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="221" t="s">
+      <c r="H12" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="222"/>
-      <c r="O12" s="223" t="s">
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="216"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -11849,7 +11855,7 @@
       <c r="D13" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="220"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="170"/>
       <c r="G13" s="171"/>
       <c r="H13" s="160" t="s">
@@ -11873,7 +11879,7 @@
       <c r="N13" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="O13" s="224"/>
+      <c r="O13" s="226"/>
       <c r="P13" s="166" t="s">
         <v>607</v>
       </c>
@@ -24184,14 +24190,14 @@
       <c r="Q266" s="172"/>
     </row>
     <row r="267" spans="1:17" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="198" t="s">
+      <c r="A267" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B267" s="199"/>
-      <c r="C267" s="199"/>
-      <c r="D267" s="199"/>
-      <c r="E267" s="199"/>
-      <c r="F267" s="200"/>
+      <c r="B267" s="201"/>
+      <c r="C267" s="201"/>
+      <c r="D267" s="201"/>
+      <c r="E267" s="201"/>
+      <c r="F267" s="202"/>
       <c r="G267" s="150">
         <f t="shared" ref="G267:N267" si="8">SUM(G14:G266)</f>
         <v>1102623.47</v>
@@ -24273,10 +24279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K78"/>
+  <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B28" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24294,226 +24300,256 @@
     <col min="14" max="14" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="123"/>
-      <c r="D2" s="138"/>
-      <c r="F2" s="133"/>
-    </row>
-    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-    </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="194" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+    </row>
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="211" t="s">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D7" s="140" t="s">
         <v>616</v>
       </c>
-      <c r="E8" s="185"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="226" t="s">
+      <c r="E7" s="185"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="226"/>
-      <c r="C9" s="3" t="s">
+      <c r="B8" s="227"/>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D8" s="228" t="s">
         <v>613</v>
       </c>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="227"/>
-    </row>
-    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="226" t="s">
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="228"/>
+    </row>
+    <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="228" t="s">
+        <v>614</v>
+      </c>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="228"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="229"/>
       <c r="C10" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="227" t="s">
-        <v>614</v>
-      </c>
-      <c r="E10" s="227"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="227"/>
-      <c r="K10" s="227"/>
-    </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="228" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="228"/>
-      <c r="C11" s="182" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="D10" s="193" t="s">
         <v>615</v>
       </c>
+      <c r="E10" s="185"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="185"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="10">
+      <c r="F11" s="134"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="10">
         <v>2017</v>
       </c>
     </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="231" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="225" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="225" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="217" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="219" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="255" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="223" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="222"/>
-      <c r="I13" s="222"/>
-      <c r="J13" s="222"/>
-      <c r="K13" s="223" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="216"/>
-      <c r="B14" s="158" t="s">
+      <c r="A13" s="218"/>
+      <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C13" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D13" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="225"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="160" t="s">
+      <c r="E13" s="230"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="160" t="s">
+      <c r="I13" s="160" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="160" t="s">
+      <c r="J13" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="216"/>
+      <c r="K13" s="218"/>
+    </row>
+    <row r="14" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="121">
+        <v>1</v>
+      </c>
+      <c r="B14" s="145">
+        <v>42794</v>
+      </c>
+      <c r="C14" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="127">
+        <v>94</v>
+      </c>
+      <c r="E14" s="186">
+        <v>1920</v>
+      </c>
+      <c r="F14" s="131">
+        <v>733</v>
+      </c>
+      <c r="G14" s="147">
+        <v>3350.5</v>
+      </c>
+      <c r="H14" s="148">
+        <v>3350.5</v>
+      </c>
+      <c r="I14" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="120" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121">
-        <v>1</v>
+      <c r="A15" s="144">
+        <v>2</v>
       </c>
       <c r="B15" s="145">
         <v>42794</v>
@@ -24525,16 +24561,16 @@
         <v>94</v>
       </c>
       <c r="E15" s="186">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F15" s="131">
         <v>733</v>
       </c>
       <c r="G15" s="147">
-        <v>3350.5</v>
+        <v>2596.33</v>
       </c>
       <c r="H15" s="148">
-        <v>3350.5</v>
+        <v>2596.33</v>
       </c>
       <c r="I15" s="148" t="s">
         <v>211</v>
@@ -24546,9 +24582,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="144">
-        <v>2</v>
+    <row r="16" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="121">
+        <v>3</v>
       </c>
       <c r="B16" s="145">
         <v>42794</v>
@@ -24560,16 +24596,16 @@
         <v>94</v>
       </c>
       <c r="E16" s="186">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="F16" s="131">
         <v>733</v>
       </c>
       <c r="G16" s="147">
-        <v>2596.33</v>
+        <v>229</v>
       </c>
       <c r="H16" s="148">
-        <v>2596.33</v>
+        <v>229</v>
       </c>
       <c r="I16" s="148" t="s">
         <v>211</v>
@@ -24577,13 +24613,13 @@
       <c r="J16" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="120" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="155" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="145">
         <v>42794</v>
@@ -24595,16 +24631,16 @@
         <v>94</v>
       </c>
       <c r="E17" s="186">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="F17" s="131">
         <v>733</v>
       </c>
       <c r="G17" s="147">
-        <v>229</v>
+        <v>450</v>
       </c>
       <c r="H17" s="148">
-        <v>229</v>
+        <v>450</v>
       </c>
       <c r="I17" s="148" t="s">
         <v>211</v>
@@ -24612,13 +24648,13 @@
       <c r="J17" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="K17" s="155" t="s">
-        <v>530</v>
+      <c r="K17" s="120" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121">
-        <v>4</v>
+      <c r="A18" s="144">
+        <v>5</v>
       </c>
       <c r="B18" s="145">
         <v>42794</v>
@@ -24630,16 +24666,16 @@
         <v>94</v>
       </c>
       <c r="E18" s="186">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="F18" s="131">
         <v>733</v>
       </c>
       <c r="G18" s="147">
-        <v>450</v>
+        <v>652.5</v>
       </c>
       <c r="H18" s="148">
-        <v>450</v>
+        <v>652.5</v>
       </c>
       <c r="I18" s="148" t="s">
         <v>211</v>
@@ -24648,12 +24684,12 @@
         <v>211</v>
       </c>
       <c r="K18" s="120" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="144">
-        <v>5</v>
+      <c r="A19" s="121">
+        <v>6</v>
       </c>
       <c r="B19" s="145">
         <v>42794</v>
@@ -24665,16 +24701,16 @@
         <v>94</v>
       </c>
       <c r="E19" s="186">
-        <v>1926</v>
+        <v>2074</v>
       </c>
       <c r="F19" s="131">
         <v>733</v>
       </c>
       <c r="G19" s="147">
-        <v>652.5</v>
+        <v>5</v>
       </c>
       <c r="H19" s="148">
-        <v>652.5</v>
+        <v>5</v>
       </c>
       <c r="I19" s="148" t="s">
         <v>211</v>
@@ -24683,33 +24719,33 @@
         <v>211</v>
       </c>
       <c r="K19" s="120" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="145">
-        <v>42794</v>
+        <v>42818</v>
       </c>
       <c r="C20" s="152" t="s">
         <v>164</v>
       </c>
       <c r="D20" s="127">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="E20" s="186">
-        <v>2074</v>
+        <v>2762</v>
       </c>
       <c r="F20" s="131">
-        <v>733</v>
+        <v>1259</v>
       </c>
       <c r="G20" s="147">
-        <v>5</v>
+        <v>4113.5</v>
       </c>
       <c r="H20" s="148">
-        <v>5</v>
+        <v>4113.5</v>
       </c>
       <c r="I20" s="148" t="s">
         <v>211</v>
@@ -24718,12 +24754,12 @@
         <v>211</v>
       </c>
       <c r="K20" s="120" t="s">
-        <v>175</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121">
-        <v>7</v>
+      <c r="A21" s="144">
+        <v>8</v>
       </c>
       <c r="B21" s="145">
         <v>42818</v>
@@ -24735,16 +24771,16 @@
         <v>220</v>
       </c>
       <c r="E21" s="186">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="F21" s="131">
         <v>1259</v>
       </c>
       <c r="G21" s="147">
-        <v>4113.5</v>
+        <v>229</v>
       </c>
       <c r="H21" s="148">
-        <v>4113.5</v>
+        <v>229</v>
       </c>
       <c r="I21" s="148" t="s">
         <v>211</v>
@@ -24752,13 +24788,13 @@
       <c r="J21" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="K21" s="120" t="s">
-        <v>534</v>
+      <c r="K21" s="155" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="144">
-        <v>8</v>
+      <c r="A22" s="121">
+        <v>9</v>
       </c>
       <c r="B22" s="145">
         <v>42818</v>
@@ -24770,16 +24806,16 @@
         <v>220</v>
       </c>
       <c r="E22" s="186">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="F22" s="131">
         <v>1259</v>
       </c>
       <c r="G22" s="147">
-        <v>229</v>
+        <v>5</v>
       </c>
       <c r="H22" s="148">
-        <v>229</v>
+        <v>5</v>
       </c>
       <c r="I22" s="148" t="s">
         <v>211</v>
@@ -24787,13 +24823,13 @@
       <c r="J22" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="K22" s="155" t="s">
-        <v>535</v>
+      <c r="K22" s="120" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="145">
         <v>42818</v>
@@ -24805,16 +24841,16 @@
         <v>220</v>
       </c>
       <c r="E23" s="186">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="F23" s="131">
         <v>1259</v>
       </c>
       <c r="G23" s="147">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="H23" s="148">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="I23" s="148" t="s">
         <v>211</v>
@@ -24826,137 +24862,125 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121">
-        <v>10</v>
-      </c>
-      <c r="B24" s="145">
+    <row r="24" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="144">
+        <v>11</v>
+      </c>
+      <c r="B24" s="146">
         <v>42818</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="127">
+      <c r="D24" s="162">
         <v>220</v>
       </c>
-      <c r="E24" s="186">
-        <v>2768</v>
-      </c>
-      <c r="F24" s="131">
+      <c r="E24" s="188">
+        <v>2770</v>
+      </c>
+      <c r="F24" s="189">
         <v>1259</v>
       </c>
-      <c r="G24" s="147">
-        <v>450</v>
-      </c>
-      <c r="H24" s="148">
-        <v>450</v>
-      </c>
-      <c r="I24" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" s="120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="144">
-        <v>11</v>
-      </c>
-      <c r="B25" s="146">
-        <v>42818</v>
-      </c>
-      <c r="C25" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="162">
-        <v>220</v>
-      </c>
-      <c r="E25" s="188">
-        <v>2770</v>
-      </c>
-      <c r="F25" s="189">
-        <v>1259</v>
-      </c>
-      <c r="G25" s="163">
+      <c r="G24" s="163">
         <v>652.5</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H24" s="149">
         <v>652.5</v>
       </c>
-      <c r="I25" s="149" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="149" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="128" t="s">
+      <c r="I24" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="128" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="198" t="s">
+    <row r="25" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="190">
-        <f>SUM(G15:G25)</f>
+      <c r="B25" s="201"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="190">
+        <f>SUM(G14:G24)</f>
         <v>12733.33</v>
       </c>
-      <c r="H26" s="190">
-        <f t="shared" ref="H26:J26" si="0">SUM(H15:H25)</f>
+      <c r="H25" s="190">
+        <f t="shared" ref="H25:J25" si="0">SUM(H14:H24)</f>
         <v>12733.33</v>
       </c>
-      <c r="I26" s="190">
+      <c r="I25" s="190">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="190">
+      <c r="J25" s="190">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="123"/>
-      <c r="D27" s="138"/>
-      <c r="F27" s="133"/>
-    </row>
-    <row r="28" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="193" t="s">
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-    </row>
-    <row r="29" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A29" s="194" t="s">
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+    </row>
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="194"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="194"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="213" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="213"/>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -24971,327 +24995,373 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="211" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="211"/>
-      <c r="C31" s="211"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211"/>
-      <c r="K31" s="211"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="140" t="s">
+      <c r="D31" s="140" t="s">
         <v>616</v>
       </c>
-      <c r="E33" s="185"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="226" t="s">
+      <c r="E31" s="185"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="226"/>
-      <c r="C34" s="3" t="s">
+      <c r="B32" s="227"/>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="227" t="s">
+      <c r="D32" s="228" t="s">
         <v>613</v>
       </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227"/>
-    </row>
-    <row r="35" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="226" t="s">
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="228"/>
+      <c r="K32" s="228"/>
+    </row>
+    <row r="33" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="226"/>
-      <c r="C35" s="182" t="s">
+      <c r="B33" s="227"/>
+      <c r="C33" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="227" t="s">
+      <c r="D33" s="228" t="s">
         <v>614</v>
       </c>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="227"/>
-      <c r="K35" s="227"/>
-    </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="228" t="s">
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="228"/>
+    </row>
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="228"/>
-      <c r="C36" s="182" t="s">
+      <c r="B34" s="229"/>
+      <c r="C34" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D34" s="193" t="s">
         <v>615</v>
       </c>
-      <c r="E36" s="185"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="10">
+      <c r="E34" s="185"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="10">
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="215" t="s">
+    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="217" t="s">
+      <c r="B36" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="219" t="s">
+      <c r="C36" s="219"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="255" t="s">
+      <c r="F36" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="223" t="s">
+      <c r="G36" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="222"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="222"/>
-      <c r="K38" s="223" t="s">
+      <c r="H36" s="224"/>
+      <c r="I36" s="224"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="225" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="216"/>
-      <c r="B39" s="158" t="s">
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="218"/>
+      <c r="B37" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="158" t="s">
+      <c r="C37" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="159" t="s">
+      <c r="D37" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="225"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="160" t="s">
+      <c r="E37" s="230"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="I39" s="160" t="s">
+      <c r="I37" s="160" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="160" t="s">
+      <c r="J37" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="216"/>
-    </row>
-    <row r="40" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="198" t="s">
+      <c r="K37" s="218"/>
+    </row>
+    <row r="38" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="200" t="s">
         <v>617</v>
       </c>
-      <c r="B40" s="199"/>
-      <c r="C40" s="199"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="199"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="190">
-        <f>G26</f>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="190">
+        <f>G25</f>
         <v>12733.33</v>
       </c>
-      <c r="H40" s="190">
-        <f t="shared" ref="H40:J40" si="1">H26</f>
+      <c r="H38" s="190">
+        <f>H25</f>
         <v>12733.33</v>
       </c>
-      <c r="I40" s="190">
-        <f t="shared" si="1"/>
+      <c r="I38" s="190">
+        <f>I25</f>
         <v>0</v>
       </c>
-      <c r="J40" s="190">
-        <f t="shared" si="1"/>
+      <c r="J38" s="190">
+        <f>J25</f>
         <v>0</v>
       </c>
-      <c r="K40" s="19"/>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="121">
+        <v>12</v>
+      </c>
+      <c r="B39" s="145">
+        <v>42850</v>
+      </c>
+      <c r="C39" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="127">
+        <v>395</v>
+      </c>
+      <c r="E39" s="186">
+        <v>4957</v>
+      </c>
+      <c r="F39" s="131">
+        <v>2612</v>
+      </c>
+      <c r="G39" s="147">
+        <v>3756</v>
+      </c>
+      <c r="H39" s="148">
+        <v>3756</v>
+      </c>
+      <c r="I39" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="155" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="121">
+        <v>13</v>
+      </c>
+      <c r="B40" s="145">
+        <v>42850</v>
+      </c>
+      <c r="C40" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="127">
+        <v>395</v>
+      </c>
+      <c r="E40" s="186">
+        <v>4959</v>
+      </c>
+      <c r="F40" s="131">
+        <v>2612</v>
+      </c>
+      <c r="G40" s="147">
+        <v>159</v>
+      </c>
+      <c r="H40" s="148">
+        <v>159</v>
+      </c>
+      <c r="I40" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="155" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121">
-        <v>12</v>
+      <c r="A41" s="144">
+        <v>14</v>
       </c>
       <c r="B41" s="145">
-        <v>42902</v>
+        <v>42850</v>
       </c>
       <c r="C41" s="152" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D41" s="127">
-        <v>943</v>
-      </c>
-      <c r="E41" s="187">
-        <v>963211613</v>
-      </c>
-      <c r="F41" s="129">
-        <v>2170</v>
+        <v>395</v>
+      </c>
+      <c r="E41" s="186">
+        <v>4960</v>
+      </c>
+      <c r="F41" s="131">
+        <v>2612</v>
       </c>
       <c r="G41" s="147">
-        <v>572.94000000000005</v>
-      </c>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148">
-        <v>572.94000000000005</v>
-      </c>
-      <c r="J41" s="148"/>
+        <v>585</v>
+      </c>
+      <c r="H41" s="148">
+        <v>585</v>
+      </c>
+      <c r="I41" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" s="148" t="s">
+        <v>211</v>
+      </c>
       <c r="K41" s="120" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="121">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" s="145">
-        <v>42916</v>
+        <v>42850</v>
       </c>
       <c r="C42" s="152" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D42" s="127">
-        <v>1104</v>
-      </c>
-      <c r="E42" s="187">
-        <v>963211613</v>
-      </c>
-      <c r="F42" s="129">
-        <v>2170</v>
+        <v>395</v>
+      </c>
+      <c r="E42" s="186">
+        <v>4963</v>
+      </c>
+      <c r="F42" s="131">
+        <v>2612</v>
       </c>
       <c r="G42" s="147">
-        <v>381.96</v>
-      </c>
-      <c r="H42" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" s="148">
-        <v>381.96</v>
+        <v>405</v>
+      </c>
+      <c r="H42" s="148">
+        <v>405</v>
+      </c>
+      <c r="I42" s="148" t="s">
+        <v>211</v>
       </c>
       <c r="J42" s="148" t="s">
         <v>211</v>
       </c>
       <c r="K42" s="120" t="s">
-        <v>600</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="144">
-        <v>14</v>
+      <c r="A43" s="121">
+        <v>16</v>
       </c>
       <c r="B43" s="145">
-        <v>42850</v>
+        <v>42857</v>
       </c>
       <c r="C43" s="152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="127">
-        <v>395</v>
-      </c>
-      <c r="E43" s="186">
-        <v>4957</v>
+        <v>1253</v>
+      </c>
+      <c r="E43" s="156" t="s">
+        <v>578</v>
       </c>
       <c r="F43" s="131">
-        <v>2612</v>
+        <v>2756</v>
       </c>
       <c r="G43" s="147">
-        <v>3756</v>
-      </c>
-      <c r="H43" s="148">
-        <v>3756</v>
+        <v>3600</v>
+      </c>
+      <c r="H43" s="148" t="s">
+        <v>211</v>
       </c>
       <c r="I43" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="J43" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" s="155" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121">
-        <v>15</v>
+      <c r="J43" s="148">
+        <v>3600</v>
+      </c>
+      <c r="K43" s="120" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="144">
+        <v>17</v>
       </c>
       <c r="B44" s="145">
-        <v>42850</v>
+        <v>42885</v>
       </c>
       <c r="C44" s="152" t="s">
         <v>164</v>
       </c>
       <c r="D44" s="127">
-        <v>395</v>
+        <v>575</v>
       </c>
       <c r="E44" s="186">
-        <v>4959</v>
+        <v>7116</v>
       </c>
       <c r="F44" s="131">
-        <v>2612</v>
+        <v>3401</v>
       </c>
       <c r="G44" s="147">
-        <v>159</v>
+        <v>3756</v>
       </c>
       <c r="H44" s="148">
-        <v>159</v>
+        <v>3756</v>
       </c>
       <c r="I44" s="148" t="s">
         <v>211</v>
@@ -25299,28 +25369,28 @@
       <c r="J44" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="K44" s="155" t="s">
-        <v>423</v>
+      <c r="K44" s="120" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="121">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B45" s="145">
-        <v>42850</v>
+        <v>42885</v>
       </c>
       <c r="C45" s="152" t="s">
         <v>164</v>
       </c>
       <c r="D45" s="127">
-        <v>395</v>
+        <v>575</v>
       </c>
       <c r="E45" s="186">
-        <v>4960</v>
+        <v>7118</v>
       </c>
       <c r="F45" s="131">
-        <v>2612</v>
+        <v>3401</v>
       </c>
       <c r="G45" s="147">
         <v>585</v>
@@ -25339,271 +25409,225 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="144">
-        <v>17</v>
+      <c r="A46" s="121">
+        <v>19</v>
       </c>
       <c r="B46" s="145">
-        <v>42850</v>
+        <v>42885</v>
       </c>
       <c r="C46" s="152" t="s">
         <v>164</v>
       </c>
       <c r="D46" s="127">
-        <v>395</v>
+        <v>575</v>
       </c>
       <c r="E46" s="186">
-        <v>4963</v>
+        <v>7119</v>
       </c>
       <c r="F46" s="131">
-        <v>2612</v>
+        <v>3401</v>
       </c>
       <c r="G46" s="147">
+        <v>159</v>
+      </c>
+      <c r="H46" s="148">
+        <v>159</v>
+      </c>
+      <c r="I46" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K46" s="155" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="144">
+        <v>20</v>
+      </c>
+      <c r="B47" s="145">
+        <v>42885</v>
+      </c>
+      <c r="C47" s="152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="127">
+        <v>575</v>
+      </c>
+      <c r="E47" s="186">
+        <v>7122</v>
+      </c>
+      <c r="F47" s="131">
+        <v>3401</v>
+      </c>
+      <c r="G47" s="147">
         <v>405</v>
       </c>
-      <c r="H46" s="148">
+      <c r="H47" s="148">
         <v>405</v>
       </c>
-      <c r="I46" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J46" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K46" s="120" t="s">
+      <c r="I47" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K47" s="120" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121">
-        <v>18</v>
-      </c>
-      <c r="B47" s="145">
-        <v>42857</v>
-      </c>
-      <c r="C47" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="127">
-        <v>1253</v>
-      </c>
-      <c r="E47" s="156" t="s">
-        <v>578</v>
-      </c>
-      <c r="F47" s="131">
-        <v>2756</v>
-      </c>
-      <c r="G47" s="147">
-        <v>3600</v>
-      </c>
-      <c r="H47" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I47" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J47" s="148">
-        <v>3600</v>
-      </c>
-      <c r="K47" s="120" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="121">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B48" s="145">
-        <v>42885</v>
+        <v>42902</v>
       </c>
       <c r="C48" s="152" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D48" s="127">
-        <v>575</v>
-      </c>
-      <c r="E48" s="186">
-        <v>7116</v>
-      </c>
-      <c r="F48" s="131">
-        <v>3401</v>
+        <v>943</v>
+      </c>
+      <c r="E48" s="187">
+        <v>963211613</v>
+      </c>
+      <c r="F48" s="129">
+        <v>2170</v>
       </c>
       <c r="G48" s="147">
-        <v>3756</v>
-      </c>
-      <c r="H48" s="148">
-        <v>3756</v>
-      </c>
-      <c r="I48" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J48" s="148" t="s">
-        <v>211</v>
-      </c>
+        <v>572.94000000000005</v>
+      </c>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148">
+        <v>572.94000000000005</v>
+      </c>
+      <c r="J48" s="148"/>
       <c r="K48" s="120" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="144">
-        <v>20</v>
-      </c>
-      <c r="B49" s="145">
-        <v>42885</v>
-      </c>
-      <c r="C49" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="127">
-        <v>575</v>
-      </c>
-      <c r="E49" s="186">
-        <v>7118</v>
-      </c>
-      <c r="F49" s="131">
-        <v>3401</v>
-      </c>
-      <c r="G49" s="147">
-        <v>585</v>
-      </c>
-      <c r="H49" s="148">
-        <v>585</v>
-      </c>
-      <c r="I49" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J49" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K49" s="120" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121">
-        <v>21</v>
-      </c>
-      <c r="B50" s="145">
-        <v>42885</v>
-      </c>
-      <c r="C50" s="152" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="127">
-        <v>575</v>
-      </c>
-      <c r="E50" s="186">
-        <v>7119</v>
-      </c>
-      <c r="F50" s="131">
-        <v>3401</v>
-      </c>
-      <c r="G50" s="147">
-        <v>159</v>
-      </c>
-      <c r="H50" s="148">
-        <v>159</v>
-      </c>
-      <c r="I50" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J50" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K50" s="155" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="191">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="121">
         <v>22</v>
       </c>
-      <c r="B51" s="146">
-        <v>42885</v>
-      </c>
-      <c r="C51" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="162">
-        <v>575</v>
-      </c>
-      <c r="E51" s="188">
-        <v>7122</v>
-      </c>
-      <c r="F51" s="189">
-        <v>3401</v>
-      </c>
-      <c r="G51" s="163">
-        <v>405</v>
-      </c>
-      <c r="H51" s="149">
-        <v>405</v>
-      </c>
-      <c r="I51" s="149" t="s">
-        <v>211</v>
-      </c>
-      <c r="J51" s="149" t="s">
-        <v>211</v>
-      </c>
-      <c r="K51" s="128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="198" t="s">
+      <c r="B49" s="146">
+        <v>42916</v>
+      </c>
+      <c r="C49" s="154" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="162">
+        <v>1104</v>
+      </c>
+      <c r="E49" s="194">
+        <v>963211613</v>
+      </c>
+      <c r="F49" s="130">
+        <v>2170</v>
+      </c>
+      <c r="G49" s="163">
+        <v>381.96</v>
+      </c>
+      <c r="H49" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="I49" s="149">
+        <v>381.96</v>
+      </c>
+      <c r="J49" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" s="128" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="199"/>
-      <c r="C52" s="199"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="199"/>
-      <c r="F52" s="200"/>
-      <c r="G52" s="190">
-        <f>SUM(G40:G51)</f>
+      <c r="B50" s="201"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="190">
+        <f>SUM(G38:G49)</f>
         <v>27098.23</v>
       </c>
-      <c r="H52" s="190">
-        <f t="shared" ref="H52:J52" si="2">SUM(H40:H51)</f>
+      <c r="H50" s="190">
+        <f t="shared" ref="H50:J50" si="1">SUM(H38:H49)</f>
         <v>22543.33</v>
       </c>
-      <c r="I52" s="190">
-        <f>SUM(I40:I51)</f>
+      <c r="I50" s="190">
+        <f t="shared" si="1"/>
         <v>954.90000000000009</v>
       </c>
-      <c r="J52" s="190">
-        <f t="shared" si="2"/>
+      <c r="J50" s="190">
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="K52" s="19"/>
-    </row>
-    <row r="53" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="193" t="s">
+      <c r="K50" s="19"/>
+    </row>
+    <row r="51" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="193"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="212"/>
-      <c r="E53" s="193"/>
-      <c r="F53" s="193"/>
-      <c r="G53" s="193"/>
-      <c r="H53" s="193"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="193"/>
-      <c r="K53" s="193"/>
-    </row>
-    <row r="54" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A54" s="194" t="s">
+      <c r="B51" s="195"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="214"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195"/>
+    </row>
+    <row r="52" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+      <c r="A52" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="194"/>
-      <c r="C54" s="194"/>
-      <c r="D54" s="213"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="194"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="194"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="194"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="215"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="213" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="213"/>
+      <c r="C54" s="213"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="213"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="213"/>
+      <c r="H54" s="213"/>
+      <c r="I54" s="213"/>
+      <c r="J54" s="213"/>
+      <c r="K54" s="213"/>
     </row>
     <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
@@ -25618,240 +25642,280 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="211" t="s">
+    <row r="56" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="140" t="s">
+        <v>616</v>
+      </c>
+      <c r="E56" s="185"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="192"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="227"/>
+      <c r="C57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="228" t="s">
+        <v>613</v>
+      </c>
+      <c r="E57" s="228"/>
+      <c r="F57" s="228"/>
+      <c r="G57" s="228"/>
+      <c r="H57" s="228"/>
+      <c r="I57" s="228"/>
+      <c r="J57" s="228"/>
+      <c r="K57" s="228"/>
+    </row>
+    <row r="58" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="227"/>
+      <c r="C58" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="228" t="s">
+        <v>614</v>
+      </c>
+      <c r="E58" s="228"/>
+      <c r="F58" s="228"/>
+      <c r="G58" s="228"/>
+      <c r="H58" s="228"/>
+      <c r="I58" s="228"/>
+      <c r="J58" s="228"/>
+      <c r="K58" s="228"/>
+    </row>
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="229"/>
+      <c r="C59" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="193" t="s">
+        <v>615</v>
+      </c>
+      <c r="E59" s="185"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="193"/>
+      <c r="H59" s="193"/>
+      <c r="I59" s="193"/>
+      <c r="J59" s="193"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="185"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="219"/>
+      <c r="D61" s="220"/>
+      <c r="E61" s="221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="231" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="225" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="224"/>
+      <c r="I61" s="224"/>
+      <c r="J61" s="224"/>
+      <c r="K61" s="225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="218"/>
+      <c r="B62" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="230"/>
+      <c r="F62" s="232"/>
+      <c r="G62" s="218"/>
+      <c r="H62" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" s="160" t="s">
+        <v>207</v>
+      </c>
+      <c r="J62" s="160" t="s">
+        <v>208</v>
+      </c>
+      <c r="K62" s="218"/>
+    </row>
+    <row r="63" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="200" t="s">
+        <v>617</v>
+      </c>
+      <c r="B63" s="201"/>
+      <c r="C63" s="201"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="201"/>
+      <c r="F63" s="202"/>
+      <c r="G63" s="190">
+        <f>G50</f>
+        <v>27098.23</v>
+      </c>
+      <c r="H63" s="190">
+        <f t="shared" ref="H63:J63" si="2">H50</f>
+        <v>22543.33</v>
+      </c>
+      <c r="I63" s="190">
+        <f t="shared" si="2"/>
+        <v>954.90000000000009</v>
+      </c>
+      <c r="J63" s="190">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="K63" s="19"/>
+    </row>
+    <row r="64" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="144">
+        <v>23</v>
+      </c>
+      <c r="B64" s="145">
+        <v>42976</v>
+      </c>
+      <c r="C64" s="152" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="186">
+        <v>14407</v>
+      </c>
+      <c r="F64" s="131">
+        <v>6837</v>
+      </c>
+      <c r="G64" s="147">
+        <v>135.35</v>
+      </c>
+      <c r="H64" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" s="148">
+        <v>135.35</v>
+      </c>
+      <c r="K64" s="120" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="121">
+        <v>24</v>
+      </c>
+      <c r="B65" s="145">
+        <v>43090</v>
+      </c>
+      <c r="C65" s="152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="127">
+        <v>4601</v>
+      </c>
+      <c r="E65" s="156" t="s">
+        <v>593</v>
+      </c>
+      <c r="F65" s="131">
+        <v>12124</v>
+      </c>
+      <c r="G65" s="147">
+        <v>0</v>
+      </c>
+      <c r="H65" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K65" s="120" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="121">
+        <v>25</v>
+      </c>
+      <c r="B66" s="145">
+        <v>43096</v>
+      </c>
+      <c r="C66" s="152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="127">
+        <v>3913</v>
+      </c>
+      <c r="E66" s="186">
+        <v>339</v>
+      </c>
+      <c r="F66" s="129">
+        <v>11343</v>
+      </c>
+      <c r="G66" s="147">
+        <v>82</v>
+      </c>
+      <c r="H66" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66" s="151">
+        <v>82</v>
+      </c>
+      <c r="J66" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="K66" s="120" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="144">
         <v>26</v>
-      </c>
-      <c r="B56" s="211"/>
-      <c r="C56" s="211"/>
-      <c r="D56" s="214"/>
-      <c r="E56" s="211"/>
-      <c r="F56" s="211"/>
-      <c r="G56" s="211"/>
-      <c r="H56" s="211"/>
-      <c r="I56" s="211"/>
-      <c r="J56" s="211"/>
-      <c r="K56" s="211"/>
-    </row>
-    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="184"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="140" t="s">
-        <v>616</v>
-      </c>
-      <c r="E58" s="185"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="226" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="226"/>
-      <c r="C59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="227" t="s">
-        <v>613</v>
-      </c>
-      <c r="E59" s="227"/>
-      <c r="F59" s="227"/>
-      <c r="G59" s="227"/>
-      <c r="H59" s="227"/>
-      <c r="I59" s="227"/>
-      <c r="J59" s="227"/>
-      <c r="K59" s="227"/>
-    </row>
-    <row r="60" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="226" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="226"/>
-      <c r="C60" s="182" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="227" t="s">
-        <v>614</v>
-      </c>
-      <c r="E60" s="227"/>
-      <c r="F60" s="227"/>
-      <c r="G60" s="227"/>
-      <c r="H60" s="227"/>
-      <c r="I60" s="227"/>
-      <c r="J60" s="227"/>
-      <c r="K60" s="227"/>
-    </row>
-    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="228" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="228"/>
-      <c r="C61" s="182" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="E61" s="185"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="185"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="215" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="217" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="217"/>
-      <c r="D63" s="218"/>
-      <c r="E63" s="219" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="255" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="223" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="222"/>
-      <c r="I63" s="222"/>
-      <c r="J63" s="222"/>
-      <c r="K63" s="223" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="216"/>
-      <c r="B64" s="158" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="159" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="225"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="216"/>
-      <c r="H64" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="160" t="s">
-        <v>207</v>
-      </c>
-      <c r="J64" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="K64" s="216"/>
-    </row>
-    <row r="65" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="198" t="s">
-        <v>617</v>
-      </c>
-      <c r="B65" s="199"/>
-      <c r="C65" s="199"/>
-      <c r="D65" s="199"/>
-      <c r="E65" s="199"/>
-      <c r="F65" s="200"/>
-      <c r="G65" s="190">
-        <f>G52</f>
-        <v>27098.23</v>
-      </c>
-      <c r="H65" s="190">
-        <f t="shared" ref="H65:J65" si="3">H52</f>
-        <v>22543.33</v>
-      </c>
-      <c r="I65" s="190">
-        <f>I52</f>
-        <v>954.90000000000009</v>
-      </c>
-      <c r="J65" s="190">
-        <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="K65" s="19"/>
-    </row>
-    <row r="66" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="144">
-        <v>23</v>
-      </c>
-      <c r="B66" s="145">
-        <v>42976</v>
-      </c>
-      <c r="C66" s="152" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="E66" s="186">
-        <v>14407</v>
-      </c>
-      <c r="F66" s="131">
-        <v>6837</v>
-      </c>
-      <c r="G66" s="147">
-        <v>135.35</v>
-      </c>
-      <c r="H66" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I66" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="J66" s="148">
-        <v>135.35</v>
-      </c>
-      <c r="K66" s="120" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="121">
-        <v>24</v>
       </c>
       <c r="B67" s="145">
         <v>43096</v>
@@ -25860,33 +25924,29 @@
         <v>178</v>
       </c>
       <c r="D67" s="127">
-        <v>3917</v>
+        <v>4114</v>
       </c>
       <c r="E67" s="186">
-        <v>339</v>
+        <v>1208</v>
       </c>
       <c r="F67" s="129">
-        <v>11343</v>
+        <v>11836</v>
       </c>
       <c r="G67" s="147">
-        <v>82</v>
-      </c>
-      <c r="H67" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I67" s="151">
-        <v>82</v>
-      </c>
-      <c r="J67" s="148" t="s">
-        <v>211</v>
-      </c>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="H67" s="148"/>
+      <c r="I67" s="161">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="J67" s="148"/>
       <c r="K67" s="120" t="s">
-        <v>606</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="121">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B68" s="145">
         <v>43096</v>
@@ -25904,20 +25964,20 @@
         <v>11836</v>
       </c>
       <c r="G68" s="147">
-        <v>16.989999999999998</v>
+        <v>23.9</v>
       </c>
       <c r="H68" s="148"/>
       <c r="I68" s="161">
-        <v>16.989999999999998</v>
+        <v>23.9</v>
       </c>
       <c r="J68" s="148"/>
       <c r="K68" s="120" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="144">
-        <v>26</v>
+      <c r="A69" s="121">
+        <v>28</v>
       </c>
       <c r="B69" s="145">
         <v>43096</v>
@@ -25935,20 +25995,20 @@
         <v>11836</v>
       </c>
       <c r="G69" s="147">
-        <v>23.9</v>
+        <v>33.42</v>
       </c>
       <c r="H69" s="148"/>
       <c r="I69" s="161">
-        <v>23.9</v>
+        <v>33.42</v>
       </c>
       <c r="J69" s="148"/>
       <c r="K69" s="120" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="121">
-        <v>27</v>
+      <c r="A70" s="144">
+        <v>29</v>
       </c>
       <c r="B70" s="145">
         <v>43096</v>
@@ -25966,20 +26026,20 @@
         <v>11836</v>
       </c>
       <c r="G70" s="147">
-        <v>33.42</v>
+        <v>28.2</v>
       </c>
       <c r="H70" s="148"/>
       <c r="I70" s="161">
-        <v>33.42</v>
+        <v>28.2</v>
       </c>
       <c r="J70" s="148"/>
       <c r="K70" s="120" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B71" s="145">
         <v>43096</v>
@@ -25997,204 +26057,145 @@
         <v>11836</v>
       </c>
       <c r="G71" s="147">
-        <v>28.2</v>
+        <v>44.85</v>
       </c>
       <c r="H71" s="148"/>
       <c r="I71" s="161">
-        <v>28.2</v>
+        <v>44.85</v>
       </c>
       <c r="J71" s="148"/>
       <c r="K71" s="120" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="144">
-        <v>29</v>
+      <c r="A72" s="121">
+        <v>31</v>
       </c>
       <c r="B72" s="145">
-        <v>43096</v>
+        <v>43159</v>
       </c>
       <c r="C72" s="152" t="s">
         <v>178</v>
       </c>
       <c r="D72" s="127">
-        <v>4114</v>
+        <v>8</v>
       </c>
       <c r="E72" s="186">
-        <v>1208</v>
+        <v>2041</v>
       </c>
       <c r="F72" s="129">
-        <v>11836</v>
+        <v>12330</v>
       </c>
       <c r="G72" s="147">
-        <v>44.85</v>
-      </c>
-      <c r="H72" s="148"/>
-      <c r="I72" s="161">
-        <v>44.85</v>
-      </c>
-      <c r="J72" s="148"/>
+        <v>345</v>
+      </c>
+      <c r="H72" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I72" s="151">
+        <v>345</v>
+      </c>
+      <c r="J72" s="148" t="s">
+        <v>211</v>
+      </c>
       <c r="K72" s="120" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="121">
-        <v>30</v>
-      </c>
-      <c r="B73" s="145">
-        <v>43090</v>
-      </c>
-      <c r="C73" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="127">
-        <v>4601</v>
-      </c>
-      <c r="E73" s="156" t="s">
-        <v>593</v>
-      </c>
-      <c r="F73" s="131">
-        <v>12124</v>
-      </c>
-      <c r="G73" s="147">
-        <v>0</v>
-      </c>
-      <c r="H73" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I73" s="148"/>
-      <c r="J73" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K73" s="120" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="121">
-        <v>31</v>
-      </c>
-      <c r="B74" s="145">
-        <v>43159</v>
-      </c>
-      <c r="C74" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="127"/>
-      <c r="E74" s="186">
-        <v>2041</v>
-      </c>
-      <c r="F74" s="129">
-        <v>12330</v>
-      </c>
-      <c r="G74" s="147">
-        <v>345</v>
-      </c>
-      <c r="H74" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="I74" s="151">
-        <v>345</v>
-      </c>
-      <c r="J74" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="K74" s="120" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="229" t="s">
+    <row r="73" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="233" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="230"/>
-      <c r="C75" s="230"/>
-      <c r="D75" s="230"/>
-      <c r="E75" s="230"/>
-      <c r="F75" s="231"/>
-      <c r="G75" s="173">
-        <f>SUM(G65:G74)</f>
+      <c r="B73" s="234"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="234"/>
+      <c r="E73" s="234"/>
+      <c r="F73" s="235"/>
+      <c r="G73" s="173">
+        <f>SUM(G63:G72)</f>
         <v>27807.94</v>
       </c>
-      <c r="H75" s="173">
-        <f t="shared" ref="H75:J75" si="4">SUM(H65:H74)</f>
+      <c r="H73" s="173">
+        <f t="shared" ref="H73:J73" si="3">SUM(H63:H72)</f>
         <v>22543.33</v>
       </c>
-      <c r="I75" s="173">
-        <f>SUM(I65:I74)</f>
+      <c r="I73" s="173">
+        <f t="shared" si="3"/>
         <v>1529.2600000000002</v>
       </c>
-      <c r="J75" s="173">
-        <f t="shared" si="4"/>
+      <c r="J73" s="173">
+        <f t="shared" si="3"/>
         <v>3735.35</v>
       </c>
-      <c r="K75" s="119"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K78" s="192" t="s">
+      <c r="K73" s="119"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="191" t="s">
         <v>618</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A16:K45">
+    <sortCondition ref="B16:B45"/>
+  </sortState>
   <mergeCells count="50">
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:K58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:K60"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:K8"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.52" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="26" max="10" man="1"/>
-    <brk id="52" max="16383" man="1"/>
+    <brk id="25" max="10" man="1"/>
+    <brk id="50" max="10" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -26205,7 +26206,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="D3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26214,7 +26215,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9" style="123" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="138" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="133" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
@@ -27170,30 +27171,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -27207,17 +27208,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -27304,15 +27305,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219" t="s">
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="168" t="s">
@@ -27324,12 +27325,12 @@
       <c r="H12" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="223" t="s">
+      <c r="I12" s="225" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="216"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -27339,13 +27340,13 @@
       <c r="D13" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="220"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="170"/>
       <c r="G13" s="171"/>
       <c r="H13" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="224"/>
+      <c r="I13" s="226"/>
       <c r="J13" s="166" t="s">
         <v>607</v>
       </c>
@@ -27389,15 +27390,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="198" t="s">
+    <row r="15" spans="1:11" s="125" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="200"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="202"/>
       <c r="G15" s="150">
         <f>SUM(G14:G14)</f>
         <v>5384.95</v>
@@ -27437,8 +27438,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N230"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129:G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28405,34 +28406,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -28448,19 +28449,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -28559,14 +28560,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -28584,7 +28585,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="216"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -28770,7 +28771,7 @@
       </c>
       <c r="M17" s="172"/>
     </row>
-    <row r="18" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="144">
         <v>7</v>
       </c>
@@ -28808,7 +28809,7 @@
       <c r="L18" s="172"/>
       <c r="M18" s="172"/>
     </row>
-    <row r="19" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="157" customFormat="1" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121">
         <v>8</v>
       </c>
@@ -28846,7 +28847,7 @@
       <c r="L19" s="172"/>
       <c r="M19" s="172"/>
     </row>
-    <row r="20" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
         <v>9</v>
       </c>
@@ -29356,7 +29357,7 @@
       </c>
       <c r="M32" s="172"/>
     </row>
-    <row r="33" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="157" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="144">
         <v>28</v>
       </c>
@@ -29646,7 +29647,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="157" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="144">
         <v>40</v>
       </c>
@@ -29688,7 +29689,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="157" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="121">
         <v>41</v>
       </c>
@@ -29726,7 +29727,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="157" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="121">
         <v>42</v>
       </c>
@@ -29764,7 +29765,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="157" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="144">
         <v>43</v>
       </c>
@@ -29802,7 +29803,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="157" customFormat="1" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="121">
         <v>44</v>
       </c>
@@ -32880,7 +32881,7 @@
         <v>436</v>
       </c>
       <c r="L121" s="172" t="s">
-        <v>23</v>
+        <v>609</v>
       </c>
       <c r="M121" s="172" t="s">
         <v>611</v>
@@ -32923,7 +32924,7 @@
         <v>174</v>
       </c>
       <c r="L122" s="172" t="s">
-        <v>23</v>
+        <v>609</v>
       </c>
       <c r="M122" s="172" t="s">
         <v>611</v>
@@ -32966,7 +32967,7 @@
         <v>435</v>
       </c>
       <c r="L123" s="172" t="s">
-        <v>23</v>
+        <v>609</v>
       </c>
       <c r="M123" s="172" t="s">
         <v>611</v>
@@ -33009,7 +33010,7 @@
         <v>554</v>
       </c>
       <c r="L124" s="172" t="s">
-        <v>23</v>
+        <v>609</v>
       </c>
       <c r="M124" s="172" t="s">
         <v>611</v>
@@ -33052,7 +33053,7 @@
         <v>175</v>
       </c>
       <c r="L125" s="172" t="s">
-        <v>23</v>
+        <v>609</v>
       </c>
       <c r="M125" s="172" t="s">
         <v>611</v>
@@ -33095,7 +33096,7 @@
         <v>209</v>
       </c>
       <c r="L126" s="172" t="s">
-        <v>23</v>
+        <v>609</v>
       </c>
       <c r="M126" s="172" t="s">
         <v>611</v>
@@ -33138,7 +33139,7 @@
         <v>216</v>
       </c>
       <c r="L127" s="172" t="s">
-        <v>23</v>
+        <v>609</v>
       </c>
       <c r="M127" s="172" t="s">
         <v>611</v>
@@ -33187,7 +33188,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="121">
         <v>150</v>
       </c>
@@ -33225,7 +33226,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="144">
         <v>151</v>
       </c>
@@ -33261,7 +33262,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="157" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="157" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="121">
         <v>152</v>
       </c>
@@ -34525,7 +34526,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="144">
         <v>187</v>
       </c>
@@ -34601,7 +34602,7 @@
       <c r="L163" s="172"/>
       <c r="M163" s="172"/>
     </row>
-    <row r="164" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="121">
         <v>189</v>
       </c>
@@ -34677,7 +34678,7 @@
       <c r="L165" s="172"/>
       <c r="M165" s="172"/>
     </row>
-    <row r="166" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="121">
         <v>191</v>
       </c>
@@ -35331,7 +35332,7 @@
       </c>
       <c r="M181" s="172"/>
     </row>
-    <row r="182" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="121">
         <v>207</v>
       </c>
@@ -35369,7 +35370,7 @@
       <c r="L182" s="172"/>
       <c r="M182" s="172"/>
     </row>
-    <row r="183" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="144">
         <v>208</v>
       </c>
@@ -35445,7 +35446,7 @@
       <c r="L184" s="172"/>
       <c r="M184" s="172"/>
     </row>
-    <row r="185" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="121">
         <v>210</v>
       </c>
@@ -36121,7 +36122,7 @@
       </c>
       <c r="M201" s="172"/>
     </row>
-    <row r="202" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="121">
         <v>228</v>
       </c>
@@ -36159,7 +36160,7 @@
       <c r="L202" s="172"/>
       <c r="M202" s="172"/>
     </row>
-    <row r="203" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="144">
         <v>229</v>
       </c>
@@ -36273,7 +36274,7 @@
       <c r="L205" s="172"/>
       <c r="M205" s="172"/>
     </row>
-    <row r="206" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="144">
         <v>232</v>
       </c>
@@ -36631,7 +36632,7 @@
       </c>
       <c r="M214" s="172"/>
     </row>
-    <row r="215" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="121">
         <v>248</v>
       </c>
@@ -36669,7 +36670,7 @@
       <c r="L215" s="172"/>
       <c r="M215" s="172"/>
     </row>
-    <row r="216" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="121">
         <v>249</v>
       </c>
@@ -36707,7 +36708,7 @@
       <c r="L216" s="172"/>
       <c r="M216" s="172"/>
     </row>
-    <row r="217" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="144">
         <v>250</v>
       </c>
@@ -36745,7 +36746,7 @@
       <c r="L217" s="172"/>
       <c r="M217" s="172"/>
     </row>
-    <row r="218" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="121">
         <v>251</v>
       </c>
@@ -36783,7 +36784,7 @@
       <c r="L218" s="172"/>
       <c r="M218" s="172"/>
     </row>
-    <row r="219" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="121">
         <v>252</v>
       </c>
@@ -36821,7 +36822,7 @@
       <c r="L219" s="172"/>
       <c r="M219" s="172"/>
     </row>
-    <row r="220" spans="1:13" s="157" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="144">
         <v>253</v>
       </c>
@@ -36859,7 +36860,7 @@
       <c r="L220" s="172"/>
       <c r="M220" s="172"/>
     </row>
-    <row r="221" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="121">
         <v>254</v>
       </c>
@@ -36897,7 +36898,7 @@
       <c r="L221" s="172"/>
       <c r="M221" s="172"/>
     </row>
-    <row r="222" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="121">
         <v>255</v>
       </c>
@@ -36935,7 +36936,7 @@
       <c r="L222" s="172"/>
       <c r="M222" s="172"/>
     </row>
-    <row r="223" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="144">
         <v>256</v>
       </c>
@@ -36973,7 +36974,7 @@
       <c r="L223" s="172"/>
       <c r="M223" s="172"/>
     </row>
-    <row r="224" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="121">
         <v>258</v>
       </c>
@@ -37015,7 +37016,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="225" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="144">
         <v>259</v>
       </c>
@@ -37057,7 +37058,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="226" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="121">
         <v>260</v>
       </c>
@@ -37099,7 +37100,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="227" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="121">
         <v>261</v>
       </c>
@@ -37141,7 +37142,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="228" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" s="157" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="144">
         <v>262</v>
       </c>
@@ -37183,15 +37184,15 @@
         <v>611</v>
       </c>
     </row>
-    <row r="229" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="198" t="s">
+    <row r="229" spans="1:13" s="125" customFormat="1" ht="57" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B229" s="199"/>
-      <c r="C229" s="199"/>
-      <c r="D229" s="199"/>
-      <c r="E229" s="199"/>
-      <c r="F229" s="200"/>
+      <c r="B229" s="201"/>
+      <c r="C229" s="201"/>
+      <c r="D229" s="201"/>
+      <c r="E229" s="201"/>
+      <c r="F229" s="202"/>
       <c r="G229" s="150">
         <f>SUM(G14:G228)</f>
         <v>1069430.58</v>
@@ -37210,7 +37211,7 @@
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:13" s="125" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" s="125" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C230" s="126"/>
       <c r="D230" s="143"/>
       <c r="F230" s="135"/>
@@ -37225,34 +37226,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G13:M230">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="10009.94"/>
-        <filter val="1005.78"/>
-        <filter val="10113.44"/>
-        <filter val="1044.00"/>
-        <filter val="1069430.58"/>
-        <filter val="1157.00"/>
-        <filter val="1178.00"/>
-        <filter val="12481.52"/>
-        <filter val="137398.31"/>
-        <filter val="17022.33"/>
-        <filter val="17085.00"/>
-        <filter val="1990.16"/>
-        <filter val="20071.00"/>
-        <filter val="2758.00"/>
-        <filter val="46049.53"/>
-        <filter val="936.00"/>
+  <autoFilter ref="E13:M230">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="5357"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="6">
@@ -38241,34 +38219,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -38284,19 +38262,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -38395,14 +38373,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -38420,7 +38398,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="216"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -41016,14 +40994,14 @@
       <c r="M184" s="172"/>
     </row>
     <row r="185" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="198" t="s">
+      <c r="A185" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B185" s="199"/>
-      <c r="C185" s="199"/>
-      <c r="D185" s="199"/>
-      <c r="E185" s="199"/>
-      <c r="F185" s="200"/>
+      <c r="B185" s="201"/>
+      <c r="C185" s="201"/>
+      <c r="D185" s="201"/>
+      <c r="E185" s="201"/>
+      <c r="F185" s="202"/>
       <c r="G185" s="150">
         <f>SUM(G14:G184)</f>
         <v>0</v>
@@ -42043,34 +42021,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -42086,19 +42064,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -42197,14 +42175,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -42222,7 +42200,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="216"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -44503,14 +44481,14 @@
       <c r="M163" s="172"/>
     </row>
     <row r="164" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="198" t="s">
+      <c r="A164" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="199"/>
-      <c r="C164" s="199"/>
-      <c r="D164" s="199"/>
-      <c r="E164" s="199"/>
-      <c r="F164" s="200"/>
+      <c r="B164" s="201"/>
+      <c r="C164" s="201"/>
+      <c r="D164" s="201"/>
+      <c r="E164" s="201"/>
+      <c r="F164" s="202"/>
       <c r="G164" s="150">
         <f>SUM(G14:G163)</f>
         <v>0</v>
@@ -45530,34 +45508,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -45573,19 +45551,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="213" t="s">
         <v>612</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -45684,14 +45662,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="215" t="s">
+      <c r="A12" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
       <c r="E12" s="178" t="s">
         <v>10</v>
       </c>
@@ -45709,7 +45687,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="216"/>
+      <c r="A13" s="218"/>
       <c r="B13" s="158" t="s">
         <v>14</v>
       </c>
@@ -48515,14 +48493,14 @@
       <c r="M198" s="172"/>
     </row>
     <row r="199" spans="1:13" s="125" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="198" t="s">
+      <c r="A199" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B199" s="199"/>
-      <c r="C199" s="199"/>
-      <c r="D199" s="199"/>
-      <c r="E199" s="199"/>
-      <c r="F199" s="200"/>
+      <c r="B199" s="201"/>
+      <c r="C199" s="201"/>
+      <c r="D199" s="201"/>
+      <c r="E199" s="201"/>
+      <c r="F199" s="202"/>
       <c r="G199" s="150">
         <f>SUM(G14:G198)</f>
         <v>0</v>
@@ -48600,21 +48578,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -48632,21 +48610,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -48756,56 +48734,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="232" t="s">
+      <c r="B10" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="236" t="s">
+      <c r="D10" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="234" t="s">
+      <c r="E10" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="234" t="s">
+      <c r="F10" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="234" t="s">
+      <c r="G10" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="234" t="s">
+      <c r="H10" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="238" t="s">
+      <c r="I10" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="234" t="s">
+      <c r="J10" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="234" t="s">
+      <c r="K10" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="234" t="s">
+      <c r="L10" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="240" t="s">
+      <c r="M10" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="241"/>
+      <c r="N10" s="245"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="233"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="235"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="239"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -48940,31 +48918,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="244"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="248"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="245"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="246"/>
-      <c r="M18" s="246"/>
-      <c r="N18" s="247"/>
+      <c r="J18" s="249"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="250"/>
+      <c r="N18" s="251"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="254" t="s">
+      <c r="M20" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="254"/>
+      <c r="N20" s="258"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -48986,21 +48964,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="211" t="s">
+      <c r="B23" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="211"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -49018,21 +48996,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
-      <c r="N25" s="211"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -49142,56 +49120,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="232" t="s">
+      <c r="B31" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="234" t="s">
+      <c r="C31" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="236" t="s">
+      <c r="D31" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="234" t="s">
+      <c r="E31" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="234" t="s">
+      <c r="F31" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="234" t="s">
+      <c r="G31" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="234" t="s">
+      <c r="H31" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="238" t="s">
+      <c r="I31" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="234" t="s">
+      <c r="J31" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="234" t="s">
+      <c r="K31" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="234" t="s">
+      <c r="L31" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="240" t="s">
+      <c r="M31" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="241"/>
+      <c r="N31" s="245"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="233"/>
-      <c r="C32" s="235"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="235"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="239"/>
-      <c r="J32" s="235"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="235"/>
+      <c r="B32" s="237"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="243"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="239"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -49285,31 +49263,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="248" t="s">
+      <c r="B38" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="249"/>
-      <c r="D38" s="249"/>
-      <c r="E38" s="249"/>
-      <c r="F38" s="249"/>
-      <c r="G38" s="249"/>
-      <c r="H38" s="250"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="253"/>
+      <c r="G38" s="253"/>
+      <c r="H38" s="254"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="251"/>
-      <c r="K38" s="252"/>
-      <c r="L38" s="252"/>
-      <c r="M38" s="252"/>
-      <c r="N38" s="253"/>
+      <c r="J38" s="255"/>
+      <c r="K38" s="256"/>
+      <c r="L38" s="256"/>
+      <c r="M38" s="256"/>
+      <c r="N38" s="257"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="254" t="s">
+      <c r="M40" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="254"/>
+      <c r="N40" s="258"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -49331,21 +49309,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="211" t="s">
+      <c r="B43" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="211"/>
-      <c r="D43" s="211"/>
-      <c r="E43" s="211"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="211"/>
-      <c r="H43" s="211"/>
-      <c r="I43" s="211"/>
-      <c r="J43" s="211"/>
-      <c r="K43" s="211"/>
-      <c r="L43" s="211"/>
-      <c r="M43" s="211"/>
-      <c r="N43" s="211"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="213"/>
+      <c r="E43" s="213"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="213"/>
+      <c r="J43" s="213"/>
+      <c r="K43" s="213"/>
+      <c r="L43" s="213"/>
+      <c r="M43" s="213"/>
+      <c r="N43" s="213"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -49363,21 +49341,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="211" t="s">
+      <c r="B45" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="211"/>
-      <c r="D45" s="211"/>
-      <c r="E45" s="211"/>
-      <c r="F45" s="211"/>
-      <c r="G45" s="211"/>
-      <c r="H45" s="211"/>
-      <c r="I45" s="211"/>
-      <c r="J45" s="211"/>
-      <c r="K45" s="211"/>
-      <c r="L45" s="211"/>
-      <c r="M45" s="211"/>
-      <c r="N45" s="211"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="213"/>
+      <c r="M45" s="213"/>
+      <c r="N45" s="213"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -49487,56 +49465,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="232" t="s">
+      <c r="B51" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="234" t="s">
+      <c r="C51" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="236" t="s">
+      <c r="D51" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="234" t="s">
+      <c r="E51" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="234" t="s">
+      <c r="F51" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="234" t="s">
+      <c r="G51" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="234" t="s">
+      <c r="H51" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="238" t="s">
+      <c r="I51" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="234" t="s">
+      <c r="J51" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="234" t="s">
+      <c r="K51" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="234" t="s">
+      <c r="L51" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="240" t="s">
+      <c r="M51" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="241"/>
+      <c r="N51" s="245"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="233"/>
-      <c r="C52" s="235"/>
-      <c r="D52" s="237"/>
-      <c r="E52" s="235"/>
-      <c r="F52" s="235"/>
-      <c r="G52" s="235"/>
-      <c r="H52" s="235"/>
-      <c r="I52" s="239"/>
-      <c r="J52" s="235"/>
-      <c r="K52" s="235"/>
-      <c r="L52" s="235"/>
+      <c r="B52" s="237"/>
+      <c r="C52" s="239"/>
+      <c r="D52" s="241"/>
+      <c r="E52" s="239"/>
+      <c r="F52" s="239"/>
+      <c r="G52" s="239"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="243"/>
+      <c r="J52" s="239"/>
+      <c r="K52" s="239"/>
+      <c r="L52" s="239"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -49613,31 +49591,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="248" t="s">
+      <c r="B57" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="249"/>
-      <c r="D57" s="249"/>
-      <c r="E57" s="249"/>
-      <c r="F57" s="249"/>
-      <c r="G57" s="249"/>
-      <c r="H57" s="250"/>
+      <c r="C57" s="253"/>
+      <c r="D57" s="253"/>
+      <c r="E57" s="253"/>
+      <c r="F57" s="253"/>
+      <c r="G57" s="253"/>
+      <c r="H57" s="254"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="251"/>
-      <c r="K57" s="252"/>
-      <c r="L57" s="252"/>
-      <c r="M57" s="252"/>
-      <c r="N57" s="253"/>
+      <c r="J57" s="255"/>
+      <c r="K57" s="256"/>
+      <c r="L57" s="256"/>
+      <c r="M57" s="256"/>
+      <c r="N57" s="257"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="254" t="s">
+      <c r="M59" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="254"/>
+      <c r="N59" s="258"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -49667,21 +49645,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="211" t="s">
+      <c r="B64" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="211"/>
-      <c r="D64" s="211"/>
-      <c r="E64" s="211"/>
-      <c r="F64" s="211"/>
-      <c r="G64" s="211"/>
-      <c r="H64" s="211"/>
-      <c r="I64" s="211"/>
-      <c r="J64" s="211"/>
-      <c r="K64" s="211"/>
-      <c r="L64" s="211"/>
-      <c r="M64" s="211"/>
-      <c r="N64" s="211"/>
+      <c r="C64" s="213"/>
+      <c r="D64" s="213"/>
+      <c r="E64" s="213"/>
+      <c r="F64" s="213"/>
+      <c r="G64" s="213"/>
+      <c r="H64" s="213"/>
+      <c r="I64" s="213"/>
+      <c r="J64" s="213"/>
+      <c r="K64" s="213"/>
+      <c r="L64" s="213"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="213"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -49699,21 +49677,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="211" t="s">
+      <c r="B66" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="211"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="211"/>
-      <c r="F66" s="211"/>
-      <c r="G66" s="211"/>
-      <c r="H66" s="211"/>
-      <c r="I66" s="211"/>
-      <c r="J66" s="211"/>
-      <c r="K66" s="211"/>
-      <c r="L66" s="211"/>
-      <c r="M66" s="211"/>
-      <c r="N66" s="211"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="213"/>
+      <c r="E66" s="213"/>
+      <c r="F66" s="213"/>
+      <c r="G66" s="213"/>
+      <c r="H66" s="213"/>
+      <c r="I66" s="213"/>
+      <c r="J66" s="213"/>
+      <c r="K66" s="213"/>
+      <c r="L66" s="213"/>
+      <c r="M66" s="213"/>
+      <c r="N66" s="213"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -49823,56 +49801,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="232" t="s">
+      <c r="B72" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="234" t="s">
+      <c r="C72" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="236" t="s">
+      <c r="D72" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="234" t="s">
+      <c r="E72" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="234" t="s">
+      <c r="F72" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="234" t="s">
+      <c r="G72" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="234" t="s">
+      <c r="H72" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="238" t="s">
+      <c r="I72" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="234" t="s">
+      <c r="J72" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="234" t="s">
+      <c r="K72" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="234" t="s">
+      <c r="L72" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="240" t="s">
+      <c r="M72" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="241"/>
+      <c r="N72" s="245"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="233"/>
-      <c r="C73" s="235"/>
-      <c r="D73" s="237"/>
-      <c r="E73" s="235"/>
-      <c r="F73" s="235"/>
-      <c r="G73" s="235"/>
-      <c r="H73" s="235"/>
-      <c r="I73" s="239"/>
-      <c r="J73" s="235"/>
-      <c r="K73" s="235"/>
-      <c r="L73" s="235"/>
+      <c r="B73" s="237"/>
+      <c r="C73" s="239"/>
+      <c r="D73" s="241"/>
+      <c r="E73" s="239"/>
+      <c r="F73" s="239"/>
+      <c r="G73" s="239"/>
+      <c r="H73" s="239"/>
+      <c r="I73" s="243"/>
+      <c r="J73" s="239"/>
+      <c r="K73" s="239"/>
+      <c r="L73" s="239"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -49932,31 +49910,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="242" t="s">
+      <c r="B77" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="243"/>
-      <c r="D77" s="243"/>
-      <c r="E77" s="243"/>
-      <c r="F77" s="243"/>
-      <c r="G77" s="243"/>
-      <c r="H77" s="244"/>
+      <c r="C77" s="247"/>
+      <c r="D77" s="247"/>
+      <c r="E77" s="247"/>
+      <c r="F77" s="247"/>
+      <c r="G77" s="247"/>
+      <c r="H77" s="248"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="245"/>
-      <c r="K77" s="246"/>
-      <c r="L77" s="246"/>
-      <c r="M77" s="246"/>
-      <c r="N77" s="247"/>
+      <c r="J77" s="249"/>
+      <c r="K77" s="250"/>
+      <c r="L77" s="250"/>
+      <c r="M77" s="250"/>
+      <c r="N77" s="251"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="254" t="s">
+      <c r="M79" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="254"/>
+      <c r="N79" s="258"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
